--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="234">
   <si>
     <t>Doi</t>
   </si>
@@ -834,6 +834,99 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,  Grace K.H.%Lee%NULL%0,  Benjamin Y.Q.%Tan%NULL%1,  Mingxue%Jing%NULL%0,  Yihui%Goh%NULL%0,  Nicholas J.H.%Ngiam%NULL%1,  Leonard L.L.%Yeo%NULL%0,  Aftab%Ahmad%NULL%0,  Faheem%Ahmed Khan%NULL%1,  Ganesh%Napolean Shanmugam%NULL%1,  Arvind K.%Sharma%NULL%0,  R.N.%Komalkumar%NULL%1,  P.V.%Meenakshi%NULL%1,  Kenam%Shah%NULL%0,  Bhargesh%Patel%NULL%0,  Bernard P.L.%Chan%NULL%0,  Sibi%Sunny%NULL%0,  Bharatendu%Chandra%NULL%0,  Jonathan J.Y.%Ong%NULL%0,  Prakash R.%Paliwal%NULL%0,  Lily Y.H.%Wong%NULL%0,  Renarebecca%Sagayanathan%NULL%0,  Jin Tao%Chen%NULL%0,  Alison Ying%Ying Ng%NULL%0,  Hock Luen%Teoh%NULL%0,  Georgios%Tsivgoulis%NULL%0,  Cyrus S.%Ho%NULL%0,  Roger C.%Ho%NULL%0,  Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,   Simeng%Ma%NULL%0,   Ying%Wang%NULL%0,   Zhongxiang%Cai%NULL%0,   Jianbo%Hu%NULL%0,   Ning%Wei%NULL%0,   Jiang%Wu%NULL%0,   Hui%Du%NULL%0,   Tingting%Chen%NULL%0,   Ruiting%Li%NULL%0,   Huawei%Tan%NULL%0,   Lijun%Kang%NULL%0,   Lihua%Yao%NULL%0,   Manli%Huang%NULL%0,   Huafen%Wang%NULL%0,   Gaohua%Wang%NULL%0,   Zhongchun%Liu%NULL%0,   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,   Lu%Dong%NULL%1,   Tao%Wang%NULL%0,   Chenxin%Yuan%NULL%1,   Rao%Fu%NULL%1,   Lei%Zhang%NULL%1,   Bo%Liu%NULL%0,   Mingmin%Zhang%NULL%1,   Yuanyuan%Yin%NULL%1,   Jiawen%Qin%NULL%1,   Jennifer%Bouey%NULL%1,   Min%Zhao%NULL%0,   Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,   Yun-zhi%Yang%NULL%2,   Xiao-Ming%Zhang%NULL%2,   Xinying%Xu%NULL%4,   Xinying%Xu%NULL%0,   Qing-Li%Dou%NULL%2,   Wen-Wu%Zhang%NULL%2,   Andy S. K.%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,   Hang%Wang%NULL%0,   Yuxing%Lin%NULL%0,   Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,   Jing%Xu%NULL%0,   Bo-Zhi%Li%NULL%1,   Jin-Sha%Huang%NULL%1,   Yuan%Yang%NULL%0,   Zhen-Tao%Zhang%NULL%1,   Dong-Ai%Yao%NULL%1,   Qun-Hui%Liu%NULL%1,   Min%Jia%NULL%1,   Dao-Kai%Gong%NULL%1,   Xiao-Hong%Ni%NULL%1,   Qi-Mei%Zhang%NULL%1,   Fu-Rong%Shang%NULL%1,   Nian%Xiong%NULL%1,   Chun-Li%Zhu%NULL%1,   Tao%Wang%wangtaowh@hust.edu.cn%0,   Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,   Wenning%Fu%NULL%1,   Xiaoran%Liu%NULL%1,   Zhiqian%Luo%NULL%1,   Rixing%Wang%NULL%1,   Ning%Zhou%NULL%2,   Shijiao%Yan%NULL%1,   Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,   L%Xie%NULL%1,   Y%Xu%NULL%1,   S%Yu%NULL%1,   B%Yao%professoryao@aliyun.com%1,   D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,   Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,   Kun%Wang%NULL%0,   Lu%Yin%NULL%0,   Wen-feng%Zhao%NULL%0,   Qing%Xue%NULL%0,   Mao%Peng%NULL%0,   Bao-quan%Min%NULL%0,   Qing%Tian%NULL%0,   Hai-xia%Leng%NULL%0,   Jia-lin%Du%NULL%0,   Hong%Chang%NULL%0,   Yuan%Yang%NULL%0,   Wei%Li%NULL%0,   Fang-fang%Shangguan%NULL%0,   Tian-yi%Yan%NULL%0,   Hui-qing%Dong%NULL%0,   Ying%Han%NULL%0,   Yu-ping%Wang%NULL%0,   Fiammetta%Cosci%NULL%0,   Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,   Lulu%Yang%NULL%1,   Shuai%Liu%NULL%1,   Simeng%Ma%NULL%0,   Ying%Wang%NULL%0,   Zhongxiang%Cai%NULL%0,   Hui%Du%NULL%0,   Ruiting%Li%NULL%0,   Lijun%Kang%NULL%0,   Meilei%Su%NULL%1,   Jihui%Zhang%NULL%1,   Zhongchun%Liu%NULL%0,   Bin%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,   Xiaobin%Zhu%NULL%1,   Shuai%Fu%NULL%1,   Yugang%Hu%NULL%1,   Xiaoning%Li%NULL%1,   Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,   Hao%Zhou%haoye320@163.com%1,   Yan%Zhou%NULL%1,   Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,   Jing-wen%He%NULL%2,   Jing-wen%He%NULL%0,   Na%Zhou%NULL%1,   Oliver%Schildgen.%NULL%3,   Oliver%Schildgen.%NULL%0,   Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,   Lin%Sun%NULL%0,   Lan%Zhang%NULL%1,   Huan%Wang%NULL%1,   Ajiao%Fan%NULL%1,   Bin%Yang%NULL%1,   Wei%Li%NULL%0,   Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,   Ranjan%Bhattacharyya%NULL%1,   Sumita%Bhattacharyya%NULL%1,   Sukanya%Gupta%NULL%1,   Soumitra%Das%NULL%1,   Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,   Kinshuk%Kohli%NULL%1,   P%Padmakumari%NULL%1,   Prashant Kumar%Dixit%NULL%1,   Ajay Shankar%Prasad%NULL%1,   Bharath Seshadri%Chakravarthy%NULL%1,   Rajat%Shukla%NULL%1,   Parthasarathi%Ghana%NULL%1,   Debasish%Mahapatra%NULL%1,   G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,   Jeffrey Pradeep%Raj%NULL%1,   Seema%Rao%NULL%1,   Murtuza%Ghiya%NULL%1,   Nisanth Menon%Nedungalaparambil%NULL%1,   Harshit%Mundra%NULL%1,   Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,   John R%Adler%NULL%2,   Ram%Sandesh%NULL%2,   Ram%Sandesh%NULL%0,   Wajeeha%Shahid%NULL%1,   Kapeel%Dev%NULL%1,   Nikeeta%Mandhan%NULL%1,   Prem%Shankar%NULL%1,   Anam%Shaikh%NULL%1,   Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,   Ayşe%Kurtulmuş%NULL%1,   Selim%Arpacıoğlu%NULL%1,   Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,   Nicholas W.S.%Chew%NULL%0,   Grace K.H.%Lee%NULL%0,   Mingxue%Jing%NULL%0,   Yihui%Goh%NULL%0,   Leonard L.L.%Yeo%NULL%0,   Ka%Zhang%NULL%0,   Howe-Keat%Chin%NULL%0,   Aftab%Ahmad%NULL%0,   Faheem Ahmed%Khan%NULL%0,   Ganesh Napolean%Shanmugam%NULL%0,   Bernard P.L.%Chan%NULL%0,   Sibi%Sunny%NULL%0,   Bharatendu%Chandra%NULL%0,   Jonathan J.Y.%Ong%NULL%0,   Prakash R.%Paliwal%NULL%0,   Lily Y.H.%Wong%NULL%0,   Renarebecca%Sagayanathan%NULL%0,   Jin Tao%Chen%NULL%0,   Alison Ying%Ying Ng%NULL%0,   Hock Luen%Teoh%NULL%0,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,  Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,  Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,  Botega%NJ%coreGivesNoEmail%1,  Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,  Freitas%FMB%coreGivesNoEmail%1,  Guilherme%Arcaro%coreGivesNoEmail%1,  Kang%L%coreGivesNoEmail%1,  Lai%J%coreGivesNoEmail%1,  Lana%RM%coreGivesNoEmail%1,  Lara%Simone Messias Floriano%coreGivesNoEmail%1,  Leonelli%LB%coreGivesNoEmail%1,  Le\u00e3o%AM%coreGivesNoEmail%1,  Liu%Y%coreGivesNoEmail%1,  Martins%C%coreGivesNoEmail%1,  Moura%A%coreGivesNoEmail%1,  Oliveira%FP%coreGivesNoEmail%1,  Pappa%S%coreGivesNoEmail%1,  Rodriguez%EOL%coreGivesNoEmail%1,  Ruback%SP%coreGivesNoEmail%1,  Sena%AFJ%coreGivesNoEmail%1,  Silva%DSD%coreGivesNoEmail%2,  Silva%DSD%coreGivesNoEmail%0,  Spoorthy%MS%coreGivesNoEmail%1,  Suellen%Vienscoski Skupien%coreGivesNoEmail%1,  Trettene%AS%coreGivesNoEmail%1,  Vieira%NF%coreGivesNoEmail%1,  Wang%SM%coreGivesNoEmail%1,  Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,   Elisa%Pedroli%NULL%1,   Guido E.%D'Aniello%NULL%1,   Chiara%Stramba Badiale%NULL%1,   Giada%Pietrabissa%NULL%1,   Chiara%Manna%NULL%1,   Marco%Stramba Badiale%NULL%1,   Giuseppe%Riva%NULL%1,   Gianluca%Castelnuovo%NULL%1,   Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,   Piotr%Krajewski%NULL%2,   Piotr%Krajewski%NULL%0,   Rafał%Biłynicki‐Birula%NULL%2,   Rafał%Biłynicki‐Birula%NULL%0,   Paweł%Poznański%NULL%2,   Paweł%Poznański%NULL%0,   Magdalena%Krajewska%NULL%2,   Magdalena%Krajewska%NULL%0,   Joanna%Rymaszewska%NULL%2,   Joanna%Rymaszewska%NULL%0,   Łukasz%Matusiak%NULL%2,   Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,   Jing%Liu%NULL%2,   Asghar%Afshar Jahanshahi%NULL%1,   Khaled%Nawaser%NULL%1,   Ali%Yousefi%NULL%1,   Jizhen%Li%NULL%1,   Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,   Eman Zmaily%Dahmash%NULL%2,   Eman Zmaily%Dahmash%NULL%0,   Rabaa%Al‐Rousan%NULL%2,   Rabaa%Al‐Rousan%NULL%0,   Hassan%Alwafi%NULL%1,   Hamzeh Mohammad%Alrawashdeh%NULL%1,   Imene%Ghoul%NULL%1,   Anwer%Abidine%NULL%1,   Mohammed A.%Bokhary%NULL%1,   Hadeel T.%AL‐Hadithi%NULL%1,   Dalia%Ali%NULL%1,   Rasha%Abuthawabeh%NULL%1,   Ghada Mohammad%Abdelwahab%NULL%1,   Yosra J.%Alhartani%NULL%1,   Haneen%Al Muhaisen%NULL%1,   Ayah%Dagash%NULL%1,   Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,   Aseem%Mehra%NULL%2,   Aseem%Mehra%NULL%0,   Abhash%Niraula%NULL%2,   Abhash%Niraula%NULL%0,   Khagendra%Kafle%NULL%2,   Khagendra%Kafle%NULL%0,   Saroj Prasad%Deo%NULL%2,   Saroj Prasad%Deo%NULL%0,   Babita%Singh%NULL%2,   Babita%Singh%NULL%0,   Swapnajeet%Sahoo%NULL%2,   Swapnajeet%Sahoo%NULL%0,   Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,   Charles W.%Goss%NULL%2,   Charles W.%Goss%NULL%0,   Bradley A.%Evanoff%NULL%1,   Jaime R.%Strickland%NULL%1,   Rebecca P.%McAlister%NULL%1,   Jennifer%Duncan%NULL%1,   Michio%Murakami%NULL%2,   Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,   Grace K.H.%Lee%NULL%0,   Benjamin Y.Q.%Tan%NULL%1,   Mingxue%Jing%NULL%0,   Yihui%Goh%NULL%0,   Nicholas J.H.%Ngiam%NULL%1,   Leonard L.L.%Yeo%NULL%0,   Aftab%Ahmad%NULL%0,   Faheem%Ahmed Khan%NULL%1,   Ganesh%Napolean Shanmugam%NULL%1,   Arvind K.%Sharma%NULL%1,   R.N.%Komalkumar%NULL%1,   P.V.%Meenakshi%NULL%1,   Kenam%Shah%NULL%1,   Bhargesh%Patel%NULL%1,   Bernard P.L.%Chan%NULL%0,   Sibi%Sunny%NULL%0,   Bharatendu%Chandra%NULL%0,   Jonathan J.Y.%Ong%NULL%0,   Prakash R.%Paliwal%NULL%0,   Lily Y.H.%Wong%NULL%0,   Renarebecca%Sagayanathan%NULL%0,   Jin Tao%Chen%NULL%0,   Alison Ying%Ying Ng%NULL%0,   Hock Luen%Teoh%NULL%0,   Georgios%Tsivgoulis%NULL%1,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1154,6 +1247,9 @@
       <c r="H1" t="s">
         <v>46</v>
       </c>
+      <c r="I1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1169,7 +1265,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1179,6 +1275,9 @@
       </c>
       <c r="H2" t="s">
         <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -1195,7 +1294,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1205,6 +1304,9 @@
       </c>
       <c r="H3" t="s">
         <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -1232,6 +1334,9 @@
       <c r="H4" t="s">
         <v>58</v>
       </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1247,7 +1352,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1257,6 +1362,9 @@
       </c>
       <c r="H5" t="s">
         <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -1273,7 +1381,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1283,6 +1391,9 @@
       </c>
       <c r="H6" t="s">
         <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -1299,7 +1410,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1309,6 +1420,9 @@
       </c>
       <c r="H7" t="s">
         <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8">
@@ -1336,6 +1450,9 @@
       <c r="H8" t="s">
         <v>58</v>
       </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1351,7 +1468,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -1361,6 +1478,9 @@
       </c>
       <c r="H9" t="s">
         <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10">
@@ -1377,7 +1497,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -1387,6 +1507,9 @@
       </c>
       <c r="H10" t="s">
         <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="11">
@@ -1403,7 +1526,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -1413,6 +1536,9 @@
       </c>
       <c r="H11" t="s">
         <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12">
@@ -1440,6 +1566,9 @@
       <c r="H12" t="s">
         <v>58</v>
       </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1455,7 +1584,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -1465,6 +1594,9 @@
       </c>
       <c r="H13" t="s">
         <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14">
@@ -1481,7 +1613,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -1491,6 +1623,9 @@
       </c>
       <c r="H14" t="s">
         <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1642,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -1517,6 +1652,9 @@
       </c>
       <c r="H15" t="s">
         <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16">
@@ -1533,7 +1671,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -1543,6 +1681,9 @@
       </c>
       <c r="H16" t="s">
         <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17">
@@ -1559,7 +1700,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -1569,6 +1710,9 @@
       </c>
       <c r="H17" t="s">
         <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -1585,7 +1729,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -1595,6 +1739,9 @@
       </c>
       <c r="H18" t="s">
         <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19">
@@ -1611,7 +1758,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -1621,6 +1768,9 @@
       </c>
       <c r="H19" t="s">
         <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -1637,7 +1787,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -1647,6 +1797,9 @@
       </c>
       <c r="H20" t="s">
         <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -1663,7 +1816,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -1673,6 +1826,9 @@
       </c>
       <c r="H21" t="s">
         <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -1689,7 +1845,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -1699,6 +1855,9 @@
       </c>
       <c r="H22" t="s">
         <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -1726,6 +1885,9 @@
       <c r="H23" t="s">
         <v>58</v>
       </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1741,7 +1903,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -1751,6 +1913,9 @@
       </c>
       <c r="H24" t="s">
         <v>138</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -1767,7 +1932,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -1777,6 +1942,9 @@
       </c>
       <c r="H25" t="s">
         <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="26">
@@ -1793,16 +1961,19 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -1819,7 +1990,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -1829,6 +2000,9 @@
       </c>
       <c r="H27" t="s">
         <v>146</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="28">
@@ -1845,7 +2019,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -1855,6 +2029,9 @@
       </c>
       <c r="H28" t="s">
         <v>150</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29">
@@ -1871,7 +2048,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -1881,6 +2058,9 @@
       </c>
       <c r="H29" t="s">
         <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="30">
@@ -1897,7 +2077,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -1907,6 +2087,9 @@
       </c>
       <c r="H30" t="s">
         <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31">
@@ -1923,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -1933,6 +2116,9 @@
       </c>
       <c r="H31" t="s">
         <v>58</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32">
@@ -1949,7 +2135,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -1959,6 +2145,9 @@
       </c>
       <c r="H32" t="s">
         <v>167</v>
+      </c>
+      <c r="I32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33">
@@ -1975,7 +2164,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -1985,6 +2174,9 @@
       </c>
       <c r="H33" t="s">
         <v>172</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="346">
   <si>
     <t>Doi</t>
   </si>
@@ -927,6 +927,342 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,   Grace K.H.%Lee%NULL%0,   Benjamin Y.Q.%Tan%NULL%1,   Mingxue%Jing%NULL%0,   Yihui%Goh%NULL%0,   Nicholas J.H.%Ngiam%NULL%1,   Leonard L.L.%Yeo%NULL%0,   Aftab%Ahmad%NULL%0,   Faheem%Ahmed Khan%NULL%1,   Ganesh%Napolean Shanmugam%NULL%1,   Arvind K.%Sharma%NULL%1,   R.N.%Komalkumar%NULL%1,   P.V.%Meenakshi%NULL%1,   Kenam%Shah%NULL%1,   Bhargesh%Patel%NULL%1,   Bernard P.L.%Chan%NULL%0,   Sibi%Sunny%NULL%0,   Bharatendu%Chandra%NULL%0,   Jonathan J.Y.%Ong%NULL%0,   Prakash R.%Paliwal%NULL%0,   Lily Y.H.%Wong%NULL%0,   Renarebecca%Sagayanathan%NULL%0,   Jin Tao%Chen%NULL%0,   Alison Ying%Ying Ng%NULL%0,   Hock Luen%Teoh%NULL%0,   Georgios%Tsivgoulis%NULL%1,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,    Simeng%Ma%NULL%0,    Ying%Wang%NULL%0,    Zhongxiang%Cai%NULL%0,    Jianbo%Hu%NULL%0,    Ning%Wei%NULL%0,    Jiang%Wu%NULL%0,    Hui%Du%NULL%0,    Tingting%Chen%NULL%0,    Ruiting%Li%NULL%0,    Huawei%Tan%NULL%0,    Lijun%Kang%NULL%0,    Lihua%Yao%NULL%0,    Manli%Huang%NULL%0,    Huafen%Wang%NULL%0,    Gaohua%Wang%NULL%0,    Zhongchun%Liu%NULL%0,    Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,    Lu%Dong%NULL%1,    Tao%Wang%NULL%0,    Chenxin%Yuan%NULL%1,    Rao%Fu%NULL%1,    Lei%Zhang%NULL%1,    Bo%Liu%NULL%0,    Mingmin%Zhang%NULL%1,    Yuanyuan%Yin%NULL%1,    Jiawen%Qin%NULL%1,    Jennifer%Bouey%NULL%1,    Min%Zhao%NULL%0,    Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,    Yun-zhi%Yang%NULL%2,    Xiao-Ming%Zhang%NULL%2,    Xinying%Xu%NULL%4,    Xinying%Xu%NULL%0,    Qing-Li%Dou%NULL%2,    Wen-Wu%Zhang%NULL%2,    Andy S. K.%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,    Hang%Wang%NULL%0,    Yuxing%Lin%NULL%0,    Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,    Jing%Xu%NULL%0,    Bo-Zhi%Li%NULL%1,    Jin-Sha%Huang%NULL%1,    Yuan%Yang%NULL%0,    Zhen-Tao%Zhang%NULL%1,    Dong-Ai%Yao%NULL%1,    Qun-Hui%Liu%NULL%1,    Min%Jia%NULL%1,    Dao-Kai%Gong%NULL%1,    Xiao-Hong%Ni%NULL%1,    Qi-Mei%Zhang%NULL%1,    Fu-Rong%Shang%NULL%1,    Nian%Xiong%NULL%1,    Chun-Li%Zhu%NULL%1,    Tao%Wang%wangtaowh@hust.edu.cn%0,    Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,    Wenning%Fu%NULL%1,    Xiaoran%Liu%NULL%1,    Zhiqian%Luo%NULL%1,    Rixing%Wang%NULL%1,    Ning%Zhou%NULL%2,    Shijiao%Yan%NULL%1,    Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,    L%Xie%NULL%1,    Y%Xu%NULL%1,    S%Yu%NULL%1,    B%Yao%professoryao@aliyun.com%1,    D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,    Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,    Kun%Wang%NULL%0,    Lu%Yin%NULL%0,    Wen-feng%Zhao%NULL%0,    Qing%Xue%NULL%0,    Mao%Peng%NULL%0,    Bao-quan%Min%NULL%0,    Qing%Tian%NULL%0,    Hai-xia%Leng%NULL%0,    Jia-lin%Du%NULL%0,    Hong%Chang%NULL%0,    Yuan%Yang%NULL%0,    Wei%Li%NULL%0,    Fang-fang%Shangguan%NULL%0,    Tian-yi%Yan%NULL%0,    Hui-qing%Dong%NULL%0,    Ying%Han%NULL%0,    Yu-ping%Wang%NULL%0,    Fiammetta%Cosci%NULL%0,    Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,    Lulu%Yang%NULL%1,    Shuai%Liu%NULL%1,    Simeng%Ma%NULL%0,    Ying%Wang%NULL%0,    Zhongxiang%Cai%NULL%0,    Hui%Du%NULL%0,    Ruiting%Li%NULL%0,    Lijun%Kang%NULL%0,    Meilei%Su%NULL%1,    Jihui%Zhang%NULL%1,    Zhongchun%Liu%NULL%0,    Bin%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,    Xiaobin%Zhu%NULL%1,    Shuai%Fu%NULL%1,    Yugang%Hu%NULL%1,    Xiaoning%Li%NULL%1,    Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,    Hao%Zhou%haoye320@163.com%1,    Yan%Zhou%NULL%1,    Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,    Jing-wen%He%NULL%2,    Jing-wen%He%NULL%0,    Na%Zhou%NULL%1,    Oliver%Schildgen.%NULL%3,    Oliver%Schildgen.%NULL%0,    Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,    Lin%Sun%NULL%0,    Lan%Zhang%NULL%1,    Huan%Wang%NULL%1,    Ajiao%Fan%NULL%1,    Bin%Yang%NULL%1,    Wei%Li%NULL%0,    Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,    Ranjan%Bhattacharyya%NULL%1,    Sumita%Bhattacharyya%NULL%1,    Sukanya%Gupta%NULL%1,    Soumitra%Das%NULL%1,    Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,    Kinshuk%Kohli%NULL%1,    P%Padmakumari%NULL%1,    Prashant Kumar%Dixit%NULL%1,    Ajay Shankar%Prasad%NULL%1,    Bharath Seshadri%Chakravarthy%NULL%1,    Rajat%Shukla%NULL%1,    Parthasarathi%Ghana%NULL%1,    Debasish%Mahapatra%NULL%1,    G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,    Jeffrey Pradeep%Raj%NULL%1,    Seema%Rao%NULL%1,    Murtuza%Ghiya%NULL%1,    Nisanth Menon%Nedungalaparambil%NULL%1,    Harshit%Mundra%NULL%1,    Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,    John R%Adler%NULL%2,    Ram%Sandesh%NULL%2,    Ram%Sandesh%NULL%0,    Wajeeha%Shahid%NULL%1,    Kapeel%Dev%NULL%1,    Nikeeta%Mandhan%NULL%1,    Prem%Shankar%NULL%1,    Anam%Shaikh%NULL%1,    Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,    Ayşe%Kurtulmuş%NULL%1,    Selim%Arpacıoğlu%NULL%1,    Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,    Nicholas W.S.%Chew%NULL%0,    Grace K.H.%Lee%NULL%0,    Mingxue%Jing%NULL%0,    Yihui%Goh%NULL%0,    Leonard L.L.%Yeo%NULL%0,    Ka%Zhang%NULL%0,    Howe-Keat%Chin%NULL%0,    Aftab%Ahmad%NULL%0,    Faheem Ahmed%Khan%NULL%0,    Ganesh Napolean%Shanmugam%NULL%0,    Bernard P.L.%Chan%NULL%0,    Sibi%Sunny%NULL%0,    Bharatendu%Chandra%NULL%0,    Jonathan J.Y.%Ong%NULL%0,    Prakash R.%Paliwal%NULL%0,    Lily Y.H.%Wong%NULL%0,    Renarebecca%Sagayanathan%NULL%0,    Jin Tao%Chen%NULL%0,    Alison Ying%Ying Ng%NULL%0,    Hock Luen%Teoh%NULL%0,    Cyrus S.%Ho%NULL%0,    Roger C.%Ho%NULL%0,    Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,   Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,   Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,   Botega%NJ%coreGivesNoEmail%1,   Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,   Freitas%FMB%coreGivesNoEmail%1,   Guilherme%Arcaro%coreGivesNoEmail%1,   Kang%L%coreGivesNoEmail%1,   Lai%J%coreGivesNoEmail%1,   Lana%RM%coreGivesNoEmail%1,   Lara%Simone Messias Floriano%coreGivesNoEmail%1,   Leonelli%LB%coreGivesNoEmail%1,   Le\u00e3o%AM%coreGivesNoEmail%1,   Liu%Y%coreGivesNoEmail%1,   Martins%C%coreGivesNoEmail%1,   Moura%A%coreGivesNoEmail%1,   Oliveira%FP%coreGivesNoEmail%1,   Pappa%S%coreGivesNoEmail%1,   Rodriguez%EOL%coreGivesNoEmail%1,   Ruback%SP%coreGivesNoEmail%1,   Sena%AFJ%coreGivesNoEmail%1,   Silva%DSD%coreGivesNoEmail%2,   Silva%DSD%coreGivesNoEmail%0,   Spoorthy%MS%coreGivesNoEmail%1,   Suellen%Vienscoski Skupien%coreGivesNoEmail%1,   Trettene%AS%coreGivesNoEmail%1,   Vieira%NF%coreGivesNoEmail%1,   Wang%SM%coreGivesNoEmail%1,   Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,    Elisa%Pedroli%NULL%1,    Guido E.%D'Aniello%NULL%1,    Chiara%Stramba Badiale%NULL%1,    Giada%Pietrabissa%NULL%1,    Chiara%Manna%NULL%1,    Marco%Stramba Badiale%NULL%1,    Giuseppe%Riva%NULL%1,    Gianluca%Castelnuovo%NULL%1,    Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,    Piotr%Krajewski%NULL%2,    Piotr%Krajewski%NULL%0,    Rafał%Biłynicki‐Birula%NULL%2,    Rafał%Biłynicki‐Birula%NULL%0,    Paweł%Poznański%NULL%2,    Paweł%Poznański%NULL%0,    Magdalena%Krajewska%NULL%2,    Magdalena%Krajewska%NULL%0,    Joanna%Rymaszewska%NULL%2,    Joanna%Rymaszewska%NULL%0,    Łukasz%Matusiak%NULL%2,    Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,    Jing%Liu%NULL%0,    Asghar%Afshar Jahanshahi%NULL%1,    Khaled%Nawaser%NULL%1,    Ali%Yousefi%NULL%1,    Jizhen%Li%NULL%1,    Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,    Eman Zmaily%Dahmash%NULL%2,    Eman Zmaily%Dahmash%NULL%0,    Rabaa%Al‐Rousan%NULL%2,    Rabaa%Al‐Rousan%NULL%0,    Hassan%Alwafi%NULL%1,    Hamzeh Mohammad%Alrawashdeh%NULL%1,    Imene%Ghoul%NULL%1,    Anwer%Abidine%NULL%1,    Mohammed A.%Bokhary%NULL%1,    Hadeel T.%AL‐Hadithi%NULL%1,    Dalia%Ali%NULL%1,    Rasha%Abuthawabeh%NULL%1,    Ghada Mohammad%Abdelwahab%NULL%1,    Yosra J.%Alhartani%NULL%1,    Haneen%Al Muhaisen%NULL%1,    Ayah%Dagash%NULL%1,    Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,    Aseem%Mehra%NULL%2,    Aseem%Mehra%NULL%0,    Abhash%Niraula%NULL%2,    Abhash%Niraula%NULL%0,    Khagendra%Kafle%NULL%2,    Khagendra%Kafle%NULL%0,    Saroj Prasad%Deo%NULL%2,    Saroj Prasad%Deo%NULL%0,    Babita%Singh%NULL%2,    Babita%Singh%NULL%0,    Swapnajeet%Sahoo%NULL%2,    Swapnajeet%Sahoo%NULL%0,    Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,    Charles W.%Goss%NULL%2,    Charles W.%Goss%NULL%0,    Bradley A.%Evanoff%NULL%1,    Jaime R.%Strickland%NULL%1,    Rebecca P.%McAlister%NULL%1,    Jennifer%Duncan%NULL%1,    Michio%Murakami%NULL%2,    Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,    Grace K.H.%Lee%NULL%0,    Benjamin Y.Q.%Tan%NULL%1,    Mingxue%Jing%NULL%0,    Yihui%Goh%NULL%0,    Nicholas J.H.%Ngiam%NULL%1,    Leonard L.L.%Yeo%NULL%0,    Aftab%Ahmad%NULL%0,    Faheem%Ahmed Khan%NULL%1,    Ganesh%Napolean Shanmugam%NULL%1,    Arvind K.%Sharma%NULL%1,    R.N.%Komalkumar%NULL%1,    P.V.%Meenakshi%NULL%1,    Kenam%Shah%NULL%1,    Bhargesh%Patel%NULL%1,    Bernard P.L.%Chan%NULL%0,    Sibi%Sunny%NULL%0,    Bharatendu%Chandra%NULL%0,    Jonathan J.Y.%Ong%NULL%0,    Prakash R.%Paliwal%NULL%0,    Lily Y.H.%Wong%NULL%0,    Renarebecca%Sagayanathan%NULL%0,    Jin Tao%Chen%NULL%0,    Alison Ying%Ying Ng%NULL%0,    Hock Luen%Teoh%NULL%0,    Georgios%Tsivgoulis%NULL%1,    Cyrus S.%Ho%NULL%0,    Roger C.%Ho%NULL%0,    Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,     Simeng%Ma%NULL%0,     Ying%Wang%NULL%0,     Zhongxiang%Cai%NULL%0,     Jianbo%Hu%NULL%0,     Ning%Wei%NULL%0,     Jiang%Wu%NULL%0,     Hui%Du%NULL%0,     Tingting%Chen%NULL%0,     Ruiting%Li%NULL%0,     Huawei%Tan%NULL%0,     Lijun%Kang%NULL%0,     Lihua%Yao%NULL%0,     Manli%Huang%NULL%0,     Huafen%Wang%NULL%0,     Gaohua%Wang%NULL%0,     Zhongchun%Liu%NULL%0,     Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,     Lu%Dong%NULL%1,     Tao%Wang%NULL%0,     Chenxin%Yuan%NULL%1,     Rao%Fu%NULL%1,     Lei%Zhang%NULL%1,     Bo%Liu%NULL%0,     Mingmin%Zhang%NULL%1,     Yuanyuan%Yin%NULL%1,     Jiawen%Qin%NULL%1,     Jennifer%Bouey%NULL%1,     Min%Zhao%NULL%0,     Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,     Yun-zhi%Yang%NULL%2,     Xiao-Ming%Zhang%NULL%2,     Xinying%Xu%NULL%4,     Xinying%Xu%NULL%0,     Qing-Li%Dou%NULL%2,     Wen-Wu%Zhang%NULL%2,     Andy S. K.%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,     Hang%Wang%NULL%0,     Yuxing%Lin%NULL%0,     Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,     Jing%Xu%NULL%0,     Bo-Zhi%Li%NULL%1,     Jin-Sha%Huang%NULL%1,     Yuan%Yang%NULL%0,     Zhen-Tao%Zhang%NULL%1,     Dong-Ai%Yao%NULL%1,     Qun-Hui%Liu%NULL%1,     Min%Jia%NULL%1,     Dao-Kai%Gong%NULL%1,     Xiao-Hong%Ni%NULL%1,     Qi-Mei%Zhang%NULL%1,     Fu-Rong%Shang%NULL%1,     Nian%Xiong%NULL%1,     Chun-Li%Zhu%NULL%1,     Tao%Wang%wangtaowh@hust.edu.cn%0,     Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,     Wenning%Fu%NULL%1,     Xiaoran%Liu%NULL%1,     Zhiqian%Luo%NULL%1,     Rixing%Wang%NULL%1,     Ning%Zhou%NULL%2,     Shijiao%Yan%NULL%1,     Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,     L%Xie%NULL%1,     Y%Xu%NULL%1,     S%Yu%NULL%1,     B%Yao%professoryao@aliyun.com%1,     D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,     Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,     Kun%Wang%NULL%0,     Lu%Yin%NULL%0,     Wen-feng%Zhao%NULL%0,     Qing%Xue%NULL%0,     Mao%Peng%NULL%0,     Bao-quan%Min%NULL%0,     Qing%Tian%NULL%0,     Hai-xia%Leng%NULL%0,     Jia-lin%Du%NULL%0,     Hong%Chang%NULL%0,     Yuan%Yang%NULL%0,     Wei%Li%NULL%0,     Fang-fang%Shangguan%NULL%0,     Tian-yi%Yan%NULL%0,     Hui-qing%Dong%NULL%0,     Ying%Han%NULL%0,     Yu-ping%Wang%NULL%0,     Fiammetta%Cosci%NULL%0,     Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,     Lulu%Yang%NULL%1,     Shuai%Liu%NULL%1,     Simeng%Ma%NULL%0,     Ying%Wang%NULL%0,     Zhongxiang%Cai%NULL%0,     Hui%Du%NULL%0,     Ruiting%Li%NULL%0,     Lijun%Kang%NULL%0,     Meilei%Su%NULL%1,     Jihui%Zhang%NULL%1,     Zhongchun%Liu%NULL%0,     Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,     Xiaobin%Zhu%NULL%1,     Shuai%Fu%NULL%1,     Yugang%Hu%NULL%1,     Xiaoning%Li%NULL%1,     Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,     Hao%Zhou%haoye320@163.com%1,     Yan%Zhou%NULL%1,     Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,     Jing-wen%He%NULL%2,     Jing-wen%He%NULL%0,     Na%Zhou%NULL%1,     Oliver%Schildgen.%NULL%3,     Oliver%Schildgen.%NULL%0,     Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,     Lin%Sun%NULL%0,     Lan%Zhang%NULL%1,     Huan%Wang%NULL%1,     Ajiao%Fan%NULL%1,     Bin%Yang%NULL%1,     Wei%Li%NULL%0,     Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,     Ranjan%Bhattacharyya%NULL%1,     Sumita%Bhattacharyya%NULL%1,     Sukanya%Gupta%NULL%1,     Soumitra%Das%NULL%1,     Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,     Kinshuk%Kohli%NULL%1,     P%Padmakumari%NULL%1,     Prashant Kumar%Dixit%NULL%1,     Ajay Shankar%Prasad%NULL%1,     Bharath Seshadri%Chakravarthy%NULL%1,     Rajat%Shukla%NULL%1,     Parthasarathi%Ghana%NULL%1,     Debasish%Mahapatra%NULL%1,     G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,     Jeffrey Pradeep%Raj%NULL%1,     Seema%Rao%NULL%1,     Murtuza%Ghiya%NULL%1,     Nisanth Menon%Nedungalaparambil%NULL%1,     Harshit%Mundra%NULL%1,     Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,     John R%Adler%NULL%2,     Ram%Sandesh%NULL%2,     Ram%Sandesh%NULL%0,     Wajeeha%Shahid%NULL%1,     Kapeel%Dev%NULL%1,     Nikeeta%Mandhan%NULL%1,     Prem%Shankar%NULL%1,     Anam%Shaikh%NULL%1,     Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,     Ayşe%Kurtulmuş%NULL%1,     Selim%Arpacıoğlu%NULL%1,     Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,     Nicholas W.S.%Chew%NULL%0,     Grace K.H.%Lee%NULL%0,     Mingxue%Jing%NULL%0,     Yihui%Goh%NULL%0,     Leonard L.L.%Yeo%NULL%0,     Ka%Zhang%NULL%0,     Howe-Keat%Chin%NULL%0,     Aftab%Ahmad%NULL%0,     Faheem Ahmed%Khan%NULL%0,     Ganesh Napolean%Shanmugam%NULL%0,     Bernard P.L.%Chan%NULL%0,     Sibi%Sunny%NULL%0,     Bharatendu%Chandra%NULL%0,     Jonathan J.Y.%Ong%NULL%0,     Prakash R.%Paliwal%NULL%0,     Lily Y.H.%Wong%NULL%0,     Renarebecca%Sagayanathan%NULL%0,     Jin Tao%Chen%NULL%0,     Alison Ying%Ying Ng%NULL%0,     Hock Luen%Teoh%NULL%0,     Cyrus S.%Ho%NULL%0,     Roger C.%Ho%NULL%0,     Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,    Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,    Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,    Botega%NJ%coreGivesNoEmail%1,    Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,    Freitas%FMB%coreGivesNoEmail%1,    Guilherme%Arcaro%coreGivesNoEmail%1,    Kang%L%coreGivesNoEmail%1,    Lai%J%coreGivesNoEmail%1,    Lana%RM%coreGivesNoEmail%1,    Lara%Simone Messias Floriano%coreGivesNoEmail%1,    Leonelli%LB%coreGivesNoEmail%1,    Le\u00e3o%AM%coreGivesNoEmail%1,    Liu%Y%coreGivesNoEmail%1,    Martins%C%coreGivesNoEmail%1,    Moura%A%coreGivesNoEmail%1,    Oliveira%FP%coreGivesNoEmail%1,    Pappa%S%coreGivesNoEmail%1,    Rodriguez%EOL%coreGivesNoEmail%1,    Ruback%SP%coreGivesNoEmail%1,    Sena%AFJ%coreGivesNoEmail%1,    Silva%DSD%coreGivesNoEmail%2,    Silva%DSD%coreGivesNoEmail%0,    Spoorthy%MS%coreGivesNoEmail%1,    Suellen%Vienscoski Skupien%coreGivesNoEmail%1,    Trettene%AS%coreGivesNoEmail%1,    Vieira%NF%coreGivesNoEmail%1,    Wang%SM%coreGivesNoEmail%1,    Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,     Elisa%Pedroli%NULL%1,     Guido E.%D'Aniello%NULL%1,     Chiara%Stramba Badiale%NULL%1,     Giada%Pietrabissa%NULL%1,     Chiara%Manna%NULL%1,     Marco%Stramba Badiale%NULL%1,     Giuseppe%Riva%NULL%1,     Gianluca%Castelnuovo%NULL%1,     Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,     Piotr%Krajewski%NULL%2,     Piotr%Krajewski%NULL%0,     Rafał%Biłynicki‐Birula%NULL%2,     Rafał%Biłynicki‐Birula%NULL%0,     Paweł%Poznański%NULL%2,     Paweł%Poznański%NULL%0,     Magdalena%Krajewska%NULL%2,     Magdalena%Krajewska%NULL%0,     Joanna%Rymaszewska%NULL%2,     Joanna%Rymaszewska%NULL%0,     Łukasz%Matusiak%NULL%2,     Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,     Jing%Liu%NULL%0,     Asghar%Afshar Jahanshahi%NULL%1,     Khaled%Nawaser%NULL%1,     Ali%Yousefi%NULL%1,     Jizhen%Li%NULL%1,     Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,     Eman Zmaily%Dahmash%NULL%2,     Eman Zmaily%Dahmash%NULL%0,     Rabaa%Al‐Rousan%NULL%2,     Rabaa%Al‐Rousan%NULL%0,     Hassan%Alwafi%NULL%1,     Hamzeh Mohammad%Alrawashdeh%NULL%1,     Imene%Ghoul%NULL%1,     Anwer%Abidine%NULL%1,     Mohammed A.%Bokhary%NULL%1,     Hadeel T.%AL‐Hadithi%NULL%1,     Dalia%Ali%NULL%1,     Rasha%Abuthawabeh%NULL%1,     Ghada Mohammad%Abdelwahab%NULL%1,     Yosra J.%Alhartani%NULL%1,     Haneen%Al Muhaisen%NULL%1,     Ayah%Dagash%NULL%1,     Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,     Aseem%Mehra%NULL%2,     Aseem%Mehra%NULL%0,     Abhash%Niraula%NULL%2,     Abhash%Niraula%NULL%0,     Khagendra%Kafle%NULL%2,     Khagendra%Kafle%NULL%0,     Saroj Prasad%Deo%NULL%2,     Saroj Prasad%Deo%NULL%0,     Babita%Singh%NULL%2,     Babita%Singh%NULL%0,     Swapnajeet%Sahoo%NULL%2,     Swapnajeet%Sahoo%NULL%0,     Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,     Charles W.%Goss%NULL%2,     Charles W.%Goss%NULL%0,     Bradley A.%Evanoff%NULL%1,     Jaime R.%Strickland%NULL%1,     Rebecca P.%McAlister%NULL%1,     Jennifer%Duncan%NULL%1,     Michio%Murakami%NULL%2,     Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,     Grace K.H.%Lee%NULL%0,     Benjamin Y.Q.%Tan%NULL%1,     Mingxue%Jing%NULL%0,     Yihui%Goh%NULL%0,     Nicholas J.H.%Ngiam%NULL%1,     Leonard L.L.%Yeo%NULL%0,     Aftab%Ahmad%NULL%0,     Faheem%Ahmed Khan%NULL%1,     Ganesh%Napolean Shanmugam%NULL%1,     Arvind K.%Sharma%NULL%1,     R.N.%Komalkumar%NULL%1,     P.V.%Meenakshi%NULL%1,     Kenam%Shah%NULL%1,     Bhargesh%Patel%NULL%1,     Bernard P.L.%Chan%NULL%0,     Sibi%Sunny%NULL%0,     Bharatendu%Chandra%NULL%0,     Jonathan J.Y.%Ong%NULL%0,     Prakash R.%Paliwal%NULL%0,     Lily Y.H.%Wong%NULL%0,     Renarebecca%Sagayanathan%NULL%0,     Jin Tao%Chen%NULL%0,     Alison Ying%Ying Ng%NULL%0,     Hock Luen%Teoh%NULL%0,     Georgios%Tsivgoulis%NULL%1,     Cyrus S.%Ho%NULL%0,     Roger C.%Ho%NULL%0,     Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,      Simeng%Ma%NULL%0,      Ying%Wang%NULL%0,      Zhongxiang%Cai%NULL%0,      Jianbo%Hu%NULL%0,      Ning%Wei%NULL%0,      Jiang%Wu%NULL%0,      Hui%Du%NULL%0,      Tingting%Chen%NULL%0,      Ruiting%Li%NULL%0,      Huawei%Tan%NULL%0,      Lijun%Kang%NULL%0,      Lihua%Yao%NULL%0,      Manli%Huang%NULL%0,      Huafen%Wang%NULL%0,      Gaohua%Wang%NULL%0,      Zhongchun%Liu%NULL%0,      Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,      Lu%Dong%NULL%1,      Tao%Wang%NULL%0,      Chenxin%Yuan%NULL%1,      Rao%Fu%NULL%1,      Lei%Zhang%NULL%1,      Bo%Liu%NULL%0,      Mingmin%Zhang%NULL%1,      Yuanyuan%Yin%NULL%1,      Jiawen%Qin%NULL%1,      Jennifer%Bouey%NULL%1,      Min%Zhao%NULL%0,      Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,      Yun-zhi%Yang%NULL%2,      Xiao-Ming%Zhang%NULL%2,      Xinying%Xu%NULL%4,      Xinying%Xu%NULL%0,      Qing-Li%Dou%NULL%2,      Wen-Wu%Zhang%NULL%2,      Andy S. K.%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,      Hang%Wang%NULL%0,      Yuxing%Lin%NULL%0,      Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,      Jing%Xu%NULL%0,      Bo-Zhi%Li%NULL%1,      Jin-Sha%Huang%NULL%1,      Yuan%Yang%NULL%0,      Zhen-Tao%Zhang%NULL%1,      Dong-Ai%Yao%NULL%1,      Qun-Hui%Liu%NULL%1,      Min%Jia%NULL%1,      Dao-Kai%Gong%NULL%1,      Xiao-Hong%Ni%NULL%1,      Qi-Mei%Zhang%NULL%1,      Fu-Rong%Shang%NULL%1,      Nian%Xiong%NULL%1,      Chun-Li%Zhu%NULL%1,      Tao%Wang%wangtaowh@hust.edu.cn%0,      Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,      Wenning%Fu%NULL%1,      Xiaoran%Liu%NULL%1,      Zhiqian%Luo%NULL%1,      Rixing%Wang%NULL%1,      Ning%Zhou%NULL%2,      Shijiao%Yan%NULL%1,      Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,      L%Xie%NULL%1,      Y%Xu%NULL%1,      S%Yu%NULL%1,      B%Yao%professoryao@aliyun.com%1,      D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,      Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,      Kun%Wang%NULL%0,      Lu%Yin%NULL%0,      Wen-feng%Zhao%NULL%0,      Qing%Xue%NULL%0,      Mao%Peng%NULL%0,      Bao-quan%Min%NULL%0,      Qing%Tian%NULL%0,      Hai-xia%Leng%NULL%0,      Jia-lin%Du%NULL%0,      Hong%Chang%NULL%0,      Yuan%Yang%NULL%0,      Wei%Li%NULL%0,      Fang-fang%Shangguan%NULL%0,      Tian-yi%Yan%NULL%0,      Hui-qing%Dong%NULL%0,      Ying%Han%NULL%0,      Yu-ping%Wang%NULL%0,      Fiammetta%Cosci%NULL%0,      Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,      Lulu%Yang%NULL%1,      Shuai%Liu%NULL%1,      Simeng%Ma%NULL%0,      Ying%Wang%NULL%0,      Zhongxiang%Cai%NULL%0,      Hui%Du%NULL%0,      Ruiting%Li%NULL%0,      Lijun%Kang%NULL%0,      Meilei%Su%NULL%1,      Jihui%Zhang%NULL%1,      Zhongchun%Liu%NULL%0,      Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,      Xiaobin%Zhu%NULL%1,      Shuai%Fu%NULL%1,      Yugang%Hu%NULL%1,      Xiaoning%Li%NULL%1,      Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,      Hao%Zhou%haoye320@163.com%1,      Yan%Zhou%NULL%1,      Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,      Jing-wen%He%NULL%2,      Jing-wen%He%NULL%0,      Na%Zhou%NULL%1,      Oliver%Schildgen.%NULL%3,      Oliver%Schildgen.%NULL%0,      Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,      Lin%Sun%NULL%0,      Lan%Zhang%NULL%1,      Huan%Wang%NULL%1,      Ajiao%Fan%NULL%1,      Bin%Yang%NULL%1,      Wei%Li%NULL%0,      Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,      Ranjan%Bhattacharyya%NULL%1,      Sumita%Bhattacharyya%NULL%1,      Sukanya%Gupta%NULL%1,      Soumitra%Das%NULL%1,      Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,      Kinshuk%Kohli%NULL%1,      P%Padmakumari%NULL%1,      Prashant Kumar%Dixit%NULL%1,      Ajay Shankar%Prasad%NULL%1,      Bharath Seshadri%Chakravarthy%NULL%1,      Rajat%Shukla%NULL%1,      Parthasarathi%Ghana%NULL%1,      Debasish%Mahapatra%NULL%1,      G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,      Jeffrey Pradeep%Raj%NULL%1,      Seema%Rao%NULL%1,      Murtuza%Ghiya%NULL%1,      Nisanth Menon%Nedungalaparambil%NULL%1,      Harshit%Mundra%NULL%1,      Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,      John R%Adler%NULL%2,      Ram%Sandesh%NULL%2,      Ram%Sandesh%NULL%0,      Wajeeha%Shahid%NULL%1,      Kapeel%Dev%NULL%1,      Nikeeta%Mandhan%NULL%1,      Prem%Shankar%NULL%1,      Anam%Shaikh%NULL%1,      Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,      Ayşe%Kurtulmuş%NULL%1,      Selim%Arpacıoğlu%NULL%1,      Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,      Nicholas W.S.%Chew%NULL%0,      Grace K.H.%Lee%NULL%0,      Mingxue%Jing%NULL%0,      Yihui%Goh%NULL%0,      Leonard L.L.%Yeo%NULL%0,      Ka%Zhang%NULL%0,      Howe-Keat%Chin%NULL%0,      Aftab%Ahmad%NULL%0,      Faheem Ahmed%Khan%NULL%0,      Ganesh Napolean%Shanmugam%NULL%0,      Bernard P.L.%Chan%NULL%0,      Sibi%Sunny%NULL%0,      Bharatendu%Chandra%NULL%0,      Jonathan J.Y.%Ong%NULL%0,      Prakash R.%Paliwal%NULL%0,      Lily Y.H.%Wong%NULL%0,      Renarebecca%Sagayanathan%NULL%0,      Jin Tao%Chen%NULL%0,      Alison Ying%Ying Ng%NULL%0,      Hock Luen%Teoh%NULL%0,      Cyrus S.%Ho%NULL%0,      Roger C.%Ho%NULL%0,      Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,     Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,     Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,     Botega%NJ%coreGivesNoEmail%1,     Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,     Freitas%FMB%coreGivesNoEmail%1,     Guilherme%Arcaro%coreGivesNoEmail%1,     Kang%L%coreGivesNoEmail%1,     Lai%J%coreGivesNoEmail%1,     Lana%RM%coreGivesNoEmail%1,     Lara%Simone Messias Floriano%coreGivesNoEmail%1,     Leonelli%LB%coreGivesNoEmail%1,     Le\u00e3o%AM%coreGivesNoEmail%1,     Liu%Y%coreGivesNoEmail%1,     Martins%C%coreGivesNoEmail%1,     Moura%A%coreGivesNoEmail%1,     Oliveira%FP%coreGivesNoEmail%1,     Pappa%S%coreGivesNoEmail%1,     Rodriguez%EOL%coreGivesNoEmail%1,     Ruback%SP%coreGivesNoEmail%1,     Sena%AFJ%coreGivesNoEmail%1,     Silva%DSD%coreGivesNoEmail%2,     Silva%DSD%coreGivesNoEmail%0,     Spoorthy%MS%coreGivesNoEmail%1,     Suellen%Vienscoski Skupien%coreGivesNoEmail%1,     Trettene%AS%coreGivesNoEmail%1,     Vieira%NF%coreGivesNoEmail%1,     Wang%SM%coreGivesNoEmail%1,     Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,      Elisa%Pedroli%NULL%1,      Guido E.%D'Aniello%NULL%1,      Chiara%Stramba Badiale%NULL%1,      Giada%Pietrabissa%NULL%1,      Chiara%Manna%NULL%1,      Marco%Stramba Badiale%NULL%1,      Giuseppe%Riva%NULL%1,      Gianluca%Castelnuovo%NULL%1,      Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,      Piotr%Krajewski%NULL%2,      Piotr%Krajewski%NULL%0,      Rafał%Biłynicki‐Birula%NULL%2,      Rafał%Biłynicki‐Birula%NULL%0,      Paweł%Poznański%NULL%2,      Paweł%Poznański%NULL%0,      Magdalena%Krajewska%NULL%2,      Magdalena%Krajewska%NULL%0,      Joanna%Rymaszewska%NULL%2,      Joanna%Rymaszewska%NULL%0,      Łukasz%Matusiak%NULL%2,      Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,      Jing%Liu%NULL%0,      Asghar%Afshar Jahanshahi%NULL%1,      Khaled%Nawaser%NULL%1,      Ali%Yousefi%NULL%1,      Jizhen%Li%NULL%1,      Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,      Eman Zmaily%Dahmash%NULL%2,      Eman Zmaily%Dahmash%NULL%0,      Rabaa%Al‐Rousan%NULL%2,      Rabaa%Al‐Rousan%NULL%0,      Hassan%Alwafi%NULL%1,      Hamzeh Mohammad%Alrawashdeh%NULL%1,      Imene%Ghoul%NULL%1,      Anwer%Abidine%NULL%1,      Mohammed A.%Bokhary%NULL%1,      Hadeel T.%AL‐Hadithi%NULL%1,      Dalia%Ali%NULL%1,      Rasha%Abuthawabeh%NULL%1,      Ghada Mohammad%Abdelwahab%NULL%1,      Yosra J.%Alhartani%NULL%1,      Haneen%Al Muhaisen%NULL%1,      Ayah%Dagash%NULL%1,      Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,      Aseem%Mehra%NULL%2,      Aseem%Mehra%NULL%0,      Abhash%Niraula%NULL%2,      Abhash%Niraula%NULL%0,      Khagendra%Kafle%NULL%2,      Khagendra%Kafle%NULL%0,      Saroj Prasad%Deo%NULL%2,      Saroj Prasad%Deo%NULL%0,      Babita%Singh%NULL%2,      Babita%Singh%NULL%0,      Swapnajeet%Sahoo%NULL%2,      Swapnajeet%Sahoo%NULL%0,      Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,      Charles W.%Goss%NULL%2,      Charles W.%Goss%NULL%0,      Bradley A.%Evanoff%NULL%1,      Jaime R.%Strickland%NULL%1,      Rebecca P.%McAlister%NULL%1,      Jennifer%Duncan%NULL%1,      Michio%Murakami%NULL%2,      Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,      Grace K.H.%Lee%NULL%0,      Benjamin Y.Q.%Tan%NULL%1,      Mingxue%Jing%NULL%0,      Yihui%Goh%NULL%0,      Nicholas J.H.%Ngiam%NULL%1,      Leonard L.L.%Yeo%NULL%0,      Aftab%Ahmad%NULL%0,      Faheem%Ahmed Khan%NULL%1,      Ganesh%Napolean Shanmugam%NULL%1,      Arvind K.%Sharma%NULL%1,      R.N.%Komalkumar%NULL%1,      P.V.%Meenakshi%NULL%1,      Kenam%Shah%NULL%1,      Bhargesh%Patel%NULL%1,      Bernard P.L.%Chan%NULL%0,      Sibi%Sunny%NULL%0,      Bharatendu%Chandra%NULL%0,      Jonathan J.Y.%Ong%NULL%0,      Prakash R.%Paliwal%NULL%0,      Lily Y.H.%Wong%NULL%0,      Renarebecca%Sagayanathan%NULL%0,      Jin Tao%Chen%NULL%0,      Alison Ying%Ying Ng%NULL%0,      Hock Luen%Teoh%NULL%0,      Georgios%Tsivgoulis%NULL%1,      Cyrus S.%Ho%NULL%0,      Roger C.%Ho%NULL%0,      Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,       Simeng%Ma%NULL%0,       Ying%Wang%NULL%0,       Zhongxiang%Cai%NULL%0,       Jianbo%Hu%NULL%0,       Ning%Wei%NULL%0,       Jiang%Wu%NULL%0,       Hui%Du%NULL%0,       Tingting%Chen%NULL%0,       Ruiting%Li%NULL%0,       Huawei%Tan%NULL%0,       Lijun%Kang%NULL%0,       Lihua%Yao%NULL%0,       Manli%Huang%NULL%0,       Huafen%Wang%NULL%0,       Gaohua%Wang%NULL%0,       Zhongchun%Liu%NULL%0,       Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,       Lu%Dong%NULL%1,       Tao%Wang%NULL%0,       Chenxin%Yuan%NULL%1,       Rao%Fu%NULL%1,       Lei%Zhang%NULL%1,       Bo%Liu%NULL%0,       Mingmin%Zhang%NULL%1,       Yuanyuan%Yin%NULL%1,       Jiawen%Qin%NULL%1,       Jennifer%Bouey%NULL%1,       Min%Zhao%NULL%0,       Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,       Yun-zhi%Yang%NULL%2,       Xiao-Ming%Zhang%NULL%2,       Xinying%Xu%NULL%4,       Xinying%Xu%NULL%0,       Qing-Li%Dou%NULL%2,       Wen-Wu%Zhang%NULL%2,       Andy S. K.%Cheng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,       Hang%Wang%NULL%0,       Yuxing%Lin%NULL%0,       Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,       Jing%Xu%NULL%0,       Bo-Zhi%Li%NULL%1,       Jin-Sha%Huang%NULL%1,       Yuan%Yang%NULL%0,       Zhen-Tao%Zhang%NULL%1,       Dong-Ai%Yao%NULL%1,       Qun-Hui%Liu%NULL%1,       Min%Jia%NULL%1,       Dao-Kai%Gong%NULL%1,       Xiao-Hong%Ni%NULL%1,       Qi-Mei%Zhang%NULL%1,       Fu-Rong%Shang%NULL%1,       Nian%Xiong%NULL%1,       Chun-Li%Zhu%NULL%1,       Tao%Wang%wangtaowh@hust.edu.cn%0,       Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,       Wenning%Fu%NULL%1,       Xiaoran%Liu%NULL%1,       Zhiqian%Luo%NULL%1,       Rixing%Wang%NULL%1,       Ning%Zhou%NULL%2,       Shijiao%Yan%NULL%1,       Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,       L%Xie%NULL%1,       Y%Xu%NULL%1,       S%Yu%NULL%1,       B%Yao%professoryao@aliyun.com%1,       D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,       Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,       Kun%Wang%NULL%0,       Lu%Yin%NULL%0,       Wen-feng%Zhao%NULL%0,       Qing%Xue%NULL%0,       Mao%Peng%NULL%0,       Bao-quan%Min%NULL%0,       Qing%Tian%NULL%0,       Hai-xia%Leng%NULL%0,       Jia-lin%Du%NULL%0,       Hong%Chang%NULL%0,       Yuan%Yang%NULL%0,       Wei%Li%NULL%0,       Fang-fang%Shangguan%NULL%0,       Tian-yi%Yan%NULL%0,       Hui-qing%Dong%NULL%0,       Ying%Han%NULL%0,       Yu-ping%Wang%NULL%0,       Fiammetta%Cosci%NULL%0,       Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,       Lulu%Yang%NULL%1,       Shuai%Liu%NULL%1,       Simeng%Ma%NULL%0,       Ying%Wang%NULL%0,       Zhongxiang%Cai%NULL%0,       Hui%Du%NULL%0,       Ruiting%Li%NULL%0,       Lijun%Kang%NULL%0,       Meilei%Su%NULL%1,       Jihui%Zhang%NULL%1,       Zhongchun%Liu%NULL%0,       Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,       Xiaobin%Zhu%NULL%1,       Shuai%Fu%NULL%1,       Yugang%Hu%NULL%1,       Xiaoning%Li%NULL%1,       Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,       Hao%Zhou%haoye320@163.com%1,       Yan%Zhou%NULL%1,       Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,       Jing-wen%He%NULL%2,       Jing-wen%He%NULL%0,       Na%Zhou%NULL%1,       Oliver%Schildgen.%NULL%3,       Oliver%Schildgen.%NULL%0,       Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,       Lin%Sun%NULL%0,       Lan%Zhang%NULL%1,       Huan%Wang%NULL%1,       Ajiao%Fan%NULL%1,       Bin%Yang%NULL%1,       Wei%Li%NULL%0,       Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,       Ranjan%Bhattacharyya%NULL%1,       Sumita%Bhattacharyya%NULL%1,       Sukanya%Gupta%NULL%1,       Soumitra%Das%NULL%1,       Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,       Kinshuk%Kohli%NULL%1,       P%Padmakumari%NULL%1,       Prashant Kumar%Dixit%NULL%1,       Ajay Shankar%Prasad%NULL%1,       Bharath Seshadri%Chakravarthy%NULL%1,       Rajat%Shukla%NULL%1,       Parthasarathi%Ghana%NULL%1,       Debasish%Mahapatra%NULL%1,       G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,       Jeffrey Pradeep%Raj%NULL%1,       Seema%Rao%NULL%1,       Murtuza%Ghiya%NULL%1,       Nisanth Menon%Nedungalaparambil%NULL%1,       Harshit%Mundra%NULL%1,       Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,       John R%Adler%NULL%2,       Ram%Sandesh%NULL%2,       Ram%Sandesh%NULL%0,       Wajeeha%Shahid%NULL%1,       Kapeel%Dev%NULL%1,       Nikeeta%Mandhan%NULL%1,       Prem%Shankar%NULL%1,       Anam%Shaikh%NULL%1,       Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,       Ayşe%Kurtulmuş%NULL%1,       Selim%Arpacıoğlu%NULL%1,       Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,       Nicholas W.S.%Chew%NULL%0,       Grace K.H.%Lee%NULL%0,       Mingxue%Jing%NULL%0,       Yihui%Goh%NULL%0,       Leonard L.L.%Yeo%NULL%0,       Ka%Zhang%NULL%0,       Howe-Keat%Chin%NULL%0,       Aftab%Ahmad%NULL%0,       Faheem Ahmed%Khan%NULL%0,       Ganesh Napolean%Shanmugam%NULL%0,       Bernard P.L.%Chan%NULL%0,       Sibi%Sunny%NULL%0,       Bharatendu%Chandra%NULL%0,       Jonathan J.Y.%Ong%NULL%0,       Prakash R.%Paliwal%NULL%0,       Lily Y.H.%Wong%NULL%0,       Renarebecca%Sagayanathan%NULL%0,       Jin Tao%Chen%NULL%0,       Alison Ying%Ying Ng%NULL%0,       Hock Luen%Teoh%NULL%0,       Cyrus S.%Ho%NULL%0,       Roger C.%Ho%NULL%0,       Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,      Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,      Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,      Botega%NJ%coreGivesNoEmail%1,      Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,      Freitas%FMB%coreGivesNoEmail%1,      Guilherme%Arcaro%coreGivesNoEmail%1,      Kang%L%coreGivesNoEmail%1,      Lai%J%coreGivesNoEmail%1,      Lana%RM%coreGivesNoEmail%1,      Lara%Simone Messias Floriano%coreGivesNoEmail%1,      Leonelli%LB%coreGivesNoEmail%1,      Le\u00e3o%AM%coreGivesNoEmail%1,      Liu%Y%coreGivesNoEmail%1,      Martins%C%coreGivesNoEmail%1,      Moura%A%coreGivesNoEmail%1,      Oliveira%FP%coreGivesNoEmail%1,      Pappa%S%coreGivesNoEmail%1,      Rodriguez%EOL%coreGivesNoEmail%1,      Ruback%SP%coreGivesNoEmail%1,      Sena%AFJ%coreGivesNoEmail%1,      Silva%DSD%coreGivesNoEmail%2,      Silva%DSD%coreGivesNoEmail%0,      Spoorthy%MS%coreGivesNoEmail%1,      Suellen%Vienscoski Skupien%coreGivesNoEmail%1,      Trettene%AS%coreGivesNoEmail%1,      Vieira%NF%coreGivesNoEmail%1,      Wang%SM%coreGivesNoEmail%1,      Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,       Elisa%Pedroli%NULL%1,       Guido E.%D'Aniello%NULL%1,       Chiara%Stramba Badiale%NULL%1,       Giada%Pietrabissa%NULL%1,       Chiara%Manna%NULL%1,       Marco%Stramba Badiale%NULL%1,       Giuseppe%Riva%NULL%1,       Gianluca%Castelnuovo%NULL%1,       Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,       Piotr%Krajewski%NULL%2,       Piotr%Krajewski%NULL%0,       Rafał%Biłynicki‐Birula%NULL%2,       Rafał%Biłynicki‐Birula%NULL%0,       Paweł%Poznański%NULL%2,       Paweł%Poznański%NULL%0,       Magdalena%Krajewska%NULL%2,       Magdalena%Krajewska%NULL%0,       Joanna%Rymaszewska%NULL%2,       Joanna%Rymaszewska%NULL%0,       Łukasz%Matusiak%NULL%2,       Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,       Jing%Liu%NULL%0,       Asghar%Afshar Jahanshahi%NULL%1,       Khaled%Nawaser%NULL%1,       Ali%Yousefi%NULL%1,       Jizhen%Li%NULL%1,       Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,       Eman Zmaily%Dahmash%NULL%2,       Eman Zmaily%Dahmash%NULL%0,       Rabaa%Al‐Rousan%NULL%2,       Rabaa%Al‐Rousan%NULL%0,       Hassan%Alwafi%NULL%1,       Hamzeh Mohammad%Alrawashdeh%NULL%1,       Imene%Ghoul%NULL%1,       Anwer%Abidine%NULL%1,       Mohammed A.%Bokhary%NULL%1,       Hadeel T.%AL‐Hadithi%NULL%1,       Dalia%Ali%NULL%1,       Rasha%Abuthawabeh%NULL%1,       Ghada Mohammad%Abdelwahab%NULL%1,       Yosra J.%Alhartani%NULL%1,       Haneen%Al Muhaisen%NULL%1,       Ayah%Dagash%NULL%1,       Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,       Aseem%Mehra%NULL%2,       Aseem%Mehra%NULL%0,       Abhash%Niraula%NULL%2,       Abhash%Niraula%NULL%0,       Khagendra%Kafle%NULL%2,       Khagendra%Kafle%NULL%0,       Saroj Prasad%Deo%NULL%2,       Saroj Prasad%Deo%NULL%0,       Babita%Singh%NULL%2,       Babita%Singh%NULL%0,       Swapnajeet%Sahoo%NULL%2,       Swapnajeet%Sahoo%NULL%0,       Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,       Charles W.%Goss%NULL%2,       Charles W.%Goss%NULL%0,       Bradley A.%Evanoff%NULL%1,       Jaime R.%Strickland%NULL%1,       Rebecca P.%McAlister%NULL%1,       Jennifer%Duncan%NULL%1,       Michio%Murakami%NULL%2,       Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,       Grace K.H.%Lee%NULL%0,       Benjamin Y.Q.%Tan%NULL%1,       Mingxue%Jing%NULL%0,       Yihui%Goh%NULL%0,       Nicholas J.H.%Ngiam%NULL%1,       Leonard L.L.%Yeo%NULL%0,       Aftab%Ahmad%NULL%0,       Faheem%Ahmed Khan%NULL%1,       Ganesh%Napolean Shanmugam%NULL%1,       Arvind K.%Sharma%NULL%1,       R.N.%Komalkumar%NULL%1,       P.V.%Meenakshi%NULL%1,       Kenam%Shah%NULL%1,       Bhargesh%Patel%NULL%1,       Bernard P.L.%Chan%NULL%0,       Sibi%Sunny%NULL%0,       Bharatendu%Chandra%NULL%0,       Jonathan J.Y.%Ong%NULL%0,       Prakash R.%Paliwal%NULL%0,       Lily Y.H.%Wong%NULL%0,       Renarebecca%Sagayanathan%NULL%0,       Jin Tao%Chen%NULL%0,       Alison Ying%Ying Ng%NULL%0,       Hock Luen%Teoh%NULL%0,       Georgios%Tsivgoulis%NULL%1,       Cyrus S.%Ho%NULL%0,       Roger C.%Ho%NULL%0,       Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1294,7 +1630,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1352,7 +1688,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1381,7 +1717,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1410,7 +1746,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1468,7 +1804,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -1497,7 +1833,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -1526,7 +1862,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -1584,7 +1920,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -1613,7 +1949,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -1642,7 +1978,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -1671,7 +2007,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -1700,7 +2036,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -1729,7 +2065,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -1758,7 +2094,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -1787,7 +2123,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -1816,7 +2152,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -1845,7 +2181,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -1903,7 +2239,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -1932,7 +2268,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -1961,13 +2297,13 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1990,7 +2326,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -2019,7 +2355,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -2048,7 +2384,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2077,7 +2413,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -2106,7 +2442,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -2135,7 +2471,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -2164,7 +2500,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="407">
   <si>
     <t>Doi</t>
   </si>
@@ -1263,6 +1263,189 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,       Grace K.H.%Lee%NULL%0,       Benjamin Y.Q.%Tan%NULL%1,       Mingxue%Jing%NULL%0,       Yihui%Goh%NULL%0,       Nicholas J.H.%Ngiam%NULL%1,       Leonard L.L.%Yeo%NULL%0,       Aftab%Ahmad%NULL%0,       Faheem%Ahmed Khan%NULL%1,       Ganesh%Napolean Shanmugam%NULL%1,       Arvind K.%Sharma%NULL%1,       R.N.%Komalkumar%NULL%1,       P.V.%Meenakshi%NULL%1,       Kenam%Shah%NULL%1,       Bhargesh%Patel%NULL%1,       Bernard P.L.%Chan%NULL%0,       Sibi%Sunny%NULL%0,       Bharatendu%Chandra%NULL%0,       Jonathan J.Y.%Ong%NULL%0,       Prakash R.%Paliwal%NULL%0,       Lily Y.H.%Wong%NULL%0,       Renarebecca%Sagayanathan%NULL%0,       Jin Tao%Chen%NULL%0,       Alison Ying%Ying Ng%NULL%0,       Hock Luen%Teoh%NULL%0,       Georgios%Tsivgoulis%NULL%1,       Cyrus S.%Ho%NULL%0,       Roger C.%Ho%NULL%0,       Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,        Simeng%Ma%NULL%2,        Ying%Wang%NULL%3,        Zhongxiang%Cai%NULL%2,        Jianbo%Hu%NULL%1,        Ning%Wei%NULL%1,        Jiang%Wu%NULL%1,        Hui%Du%NULL%0,        Tingting%Chen%NULL%1,        Ruiting%Li%NULL%3,        Huawei%Tan%NULL%1,        Lijun%Kang%NULL%2,        Lihua%Yao%NULL%1,        Manli%Huang%NULL%1,        Huafen%Wang%NULL%1,        Gaohua%Wang%NULL%1,        Zhongchun%Liu%NULL%2,        Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,        Lu%Dong%NULL%1,        Tao%Wang%NULL%0,        Chenxin%Yuan%NULL%1,        Rao%Fu%NULL%1,        Lei%Zhang%NULL%2,        Bo%Liu%NULL%2,        Mingmin%Zhang%NULL%1,        Yuanyuan%Yin%NULL%1,        Jiawen%Qin%NULL%1,        Jennifer%Bouey%NULL%1,        Min%Zhao%NULL%0,        Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Psychological impact on women health workers involved in COVID-19 outbreak in Wuhan: a cross-sectional study"</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0, Jinfeng%Miao%xref no email%0, Hui%Wang%xref no email%0, Shabei%Xu%xref no email%0, Wenzhe%Sun%xref no email%0, Yebin%Fan%xref no email%0, Chenyan%Zhang%xref no email%0, Suiqiang%Zhu%xref no email%0, Zhou%Zhu%xref no email%0, Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,        Yun-zhi%Yang%NULL%1,        Xiao-Ming%Zhang%NULL%1,        Xinying%Xu%NULL%2,        Xinying%Xu%NULL%0,        Qing-Li%Dou%NULL%1,        Wen-Wu%Zhang%NULL%1,        Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,        Hang%Wang%NULL%1,        Yuxing%Lin%NULL%1,        Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,        Jing%Xu%NULL%0,        Bo-Zhi%Li%NULL%1,        Jin-Sha%Huang%NULL%1,        Yuan%Yang%NULL%2,        Zhen-Tao%Zhang%NULL%1,        Dong-Ai%Yao%NULL%1,        Qun-Hui%Liu%NULL%1,        Min%Jia%NULL%1,        Dao-Kai%Gong%NULL%1,        Xiao-Hong%Ni%NULL%1,        Qi-Mei%Zhang%NULL%1,        Fu-Rong%Shang%NULL%1,        Nian%Xiong%NULL%0,        Chun-Li%Zhu%NULL%1,        Tao%Wang%wangtaowh@hust.edu.cn%0,        Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,        Wenning%Fu%NULL%1,        Xiaoran%Liu%NULL%1,        Zhiqian%Luo%NULL%1,        Rixing%Wang%NULL%1,        Ning%Zhou%NULL%0,        Shijiao%Yan%NULL%1,        Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,        L%Xie%NULL%1,        Y%Xu%NULL%1,        S%Yu%NULL%1,        B%Yao%professoryao@aliyun.com%1,        D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,        Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,        Kun%Wang%NULL%1,        Lu%Yin%NULL%1,        Wen-feng%Zhao%NULL%1,        Qing%Xue%NULL%1,        Mao%Peng%NULL%1,        Bao-quan%Min%NULL%1,        Qing%Tian%NULL%1,        Hai-xia%Leng%NULL%1,        Jia-lin%Du%NULL%1,        Hong%Chang%NULL%1,        Yuan%Yang%NULL%0,        Wei%Li%NULL%4,        Fang-fang%Shangguan%NULL%1,        Tian-yi%Yan%NULL%1,        Hui-qing%Dong%NULL%1,        Ying%Han%NULL%1,        Yu-ping%Wang%NULL%1,        Fiammetta%Cosci%NULL%1,        Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,        Lulu%Yang%NULL%1,        Shuai%Liu%NULL%1,        Simeng%Ma%NULL%0,        Ying%Wang%NULL%0,        Zhongxiang%Cai%NULL%0,        Hui%Du%NULL%0,        Ruiting%Li%NULL%0,        Lijun%Kang%NULL%0,        Meilei%Su%NULL%1,        Jihui%Zhang%NULL%1,        Zhongchun%Liu%NULL%0,        Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,        Xiaobin%Zhu%NULL%1,        Shuai%Fu%NULL%1,        Yugang%Hu%NULL%1,        Xiaoning%Li%NULL%0,        Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,        Hao%Zhou%haoye320@163.com%1,        Yan%Zhou%NULL%1,        Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,        Jing-wen%He%NULL%2,        Jing-wen%He%NULL%0,        Na%Zhou%NULL%1,        Oliver%Schildgen.%NULL%3,        Oliver%Schildgen.%NULL%0,        Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,        Lin%Sun%NULL%1,        Lan%Zhang%NULL%1,        Huan%Wang%NULL%1,        Ajiao%Fan%NULL%1,        Bin%Yang%NULL%1,        Wei%Li%NULL%0,        Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,        Ranjan%Bhattacharyya%NULL%1,        Sumita%Bhattacharyya%NULL%1,        Sukanya%Gupta%NULL%1,        Soumitra%Das%NULL%1,        Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,        Kinshuk%Kohli%NULL%1,        P%Padmakumari%NULL%1,        Prashant Kumar%Dixit%NULL%1,        Ajay Shankar%Prasad%NULL%1,        Bharath Seshadri%Chakravarthy%NULL%1,        Rajat%Shukla%NULL%1,        Parthasarathi%Ghana%NULL%1,        Debasish%Mahapatra%NULL%1,        G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,        Jeffrey Pradeep%Raj%NULL%1,        Seema%Rao%NULL%1,        Murtuza%Ghiya%NULL%1,        Nisanth Menon%Nedungalaparambil%NULL%1,        Harshit%Mundra%NULL%1,        Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,        John R%Adler%NULL%0,        Ram%Sandesh%NULL%2,        Ram%Sandesh%NULL%0,        Wajeeha%Shahid%NULL%1,        Kapeel%Dev%NULL%1,        Nikeeta%Mandhan%NULL%1,        Prem%Shankar%NULL%1,        Anam%Shaikh%NULL%1,        Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,        Ayşe%Kurtulmuş%NULL%1,        Selim%Arpacıoğlu%NULL%1,        Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,        Nicholas W.S.%Chew%NULL%1,        Grace K.H.%Lee%NULL%2,        Mingxue%Jing%NULL%2,        Yihui%Goh%NULL%2,        Leonard L.L.%Yeo%NULL%2,        Ka%Zhang%NULL%1,        Howe-Keat%Chin%NULL%1,        Aftab%Ahmad%NULL%2,        Faheem Ahmed%Khan%NULL%1,        Ganesh Napolean%Shanmugam%NULL%1,        Bernard P.L.%Chan%NULL%2,        Sibi%Sunny%NULL%2,        Bharatendu%Chandra%NULL%2,        Jonathan J.Y.%Ong%NULL%2,        Prakash R.%Paliwal%NULL%2,        Lily Y.H.%Wong%NULL%2,        Renarebecca%Sagayanathan%NULL%2,        Jin Tao%Chen%NULL%2,        Alison Ying%Ying Ng%NULL%2,        Hock Luen%Teoh%NULL%2,        Cyrus S.%Ho%NULL%2,        Roger C.%Ho%NULL%2,        Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,       Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,       Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,       Botega%NJ%coreGivesNoEmail%1,       Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,       Freitas%FMB%coreGivesNoEmail%1,       Guilherme%Arcaro%coreGivesNoEmail%1,       Kang%L%coreGivesNoEmail%1,       Lai%J%coreGivesNoEmail%1,       Lana%RM%coreGivesNoEmail%1,       Lara%Simone Messias Floriano%coreGivesNoEmail%1,       Leonelli%LB%coreGivesNoEmail%1,       Le\u00e3o%AM%coreGivesNoEmail%1,       Liu%Y%coreGivesNoEmail%1,       Martins%C%coreGivesNoEmail%1,       Moura%A%coreGivesNoEmail%1,       Oliveira%FP%coreGivesNoEmail%1,       Pappa%S%coreGivesNoEmail%1,       Rodriguez%EOL%coreGivesNoEmail%1,       Ruback%SP%coreGivesNoEmail%1,       Sena%AFJ%coreGivesNoEmail%1,       Silva%DSD%coreGivesNoEmail%2,       Silva%DSD%coreGivesNoEmail%0,       Spoorthy%MS%coreGivesNoEmail%1,       Suellen%Vienscoski Skupien%coreGivesNoEmail%1,       Trettene%AS%coreGivesNoEmail%1,       Vieira%NF%coreGivesNoEmail%1,       Wang%SM%coreGivesNoEmail%1,       Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,        Elisa%Pedroli%NULL%1,        Guido E.%D'Aniello%NULL%1,        Chiara%Stramba Badiale%NULL%1,        Giada%Pietrabissa%NULL%1,        Chiara%Manna%NULL%1,        Marco%Stramba Badiale%NULL%1,        Giuseppe%Riva%NULL%1,        Gianluca%Castelnuovo%NULL%1,        Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,        Piotr%Krajewski%NULL%2,        Piotr%Krajewski%NULL%0,        Rafał%Biłynicki‐Birula%NULL%2,        Rafał%Biłynicki‐Birula%NULL%0,        Paweł%Poznański%NULL%2,        Paweł%Poznański%NULL%0,        Magdalena%Krajewska%NULL%2,        Magdalena%Krajewska%NULL%0,        Joanna%Rymaszewska%NULL%2,        Joanna%Rymaszewska%NULL%0,        Łukasz%Matusiak%NULL%2,        Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,        Jing%Liu%NULL%0,        Asghar%Afshar Jahanshahi%NULL%1,        Khaled%Nawaser%NULL%1,        Ali%Yousefi%NULL%1,        Jizhen%Li%NULL%1,        Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,        Eman Zmaily%Dahmash%NULL%2,        Eman Zmaily%Dahmash%NULL%0,        Rabaa%Al‐Rousan%NULL%2,        Rabaa%Al‐Rousan%NULL%0,        Hassan%Alwafi%NULL%1,        Hamzeh Mohammad%Alrawashdeh%NULL%1,        Imene%Ghoul%NULL%1,        Anwer%Abidine%NULL%1,        Mohammed A.%Bokhary%NULL%1,        Hadeel T.%AL‐Hadithi%NULL%1,        Dalia%Ali%NULL%1,        Rasha%Abuthawabeh%NULL%1,        Ghada Mohammad%Abdelwahab%NULL%1,        Yosra J.%Alhartani%NULL%1,        Haneen%Al Muhaisen%NULL%1,        Ayah%Dagash%NULL%1,        Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,        Aseem%Mehra%NULL%2,        Aseem%Mehra%NULL%0,        Abhash%Niraula%NULL%2,        Abhash%Niraula%NULL%0,        Khagendra%Kafle%NULL%2,        Khagendra%Kafle%NULL%0,        Saroj Prasad%Deo%NULL%2,        Saroj Prasad%Deo%NULL%0,        Babita%Singh%NULL%2,        Babita%Singh%NULL%0,        Swapnajeet%Sahoo%NULL%2,        Swapnajeet%Sahoo%NULL%0,        Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,        Charles W.%Goss%NULL%2,        Charles W.%Goss%NULL%0,        Bradley A.%Evanoff%NULL%1,        Jaime R.%Strickland%NULL%1,        Rebecca P.%McAlister%NULL%1,        Jennifer%Duncan%NULL%1,        Michio%Murakami%NULL%2,        Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,        Grace K.H.%Lee%NULL%0,        Benjamin Y.Q.%Tan%NULL%1,        Mingxue%Jing%NULL%0,        Yihui%Goh%NULL%0,        Nicholas J.H.%Ngiam%NULL%1,        Leonard L.L.%Yeo%NULL%0,        Aftab%Ahmad%NULL%0,        Faheem%Ahmed Khan%NULL%1,        Ganesh%Napolean Shanmugam%NULL%1,        Arvind K.%Sharma%NULL%1,        R.N.%Komalkumar%NULL%1,        P.V.%Meenakshi%NULL%1,        Kenam%Shah%NULL%1,        Bhargesh%Patel%NULL%1,        Bernard P.L.%Chan%NULL%0,        Sibi%Sunny%NULL%0,        Bharatendu%Chandra%NULL%0,        Jonathan J.Y.%Ong%NULL%0,        Prakash R.%Paliwal%NULL%0,        Lily Y.H.%Wong%NULL%0,        Renarebecca%Sagayanathan%NULL%0,        Jin Tao%Chen%NULL%0,        Alison Ying%Ying Ng%NULL%0,        Hock Luen%Teoh%NULL%0,        Georgios%Tsivgoulis%NULL%1,        Cyrus S.%Ho%NULL%0,        Roger C.%Ho%NULL%0,        Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,         Simeng%Ma%NULL%2,         Ying%Wang%NULL%3,         Zhongxiang%Cai%NULL%2,         Jianbo%Hu%NULL%1,         Ning%Wei%NULL%1,         Jiang%Wu%NULL%1,         Hui%Du%NULL%0,         Tingting%Chen%NULL%1,         Ruiting%Li%NULL%3,         Huawei%Tan%NULL%1,         Lijun%Kang%NULL%2,         Lihua%Yao%NULL%1,         Manli%Huang%NULL%1,         Huafen%Wang%NULL%1,         Gaohua%Wang%NULL%1,         Zhongchun%Liu%NULL%2,         Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,         Lu%Dong%NULL%1,         Tao%Wang%NULL%0,         Chenxin%Yuan%NULL%1,         Rao%Fu%NULL%1,         Lei%Zhang%NULL%2,         Bo%Liu%NULL%2,         Mingmin%Zhang%NULL%1,         Yuanyuan%Yin%NULL%1,         Jiawen%Qin%NULL%1,         Jennifer%Bouey%NULL%1,         Min%Zhao%NULL%0,         Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,  Jinfeng%Miao%xref no email%0,  Hui%Wang%xref no email%0,  Shabei%Xu%xref no email%0,  Wenzhe%Sun%xref no email%0,  Yebin%Fan%xref no email%0,  Chenyan%Zhang%xref no email%0,  Suiqiang%Zhu%xref no email%0,  Zhou%Zhu%xref no email%0,  Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,         Yun-zhi%Yang%NULL%1,         Xiao-Ming%Zhang%NULL%1,         Xinying%Xu%NULL%2,         Xinying%Xu%NULL%0,         Qing-Li%Dou%NULL%1,         Wen-Wu%Zhang%NULL%1,         Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,         Hang%Wang%NULL%1,         Yuxing%Lin%NULL%1,         Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,         Jing%Xu%NULL%0,         Bo-Zhi%Li%NULL%1,         Jin-Sha%Huang%NULL%1,         Yuan%Yang%NULL%2,         Zhen-Tao%Zhang%NULL%1,         Dong-Ai%Yao%NULL%1,         Qun-Hui%Liu%NULL%1,         Min%Jia%NULL%1,         Dao-Kai%Gong%NULL%1,         Xiao-Hong%Ni%NULL%1,         Qi-Mei%Zhang%NULL%1,         Fu-Rong%Shang%NULL%1,         Nian%Xiong%NULL%0,         Chun-Li%Zhu%NULL%1,         Tao%Wang%wangtaowh@hust.edu.cn%0,         Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,         Wenning%Fu%NULL%1,         Xiaoran%Liu%NULL%1,         Zhiqian%Luo%NULL%1,         Rixing%Wang%NULL%1,         Ning%Zhou%NULL%0,         Shijiao%Yan%NULL%1,         Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,         L%Xie%NULL%1,         Y%Xu%NULL%1,         S%Yu%NULL%1,         B%Yao%professoryao@aliyun.com%1,         D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,         Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,         Kun%Wang%NULL%1,         Lu%Yin%NULL%1,         Wen-feng%Zhao%NULL%1,         Qing%Xue%NULL%1,         Mao%Peng%NULL%1,         Bao-quan%Min%NULL%1,         Qing%Tian%NULL%1,         Hai-xia%Leng%NULL%1,         Jia-lin%Du%NULL%1,         Hong%Chang%NULL%1,         Yuan%Yang%NULL%0,         Wei%Li%NULL%4,         Fang-fang%Shangguan%NULL%1,         Tian-yi%Yan%NULL%1,         Hui-qing%Dong%NULL%1,         Ying%Han%NULL%1,         Yu-ping%Wang%NULL%1,         Fiammetta%Cosci%NULL%1,         Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,         Lulu%Yang%NULL%1,         Shuai%Liu%NULL%1,         Simeng%Ma%NULL%0,         Ying%Wang%NULL%0,         Zhongxiang%Cai%NULL%0,         Hui%Du%NULL%0,         Ruiting%Li%NULL%0,         Lijun%Kang%NULL%0,         Meilei%Su%NULL%1,         Jihui%Zhang%NULL%1,         Zhongchun%Liu%NULL%0,         Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,         Xiaobin%Zhu%NULL%1,         Shuai%Fu%NULL%1,         Yugang%Hu%NULL%1,         Xiaoning%Li%NULL%0,         Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,         Hao%Zhou%haoye320@163.com%1,         Yan%Zhou%NULL%1,         Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,         Jing-wen%He%NULL%2,         Jing-wen%He%NULL%0,         Na%Zhou%NULL%1,         Oliver%Schildgen.%NULL%3,         Oliver%Schildgen.%NULL%0,         Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,         Lin%Sun%NULL%1,         Lan%Zhang%NULL%1,         Huan%Wang%NULL%1,         Ajiao%Fan%NULL%1,         Bin%Yang%NULL%1,         Wei%Li%NULL%0,         Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,         Ranjan%Bhattacharyya%NULL%1,         Sumita%Bhattacharyya%NULL%1,         Sukanya%Gupta%NULL%1,         Soumitra%Das%NULL%1,         Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,         Kinshuk%Kohli%NULL%1,         P%Padmakumari%NULL%1,         Prashant Kumar%Dixit%NULL%1,         Ajay Shankar%Prasad%NULL%1,         Bharath Seshadri%Chakravarthy%NULL%1,         Rajat%Shukla%NULL%1,         Parthasarathi%Ghana%NULL%1,         Debasish%Mahapatra%NULL%1,         G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,         Jeffrey Pradeep%Raj%NULL%1,         Seema%Rao%NULL%1,         Murtuza%Ghiya%NULL%1,         Nisanth Menon%Nedungalaparambil%NULL%1,         Harshit%Mundra%NULL%1,         Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,         John R%Adler%NULL%0,         Ram%Sandesh%NULL%2,         Ram%Sandesh%NULL%0,         Wajeeha%Shahid%NULL%1,         Kapeel%Dev%NULL%1,         Nikeeta%Mandhan%NULL%1,         Prem%Shankar%NULL%1,         Anam%Shaikh%NULL%1,         Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,         Ayşe%Kurtulmuş%NULL%1,         Selim%Arpacıoğlu%NULL%1,         Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,         Nicholas W.S.%Chew%NULL%1,         Grace K.H.%Lee%NULL%2,         Mingxue%Jing%NULL%2,         Yihui%Goh%NULL%2,         Leonard L.L.%Yeo%NULL%2,         Ka%Zhang%NULL%1,         Howe-Keat%Chin%NULL%1,         Aftab%Ahmad%NULL%2,         Faheem Ahmed%Khan%NULL%1,         Ganesh Napolean%Shanmugam%NULL%1,         Bernard P.L.%Chan%NULL%2,         Sibi%Sunny%NULL%2,         Bharatendu%Chandra%NULL%2,         Jonathan J.Y.%Ong%NULL%2,         Prakash R.%Paliwal%NULL%2,         Lily Y.H.%Wong%NULL%2,         Renarebecca%Sagayanathan%NULL%2,         Jin Tao%Chen%NULL%2,         Alison Ying%Ying Ng%NULL%2,         Hock Luen%Teoh%NULL%2,         Cyrus S.%Ho%NULL%2,         Roger C.%Ho%NULL%2,         Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,        Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,        Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,        Botega%NJ%coreGivesNoEmail%1,        Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,        Freitas%FMB%coreGivesNoEmail%1,        Guilherme%Arcaro%coreGivesNoEmail%1,        Kang%L%coreGivesNoEmail%1,        Lai%J%coreGivesNoEmail%1,        Lana%RM%coreGivesNoEmail%1,        Lara%Simone Messias Floriano%coreGivesNoEmail%1,        Leonelli%LB%coreGivesNoEmail%1,        Le\u00e3o%AM%coreGivesNoEmail%1,        Liu%Y%coreGivesNoEmail%1,        Martins%C%coreGivesNoEmail%1,        Moura%A%coreGivesNoEmail%1,        Oliveira%FP%coreGivesNoEmail%1,        Pappa%S%coreGivesNoEmail%1,        Rodriguez%EOL%coreGivesNoEmail%1,        Ruback%SP%coreGivesNoEmail%1,        Sena%AFJ%coreGivesNoEmail%1,        Silva%DSD%coreGivesNoEmail%2,        Silva%DSD%coreGivesNoEmail%0,        Spoorthy%MS%coreGivesNoEmail%1,        Suellen%Vienscoski Skupien%coreGivesNoEmail%1,        Trettene%AS%coreGivesNoEmail%1,        Vieira%NF%coreGivesNoEmail%1,        Wang%SM%coreGivesNoEmail%1,        Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,         Elisa%Pedroli%NULL%1,         Guido E.%D'Aniello%NULL%1,         Chiara%Stramba Badiale%NULL%1,         Giada%Pietrabissa%NULL%1,         Chiara%Manna%NULL%1,         Marco%Stramba Badiale%NULL%1,         Giuseppe%Riva%NULL%1,         Gianluca%Castelnuovo%NULL%1,         Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,         Piotr%Krajewski%NULL%2,         Piotr%Krajewski%NULL%0,         Rafał%Biłynicki‐Birula%NULL%2,         Rafał%Biłynicki‐Birula%NULL%0,         Paweł%Poznański%NULL%2,         Paweł%Poznański%NULL%0,         Magdalena%Krajewska%NULL%2,         Magdalena%Krajewska%NULL%0,         Joanna%Rymaszewska%NULL%2,         Joanna%Rymaszewska%NULL%0,         Łukasz%Matusiak%NULL%2,         Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,         Jing%Liu%NULL%0,         Asghar%Afshar Jahanshahi%NULL%1,         Khaled%Nawaser%NULL%1,         Ali%Yousefi%NULL%1,         Jizhen%Li%NULL%1,         Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,         Eman Zmaily%Dahmash%NULL%2,         Eman Zmaily%Dahmash%NULL%0,         Rabaa%Al‐Rousan%NULL%2,         Rabaa%Al‐Rousan%NULL%0,         Hassan%Alwafi%NULL%1,         Hamzeh Mohammad%Alrawashdeh%NULL%1,         Imene%Ghoul%NULL%1,         Anwer%Abidine%NULL%1,         Mohammed A.%Bokhary%NULL%1,         Hadeel T.%AL‐Hadithi%NULL%1,         Dalia%Ali%NULL%1,         Rasha%Abuthawabeh%NULL%1,         Ghada Mohammad%Abdelwahab%NULL%1,         Yosra J.%Alhartani%NULL%1,         Haneen%Al Muhaisen%NULL%1,         Ayah%Dagash%NULL%1,         Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,         Aseem%Mehra%NULL%2,         Aseem%Mehra%NULL%0,         Abhash%Niraula%NULL%2,         Abhash%Niraula%NULL%0,         Khagendra%Kafle%NULL%2,         Khagendra%Kafle%NULL%0,         Saroj Prasad%Deo%NULL%2,         Saroj Prasad%Deo%NULL%0,         Babita%Singh%NULL%2,         Babita%Singh%NULL%0,         Swapnajeet%Sahoo%NULL%2,         Swapnajeet%Sahoo%NULL%0,         Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,         Charles W.%Goss%NULL%2,         Charles W.%Goss%NULL%0,         Bradley A.%Evanoff%NULL%1,         Jaime R.%Strickland%NULL%1,         Rebecca P.%McAlister%NULL%1,         Jennifer%Duncan%NULL%1,         Michio%Murakami%NULL%2,         Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,         Grace K.H.%Lee%NULL%0,         Benjamin Y.Q.%Tan%NULL%1,         Mingxue%Jing%NULL%0,         Yihui%Goh%NULL%0,         Nicholas J.H.%Ngiam%NULL%1,         Leonard L.L.%Yeo%NULL%0,         Aftab%Ahmad%NULL%0,         Faheem%Ahmed Khan%NULL%1,         Ganesh%Napolean Shanmugam%NULL%1,         Arvind K.%Sharma%NULL%1,         R.N.%Komalkumar%NULL%1,         P.V.%Meenakshi%NULL%1,         Kenam%Shah%NULL%1,         Bhargesh%Patel%NULL%1,         Bernard P.L.%Chan%NULL%0,         Sibi%Sunny%NULL%0,         Bharatendu%Chandra%NULL%0,         Jonathan J.Y.%Ong%NULL%0,         Prakash R.%Paliwal%NULL%0,         Lily Y.H.%Wong%NULL%0,         Renarebecca%Sagayanathan%NULL%0,         Jin Tao%Chen%NULL%0,         Alison Ying%Ying Ng%NULL%0,         Hock Luen%Teoh%NULL%0,         Georgios%Tsivgoulis%NULL%1,         Cyrus S.%Ho%NULL%0,         Roger C.%Ho%NULL%0,         Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1784,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1630,7 +1813,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1653,22 +1836,22 @@
         <v>44044.0</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -1688,7 +1871,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1717,7 +1900,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1746,7 +1929,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1804,7 +1987,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -1833,7 +2016,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -1862,7 +2045,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -1920,7 +2103,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -1949,7 +2132,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -1978,7 +2161,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2007,7 +2190,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2036,7 +2219,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2065,7 +2248,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2094,7 +2277,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2123,7 +2306,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2152,7 +2335,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2181,7 +2364,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2239,7 +2422,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -2268,7 +2451,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -2297,7 +2480,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2326,7 +2509,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -2355,7 +2538,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -2384,7 +2567,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2413,7 +2596,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -2442,7 +2625,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -2471,7 +2654,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -2500,7 +2683,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="465">
   <si>
     <t>Doi</t>
   </si>
@@ -1446,6 +1446,180 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,         Grace K.H.%Lee%NULL%0,         Benjamin Y.Q.%Tan%NULL%1,         Mingxue%Jing%NULL%0,         Yihui%Goh%NULL%0,         Nicholas J.H.%Ngiam%NULL%1,         Leonard L.L.%Yeo%NULL%0,         Aftab%Ahmad%NULL%0,         Faheem%Ahmed Khan%NULL%1,         Ganesh%Napolean Shanmugam%NULL%1,         Arvind K.%Sharma%NULL%1,         R.N.%Komalkumar%NULL%1,         P.V.%Meenakshi%NULL%1,         Kenam%Shah%NULL%1,         Bhargesh%Patel%NULL%1,         Bernard P.L.%Chan%NULL%0,         Sibi%Sunny%NULL%0,         Bharatendu%Chandra%NULL%0,         Jonathan J.Y.%Ong%NULL%0,         Prakash R.%Paliwal%NULL%0,         Lily Y.H.%Wong%NULL%0,         Renarebecca%Sagayanathan%NULL%0,         Jin Tao%Chen%NULL%0,         Alison Ying%Ying Ng%NULL%0,         Hock Luen%Teoh%NULL%0,         Georgios%Tsivgoulis%NULL%1,         Cyrus S.%Ho%NULL%0,         Roger C.%Ho%NULL%0,         Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,          Simeng%Ma%NULL%2,          Ying%Wang%NULL%3,          Zhongxiang%Cai%NULL%2,          Jianbo%Hu%NULL%1,          Ning%Wei%NULL%1,          Jiang%Wu%NULL%1,          Hui%Du%NULL%0,          Tingting%Chen%NULL%1,          Ruiting%Li%NULL%3,          Huawei%Tan%NULL%1,          Lijun%Kang%NULL%2,          Lihua%Yao%NULL%1,          Manli%Huang%NULL%1,          Huafen%Wang%NULL%1,          Gaohua%Wang%NULL%1,          Zhongchun%Liu%NULL%2,          Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,          Lu%Dong%NULL%1,          Tao%Wang%NULL%0,          Chenxin%Yuan%NULL%1,          Rao%Fu%NULL%1,          Lei%Zhang%NULL%2,          Bo%Liu%NULL%2,          Mingmin%Zhang%NULL%1,          Yuanyuan%Yin%NULL%1,          Jiawen%Qin%NULL%1,          Jennifer%Bouey%NULL%1,          Min%Zhao%NULL%0,          Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,   Jinfeng%Miao%xref no email%0,   Hui%Wang%xref no email%0,   Shabei%Xu%xref no email%0,   Wenzhe%Sun%xref no email%0,   Yebin%Fan%xref no email%0,   Chenyan%Zhang%xref no email%0,   Suiqiang%Zhu%xref no email%0,   Zhou%Zhu%xref no email%0,   Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,          Yun-zhi%Yang%NULL%1,          Xiao-Ming%Zhang%NULL%1,          Xinying%Xu%NULL%2,          Xinying%Xu%NULL%0,          Qing-Li%Dou%NULL%1,          Wen-Wu%Zhang%NULL%1,          Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,          Hang%Wang%NULL%1,          Yuxing%Lin%NULL%1,          Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,          Jing%Xu%NULL%0,          Bo-Zhi%Li%NULL%1,          Jin-Sha%Huang%NULL%1,          Yuan%Yang%NULL%2,          Zhen-Tao%Zhang%NULL%1,          Dong-Ai%Yao%NULL%1,          Qun-Hui%Liu%NULL%1,          Min%Jia%NULL%1,          Dao-Kai%Gong%NULL%1,          Xiao-Hong%Ni%NULL%1,          Qi-Mei%Zhang%NULL%1,          Fu-Rong%Shang%NULL%1,          Nian%Xiong%NULL%0,          Chun-Li%Zhu%NULL%1,          Tao%Wang%wangtaowh@hust.edu.cn%0,          Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,          Wenning%Fu%NULL%1,          Xiaoran%Liu%NULL%1,          Zhiqian%Luo%NULL%1,          Rixing%Wang%NULL%1,          Ning%Zhou%NULL%0,          Shijiao%Yan%NULL%1,          Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,          L%Xie%NULL%1,          Y%Xu%NULL%1,          S%Yu%NULL%1,          B%Yao%professoryao@aliyun.com%1,          D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,          Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,          Kun%Wang%NULL%1,          Lu%Yin%NULL%1,          Wen-feng%Zhao%NULL%1,          Qing%Xue%NULL%1,          Mao%Peng%NULL%1,          Bao-quan%Min%NULL%1,          Qing%Tian%NULL%1,          Hai-xia%Leng%NULL%1,          Jia-lin%Du%NULL%1,          Hong%Chang%NULL%1,          Yuan%Yang%NULL%0,          Wei%Li%NULL%4,          Fang-fang%Shangguan%NULL%1,          Tian-yi%Yan%NULL%1,          Hui-qing%Dong%NULL%1,          Ying%Han%NULL%1,          Yu-ping%Wang%NULL%1,          Fiammetta%Cosci%NULL%1,          Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,          Lulu%Yang%NULL%1,          Shuai%Liu%NULL%1,          Simeng%Ma%NULL%0,          Ying%Wang%NULL%0,          Zhongxiang%Cai%NULL%0,          Hui%Du%NULL%0,          Ruiting%Li%NULL%0,          Lijun%Kang%NULL%0,          Meilei%Su%NULL%1,          Jihui%Zhang%NULL%1,          Zhongchun%Liu%NULL%0,          Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,          Xiaobin%Zhu%NULL%1,          Shuai%Fu%NULL%1,          Yugang%Hu%NULL%1,          Xiaoning%Li%NULL%0,          Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,          Hao%Zhou%haoye320@163.com%1,          Yan%Zhou%NULL%1,          Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,          Jing-wen%He%NULL%2,          Jing-wen%He%NULL%0,          Na%Zhou%NULL%1,          Oliver%Schildgen.%NULL%3,          Oliver%Schildgen.%NULL%0,          Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,          Lin%Sun%NULL%1,          Lan%Zhang%NULL%1,          Huan%Wang%NULL%1,          Ajiao%Fan%NULL%1,          Bin%Yang%NULL%1,          Wei%Li%NULL%0,          Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,          Ranjan%Bhattacharyya%NULL%1,          Sumita%Bhattacharyya%NULL%1,          Sukanya%Gupta%NULL%1,          Soumitra%Das%NULL%1,          Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,          Kinshuk%Kohli%NULL%1,          P%Padmakumari%NULL%1,          Prashant Kumar%Dixit%NULL%1,          Ajay Shankar%Prasad%NULL%1,          Bharath Seshadri%Chakravarthy%NULL%1,          Rajat%Shukla%NULL%1,          Parthasarathi%Ghana%NULL%1,          Debasish%Mahapatra%NULL%1,          G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,          Jeffrey Pradeep%Raj%NULL%1,          Seema%Rao%NULL%1,          Murtuza%Ghiya%NULL%1,          Nisanth Menon%Nedungalaparambil%NULL%1,          Harshit%Mundra%NULL%1,          Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,          John R%Adler%NULL%0,          Ram%Sandesh%NULL%2,          Ram%Sandesh%NULL%0,          Wajeeha%Shahid%NULL%1,          Kapeel%Dev%NULL%1,          Nikeeta%Mandhan%NULL%1,          Prem%Shankar%NULL%1,          Anam%Shaikh%NULL%1,          Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,          Ayşe%Kurtulmuş%NULL%1,          Selim%Arpacıoğlu%NULL%1,          Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,          Nicholas W.S.%Chew%NULL%1,          Grace K.H.%Lee%NULL%2,          Mingxue%Jing%NULL%2,          Yihui%Goh%NULL%2,          Leonard L.L.%Yeo%NULL%2,          Ka%Zhang%NULL%1,          Howe-Keat%Chin%NULL%1,          Aftab%Ahmad%NULL%2,          Faheem Ahmed%Khan%NULL%1,          Ganesh Napolean%Shanmugam%NULL%1,          Bernard P.L.%Chan%NULL%2,          Sibi%Sunny%NULL%2,          Bharatendu%Chandra%NULL%2,          Jonathan J.Y.%Ong%NULL%2,          Prakash R.%Paliwal%NULL%2,          Lily Y.H.%Wong%NULL%2,          Renarebecca%Sagayanathan%NULL%2,          Jin Tao%Chen%NULL%2,          Alison Ying%Ying Ng%NULL%2,          Hock Luen%Teoh%NULL%2,          Cyrus S.%Ho%NULL%2,          Roger C.%Ho%NULL%2,          Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,         Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,         Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,         Botega%NJ%coreGivesNoEmail%1,         Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,         Freitas%FMB%coreGivesNoEmail%1,         Guilherme%Arcaro%coreGivesNoEmail%1,         Kang%L%coreGivesNoEmail%1,         Lai%J%coreGivesNoEmail%1,         Lana%RM%coreGivesNoEmail%1,         Lara%Simone Messias Floriano%coreGivesNoEmail%1,         Leonelli%LB%coreGivesNoEmail%1,         Le\u00e3o%AM%coreGivesNoEmail%1,         Liu%Y%coreGivesNoEmail%1,         Martins%C%coreGivesNoEmail%1,         Moura%A%coreGivesNoEmail%1,         Oliveira%FP%coreGivesNoEmail%1,         Pappa%S%coreGivesNoEmail%1,         Rodriguez%EOL%coreGivesNoEmail%1,         Ruback%SP%coreGivesNoEmail%1,         Sena%AFJ%coreGivesNoEmail%1,         Silva%DSD%coreGivesNoEmail%2,         Silva%DSD%coreGivesNoEmail%0,         Spoorthy%MS%coreGivesNoEmail%1,         Suellen%Vienscoski Skupien%coreGivesNoEmail%1,         Trettene%AS%coreGivesNoEmail%1,         Vieira%NF%coreGivesNoEmail%1,         Wang%SM%coreGivesNoEmail%1,         Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,          Elisa%Pedroli%NULL%1,          Guido E.%D'Aniello%NULL%1,          Chiara%Stramba Badiale%NULL%1,          Giada%Pietrabissa%NULL%1,          Chiara%Manna%NULL%1,          Marco%Stramba Badiale%NULL%1,          Giuseppe%Riva%NULL%1,          Gianluca%Castelnuovo%NULL%1,          Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,          Piotr%Krajewski%NULL%2,          Piotr%Krajewski%NULL%0,          Rafał%Biłynicki‐Birula%NULL%2,          Rafał%Biłynicki‐Birula%NULL%0,          Paweł%Poznański%NULL%2,          Paweł%Poznański%NULL%0,          Magdalena%Krajewska%NULL%2,          Magdalena%Krajewska%NULL%0,          Joanna%Rymaszewska%NULL%2,          Joanna%Rymaszewska%NULL%0,          Łukasz%Matusiak%NULL%2,          Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,          Jing%Liu%NULL%0,          Asghar%Afshar Jahanshahi%NULL%1,          Khaled%Nawaser%NULL%1,          Ali%Yousefi%NULL%1,          Jizhen%Li%NULL%1,          Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,          Eman Zmaily%Dahmash%NULL%2,          Eman Zmaily%Dahmash%NULL%0,          Rabaa%Al‐Rousan%NULL%2,          Rabaa%Al‐Rousan%NULL%0,          Hassan%Alwafi%NULL%1,          Hamzeh Mohammad%Alrawashdeh%NULL%1,          Imene%Ghoul%NULL%1,          Anwer%Abidine%NULL%1,          Mohammed A.%Bokhary%NULL%1,          Hadeel T.%AL‐Hadithi%NULL%1,          Dalia%Ali%NULL%1,          Rasha%Abuthawabeh%NULL%1,          Ghada Mohammad%Abdelwahab%NULL%1,          Yosra J.%Alhartani%NULL%1,          Haneen%Al Muhaisen%NULL%1,          Ayah%Dagash%NULL%1,          Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,          Aseem%Mehra%NULL%2,          Aseem%Mehra%NULL%0,          Abhash%Niraula%NULL%2,          Abhash%Niraula%NULL%0,          Khagendra%Kafle%NULL%2,          Khagendra%Kafle%NULL%0,          Saroj Prasad%Deo%NULL%2,          Saroj Prasad%Deo%NULL%0,          Babita%Singh%NULL%2,          Babita%Singh%NULL%0,          Swapnajeet%Sahoo%NULL%2,          Swapnajeet%Sahoo%NULL%0,          Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,          Charles W.%Goss%NULL%2,          Charles W.%Goss%NULL%0,          Bradley A.%Evanoff%NULL%1,          Jaime R.%Strickland%NULL%1,          Rebecca P.%McAlister%NULL%1,          Jennifer%Duncan%NULL%1,          Michio%Murakami%NULL%2,          Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,          Grace K.H.%Lee%NULL%0,          Benjamin Y.Q.%Tan%NULL%1,          Mingxue%Jing%NULL%0,          Yihui%Goh%NULL%0,          Nicholas J.H.%Ngiam%NULL%1,          Leonard L.L.%Yeo%NULL%0,          Aftab%Ahmad%NULL%0,          Faheem%Ahmed Khan%NULL%1,          Ganesh%Napolean Shanmugam%NULL%1,          Arvind K.%Sharma%NULL%1,          R.N.%Komalkumar%NULL%1,          P.V.%Meenakshi%NULL%1,          Kenam%Shah%NULL%1,          Bhargesh%Patel%NULL%1,          Bernard P.L.%Chan%NULL%0,          Sibi%Sunny%NULL%0,          Bharatendu%Chandra%NULL%0,          Jonathan J.Y.%Ong%NULL%0,          Prakash R.%Paliwal%NULL%0,          Lily Y.H.%Wong%NULL%0,          Renarebecca%Sagayanathan%NULL%0,          Jin Tao%Chen%NULL%0,          Alison Ying%Ying Ng%NULL%0,          Hock Luen%Teoh%NULL%0,          Georgios%Tsivgoulis%NULL%1,          Cyrus S.%Ho%NULL%0,          Roger C.%Ho%NULL%0,          Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,           Simeng%Ma%NULL%2,           Ying%Wang%NULL%3,           Zhongxiang%Cai%NULL%2,           Jianbo%Hu%NULL%1,           Ning%Wei%NULL%1,           Jiang%Wu%NULL%1,           Hui%Du%NULL%0,           Tingting%Chen%NULL%1,           Ruiting%Li%NULL%3,           Huawei%Tan%NULL%1,           Lijun%Kang%NULL%2,           Lihua%Yao%NULL%1,           Manli%Huang%NULL%1,           Huafen%Wang%NULL%1,           Gaohua%Wang%NULL%1,           Zhongchun%Liu%NULL%2,           Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,           Lu%Dong%NULL%1,           Tao%Wang%NULL%0,           Chenxin%Yuan%NULL%1,           Rao%Fu%NULL%1,           Lei%Zhang%NULL%2,           Bo%Liu%NULL%2,           Mingmin%Zhang%NULL%1,           Yuanyuan%Yin%NULL%1,           Jiawen%Qin%NULL%1,           Jennifer%Bouey%NULL%1,           Min%Zhao%NULL%0,           Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,    Jinfeng%Miao%xref no email%0,    Hui%Wang%xref no email%0,    Shabei%Xu%xref no email%0,    Wenzhe%Sun%xref no email%0,    Yebin%Fan%xref no email%0,    Chenyan%Zhang%xref no email%0,    Suiqiang%Zhu%xref no email%0,    Zhou%Zhu%xref no email%0,    Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,           Yun-zhi%Yang%NULL%1,           Xiao-Ming%Zhang%NULL%1,           Xinying%Xu%NULL%2,           Xinying%Xu%NULL%0,           Qing-Li%Dou%NULL%1,           Wen-Wu%Zhang%NULL%1,           Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,           Hang%Wang%NULL%1,           Yuxing%Lin%NULL%1,           Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,           Jing%Xu%NULL%0,           Bo-Zhi%Li%NULL%1,           Jin-Sha%Huang%NULL%1,           Yuan%Yang%NULL%2,           Zhen-Tao%Zhang%NULL%1,           Dong-Ai%Yao%NULL%1,           Qun-Hui%Liu%NULL%1,           Min%Jia%NULL%1,           Dao-Kai%Gong%NULL%1,           Xiao-Hong%Ni%NULL%1,           Qi-Mei%Zhang%NULL%1,           Fu-Rong%Shang%NULL%1,           Nian%Xiong%NULL%0,           Chun-Li%Zhu%NULL%1,           Tao%Wang%wangtaowh@hust.edu.cn%0,           Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,           Wenning%Fu%NULL%1,           Xiaoran%Liu%NULL%1,           Zhiqian%Luo%NULL%1,           Rixing%Wang%NULL%1,           Ning%Zhou%NULL%0,           Shijiao%Yan%NULL%1,           Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,           L%Xie%NULL%1,           Y%Xu%NULL%1,           S%Yu%NULL%1,           B%Yao%professoryao@aliyun.com%1,           D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,           Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,           Kun%Wang%NULL%0,           Lu%Yin%NULL%1,           Wen-feng%Zhao%NULL%1,           Qing%Xue%NULL%1,           Mao%Peng%NULL%1,           Bao-quan%Min%NULL%1,           Qing%Tian%NULL%1,           Hai-xia%Leng%NULL%1,           Jia-lin%Du%NULL%1,           Hong%Chang%NULL%1,           Yuan%Yang%NULL%0,           Wei%Li%NULL%4,           Fang-fang%Shangguan%NULL%1,           Tian-yi%Yan%NULL%1,           Hui-qing%Dong%NULL%1,           Ying%Han%NULL%1,           Yu-ping%Wang%NULL%1,           Fiammetta%Cosci%NULL%1,           Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,           Lulu%Yang%NULL%1,           Shuai%Liu%NULL%1,           Simeng%Ma%NULL%0,           Ying%Wang%NULL%0,           Zhongxiang%Cai%NULL%0,           Hui%Du%NULL%0,           Ruiting%Li%NULL%0,           Lijun%Kang%NULL%0,           Meilei%Su%NULL%1,           Jihui%Zhang%NULL%1,           Zhongchun%Liu%NULL%0,           Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,           Xiaobin%Zhu%NULL%1,           Shuai%Fu%NULL%1,           Yugang%Hu%NULL%1,           Xiaoning%Li%NULL%0,           Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,           Hao%Zhou%haoye320@163.com%1,           Yan%Zhou%NULL%1,           Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,           Jing-wen%He%NULL%2,           Jing-wen%He%NULL%0,           Na%Zhou%NULL%1,           Oliver%Schildgen.%NULL%3,           Oliver%Schildgen.%NULL%0,           Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,           Lin%Sun%NULL%1,           Lan%Zhang%NULL%1,           Huan%Wang%NULL%1,           Ajiao%Fan%NULL%1,           Bin%Yang%NULL%1,           Wei%Li%NULL%0,           Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,           Ranjan%Bhattacharyya%NULL%1,           Sumita%Bhattacharyya%NULL%1,           Sukanya%Gupta%NULL%1,           Soumitra%Das%NULL%1,           Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,           Kinshuk%Kohli%NULL%1,           P%Padmakumari%NULL%1,           Prashant Kumar%Dixit%NULL%1,           Ajay Shankar%Prasad%NULL%1,           Bharath Seshadri%Chakravarthy%NULL%1,           Rajat%Shukla%NULL%1,           Parthasarathi%Ghana%NULL%1,           Debasish%Mahapatra%NULL%1,           G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,           Jeffrey Pradeep%Raj%NULL%1,           Seema%Rao%NULL%1,           Murtuza%Ghiya%NULL%1,           Nisanth Menon%Nedungalaparambil%NULL%1,           Harshit%Mundra%NULL%1,           Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,           John R%Adler%NULL%0,           Ram%Sandesh%NULL%2,           Ram%Sandesh%NULL%0,           Wajeeha%Shahid%NULL%1,           Kapeel%Dev%NULL%1,           Nikeeta%Mandhan%NULL%1,           Prem%Shankar%NULL%1,           Anam%Shaikh%NULL%1,           Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,           Ayşe%Kurtulmuş%NULL%1,           Selim%Arpacıoğlu%NULL%1,           Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,           Nicholas W.S.%Chew%NULL%1,           Grace K.H.%Lee%NULL%2,           Mingxue%Jing%NULL%2,           Yihui%Goh%NULL%2,           Leonard L.L.%Yeo%NULL%2,           Ka%Zhang%NULL%1,           Howe-Keat%Chin%NULL%1,           Aftab%Ahmad%NULL%2,           Faheem Ahmed%Khan%NULL%1,           Ganesh Napolean%Shanmugam%NULL%1,           Bernard P.L.%Chan%NULL%2,           Sibi%Sunny%NULL%2,           Bharatendu%Chandra%NULL%2,           Jonathan J.Y.%Ong%NULL%2,           Prakash R.%Paliwal%NULL%2,           Lily Y.H.%Wong%NULL%2,           Renarebecca%Sagayanathan%NULL%2,           Jin Tao%Chen%NULL%2,           Alison Ying%Ying Ng%NULL%2,           Hock Luen%Teoh%NULL%2,           Cyrus S.%Ho%NULL%2,           Roger C.%Ho%NULL%2,           Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,          Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,          Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,          Botega%NJ%coreGivesNoEmail%1,          Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,          Freitas%FMB%coreGivesNoEmail%1,          Guilherme%Arcaro%coreGivesNoEmail%1,          Kang%L%coreGivesNoEmail%1,          Lai%J%coreGivesNoEmail%1,          Lana%RM%coreGivesNoEmail%1,          Lara%Simone Messias Floriano%coreGivesNoEmail%1,          Leonelli%LB%coreGivesNoEmail%1,          Le\u00e3o%AM%coreGivesNoEmail%1,          Liu%Y%coreGivesNoEmail%1,          Martins%C%coreGivesNoEmail%1,          Moura%A%coreGivesNoEmail%1,          Oliveira%FP%coreGivesNoEmail%1,          Pappa%S%coreGivesNoEmail%1,          Rodriguez%EOL%coreGivesNoEmail%1,          Ruback%SP%coreGivesNoEmail%1,          Sena%AFJ%coreGivesNoEmail%1,          Silva%DSD%coreGivesNoEmail%2,          Silva%DSD%coreGivesNoEmail%0,          Spoorthy%MS%coreGivesNoEmail%1,          Suellen%Vienscoski Skupien%coreGivesNoEmail%1,          Trettene%AS%coreGivesNoEmail%1,          Vieira%NF%coreGivesNoEmail%1,          Wang%SM%coreGivesNoEmail%1,          Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,           Elisa%Pedroli%NULL%1,           Guido E.%D'Aniello%NULL%1,           Chiara%Stramba Badiale%NULL%1,           Giada%Pietrabissa%NULL%1,           Chiara%Manna%NULL%1,           Marco%Stramba Badiale%NULL%1,           Giuseppe%Riva%NULL%1,           Gianluca%Castelnuovo%NULL%1,           Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,           Piotr%Krajewski%NULL%2,           Piotr%Krajewski%NULL%0,           Rafał%Biłynicki‐Birula%NULL%2,           Rafał%Biłynicki‐Birula%NULL%0,           Paweł%Poznański%NULL%2,           Paweł%Poznański%NULL%0,           Magdalena%Krajewska%NULL%2,           Magdalena%Krajewska%NULL%0,           Joanna%Rymaszewska%NULL%2,           Joanna%Rymaszewska%NULL%0,           Łukasz%Matusiak%NULL%2,           Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,           Jing%Liu%NULL%0,           Asghar%Afshar Jahanshahi%NULL%1,           Khaled%Nawaser%NULL%1,           Ali%Yousefi%NULL%1,           Jizhen%Li%NULL%1,           Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,           Eman Zmaily%Dahmash%NULL%2,           Eman Zmaily%Dahmash%NULL%0,           Rabaa%Al‐Rousan%NULL%2,           Rabaa%Al‐Rousan%NULL%0,           Hassan%Alwafi%NULL%1,           Hamzeh Mohammad%Alrawashdeh%NULL%1,           Imene%Ghoul%NULL%1,           Anwer%Abidine%NULL%1,           Mohammed A.%Bokhary%NULL%1,           Hadeel T.%AL‐Hadithi%NULL%1,           Dalia%Ali%NULL%1,           Rasha%Abuthawabeh%NULL%1,           Ghada Mohammad%Abdelwahab%NULL%1,           Yosra J.%Alhartani%NULL%1,           Haneen%Al Muhaisen%NULL%1,           Ayah%Dagash%NULL%1,           Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,           Aseem%Mehra%NULL%2,           Aseem%Mehra%NULL%0,           Abhash%Niraula%NULL%2,           Abhash%Niraula%NULL%0,           Khagendra%Kafle%NULL%2,           Khagendra%Kafle%NULL%0,           Saroj Prasad%Deo%NULL%2,           Saroj Prasad%Deo%NULL%0,           Babita%Singh%NULL%2,           Babita%Singh%NULL%0,           Swapnajeet%Sahoo%NULL%2,           Swapnajeet%Sahoo%NULL%0,           Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,           Charles W.%Goss%NULL%2,           Charles W.%Goss%NULL%0,           Bradley A.%Evanoff%NULL%1,           Jaime R.%Strickland%NULL%1,           Rebecca P.%McAlister%NULL%1,           Jennifer%Duncan%NULL%1,           Michio%Murakami%NULL%2,           Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,           Grace K.H.%Lee%NULL%0,           Benjamin Y.Q.%Tan%NULL%1,           Mingxue%Jing%NULL%0,           Yihui%Goh%NULL%0,           Nicholas J.H.%Ngiam%NULL%1,           Leonard L.L.%Yeo%NULL%0,           Aftab%Ahmad%NULL%0,           Faheem%Ahmed Khan%NULL%1,           Ganesh%Napolean Shanmugam%NULL%1,           Arvind K.%Sharma%NULL%1,           R.N.%Komalkumar%NULL%1,           P.V.%Meenakshi%NULL%1,           Kenam%Shah%NULL%1,           Bhargesh%Patel%NULL%1,           Bernard P.L.%Chan%NULL%0,           Sibi%Sunny%NULL%0,           Bharatendu%Chandra%NULL%0,           Jonathan J.Y.%Ong%NULL%0,           Prakash R.%Paliwal%NULL%0,           Lily Y.H.%Wong%NULL%0,           Renarebecca%Sagayanathan%NULL%0,           Jin Tao%Chen%NULL%0,           Alison Ying%Ying Ng%NULL%0,           Hock Luen%Teoh%NULL%0,           Georgios%Tsivgoulis%NULL%1,           Cyrus S.%Ho%NULL%0,           Roger C.%Ho%NULL%0,           Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1958,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1813,7 +1987,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1842,7 +2016,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1871,7 +2045,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1900,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1929,7 +2103,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1987,7 +2161,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2016,7 +2190,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2045,7 +2219,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2103,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2132,7 +2306,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2161,7 +2335,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2190,7 +2364,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2219,7 +2393,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2248,7 +2422,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2277,7 +2451,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2306,7 +2480,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2335,7 +2509,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2364,7 +2538,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2422,7 +2596,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -2451,7 +2625,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -2480,7 +2654,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2509,7 +2683,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -2538,7 +2712,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -2567,7 +2741,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2596,7 +2770,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -2625,7 +2799,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -2654,7 +2828,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -2683,7 +2857,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="523">
   <si>
     <t>Doi</t>
   </si>
@@ -1620,6 +1620,180 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,           Grace K.H.%Lee%NULL%0,           Benjamin Y.Q.%Tan%NULL%1,           Mingxue%Jing%NULL%0,           Yihui%Goh%NULL%0,           Nicholas J.H.%Ngiam%NULL%1,           Leonard L.L.%Yeo%NULL%0,           Aftab%Ahmad%NULL%0,           Faheem%Ahmed Khan%NULL%1,           Ganesh%Napolean Shanmugam%NULL%1,           Arvind K.%Sharma%NULL%1,           R.N.%Komalkumar%NULL%1,           P.V.%Meenakshi%NULL%1,           Kenam%Shah%NULL%1,           Bhargesh%Patel%NULL%1,           Bernard P.L.%Chan%NULL%0,           Sibi%Sunny%NULL%0,           Bharatendu%Chandra%NULL%0,           Jonathan J.Y.%Ong%NULL%0,           Prakash R.%Paliwal%NULL%0,           Lily Y.H.%Wong%NULL%0,           Renarebecca%Sagayanathan%NULL%0,           Jin Tao%Chen%NULL%0,           Alison Ying%Ying Ng%NULL%0,           Hock Luen%Teoh%NULL%0,           Georgios%Tsivgoulis%NULL%1,           Cyrus S.%Ho%NULL%0,           Roger C.%Ho%NULL%0,           Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,            Simeng%Ma%NULL%2,            Ying%Wang%NULL%3,            Zhongxiang%Cai%NULL%2,            Jianbo%Hu%NULL%1,            Ning%Wei%NULL%1,            Jiang%Wu%NULL%1,            Hui%Du%NULL%0,            Tingting%Chen%NULL%1,            Ruiting%Li%NULL%3,            Huawei%Tan%NULL%1,            Lijun%Kang%NULL%2,            Lihua%Yao%NULL%1,            Manli%Huang%NULL%1,            Huafen%Wang%NULL%1,            Gaohua%Wang%NULL%1,            Zhongchun%Liu%NULL%2,            Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,            Lu%Dong%NULL%1,            Tao%Wang%NULL%0,            Chenxin%Yuan%NULL%1,            Rao%Fu%NULL%1,            Lei%Zhang%NULL%2,            Bo%Liu%NULL%2,            Mingmin%Zhang%NULL%1,            Yuanyuan%Yin%NULL%1,            Jiawen%Qin%NULL%1,            Jennifer%Bouey%NULL%1,            Min%Zhao%NULL%0,            Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,     Jinfeng%Miao%xref no email%0,     Hui%Wang%xref no email%0,     Shabei%Xu%xref no email%0,     Wenzhe%Sun%xref no email%0,     Yebin%Fan%xref no email%0,     Chenyan%Zhang%xref no email%0,     Suiqiang%Zhu%xref no email%0,     Zhou%Zhu%xref no email%0,     Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,            Yun-zhi%Yang%NULL%1,            Xiao-Ming%Zhang%NULL%1,            Xinying%Xu%NULL%2,            Xinying%Xu%NULL%0,            Qing-Li%Dou%NULL%1,            Wen-Wu%Zhang%NULL%1,            Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,            Hang%Wang%NULL%1,            Yuxing%Lin%NULL%1,            Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,            Jing%Xu%NULL%0,            Bo-Zhi%Li%NULL%1,            Jin-Sha%Huang%NULL%1,            Yuan%Yang%NULL%2,            Zhen-Tao%Zhang%NULL%1,            Dong-Ai%Yao%NULL%1,            Qun-Hui%Liu%NULL%1,            Min%Jia%NULL%1,            Dao-Kai%Gong%NULL%1,            Xiao-Hong%Ni%NULL%1,            Qi-Mei%Zhang%NULL%1,            Fu-Rong%Shang%NULL%1,            Nian%Xiong%NULL%0,            Chun-Li%Zhu%NULL%1,            Tao%Wang%wangtaowh@hust.edu.cn%0,            Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,            Wenning%Fu%NULL%1,            Xiaoran%Liu%NULL%1,            Zhiqian%Luo%NULL%1,            Rixing%Wang%NULL%1,            Ning%Zhou%NULL%0,            Shijiao%Yan%NULL%1,            Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,            L%Xie%NULL%1,            Y%Xu%NULL%1,            S%Yu%NULL%1,            B%Yao%professoryao@aliyun.com%1,            D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,            Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,            Kun%Wang%NULL%1,            Lu%Yin%NULL%1,            Wen-feng%Zhao%NULL%1,            Qing%Xue%NULL%1,            Mao%Peng%NULL%1,            Bao-quan%Min%NULL%1,            Qing%Tian%NULL%1,            Hai-xia%Leng%NULL%1,            Jia-lin%Du%NULL%1,            Hong%Chang%NULL%1,            Yuan%Yang%NULL%0,            Wei%Li%NULL%4,            Fang-fang%Shangguan%NULL%1,            Tian-yi%Yan%NULL%1,            Hui-qing%Dong%NULL%1,            Ying%Han%NULL%1,            Yu-ping%Wang%NULL%1,            Fiammetta%Cosci%NULL%1,            Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,            Lulu%Yang%NULL%1,            Shuai%Liu%NULL%1,            Simeng%Ma%NULL%0,            Ying%Wang%NULL%0,            Zhongxiang%Cai%NULL%0,            Hui%Du%NULL%0,            Ruiting%Li%NULL%0,            Lijun%Kang%NULL%0,            Meilei%Su%NULL%1,            Jihui%Zhang%NULL%1,            Zhongchun%Liu%NULL%0,            Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,            Xiaobin%Zhu%NULL%1,            Shuai%Fu%NULL%1,            Yugang%Hu%NULL%1,            Xiaoning%Li%NULL%0,            Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,            Hao%Zhou%haoye320@163.com%1,            Yan%Zhou%NULL%1,            Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,            Jing-wen%He%NULL%2,            Jing-wen%He%NULL%0,            Na%Zhou%NULL%1,            Oliver%Schildgen.%NULL%3,            Oliver%Schildgen.%NULL%0,            Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,            Lin%Sun%NULL%1,            Lan%Zhang%NULL%1,            Huan%Wang%NULL%1,            Ajiao%Fan%NULL%1,            Bin%Yang%NULL%1,            Wei%Li%NULL%0,            Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,            Ranjan%Bhattacharyya%NULL%1,            Sumita%Bhattacharyya%NULL%1,            Sukanya%Gupta%NULL%1,            Soumitra%Das%NULL%1,            Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,            Kinshuk%Kohli%NULL%1,            P%Padmakumari%NULL%1,            Prashant Kumar%Dixit%NULL%1,            Ajay Shankar%Prasad%NULL%1,            Bharath Seshadri%Chakravarthy%NULL%1,            Rajat%Shukla%NULL%1,            Parthasarathi%Ghana%NULL%1,            Debasish%Mahapatra%NULL%1,            G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,            Jeffrey Pradeep%Raj%NULL%1,            Seema%Rao%NULL%1,            Murtuza%Ghiya%NULL%1,            Nisanth Menon%Nedungalaparambil%NULL%1,            Harshit%Mundra%NULL%1,            Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,            John R%Adler%NULL%0,            Ram%Sandesh%NULL%2,            Ram%Sandesh%NULL%0,            Wajeeha%Shahid%NULL%1,            Kapeel%Dev%NULL%1,            Nikeeta%Mandhan%NULL%1,            Prem%Shankar%NULL%1,            Anam%Shaikh%NULL%1,            Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,            Ayşe%Kurtulmuş%NULL%1,            Selim%Arpacıoğlu%NULL%1,            Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,            Nicholas W.S.%Chew%NULL%1,            Grace K.H.%Lee%NULL%2,            Mingxue%Jing%NULL%2,            Yihui%Goh%NULL%2,            Leonard L.L.%Yeo%NULL%2,            Ka%Zhang%NULL%1,            Howe-Keat%Chin%NULL%1,            Aftab%Ahmad%NULL%2,            Faheem Ahmed%Khan%NULL%1,            Ganesh Napolean%Shanmugam%NULL%1,            Bernard P.L.%Chan%NULL%2,            Sibi%Sunny%NULL%2,            Bharatendu%Chandra%NULL%2,            Jonathan J.Y.%Ong%NULL%2,            Prakash R.%Paliwal%NULL%2,            Lily Y.H.%Wong%NULL%2,            Renarebecca%Sagayanathan%NULL%2,            Jin Tao%Chen%NULL%2,            Alison Ying%Ying Ng%NULL%2,            Hock Luen%Teoh%NULL%2,            Cyrus S.%Ho%NULL%2,            Roger C.%Ho%NULL%2,            Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,           Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,           Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,           Botega%NJ%coreGivesNoEmail%1,           Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,           Freitas%FMB%coreGivesNoEmail%1,           Guilherme%Arcaro%coreGivesNoEmail%1,           Kang%L%coreGivesNoEmail%1,           Lai%J%coreGivesNoEmail%1,           Lana%RM%coreGivesNoEmail%1,           Lara%Simone Messias Floriano%coreGivesNoEmail%1,           Leonelli%LB%coreGivesNoEmail%1,           Le\u00e3o%AM%coreGivesNoEmail%1,           Liu%Y%coreGivesNoEmail%1,           Martins%C%coreGivesNoEmail%1,           Moura%A%coreGivesNoEmail%1,           Oliveira%FP%coreGivesNoEmail%1,           Pappa%S%coreGivesNoEmail%1,           Rodriguez%EOL%coreGivesNoEmail%1,           Ruback%SP%coreGivesNoEmail%1,           Sena%AFJ%coreGivesNoEmail%1,           Silva%DSD%coreGivesNoEmail%2,           Silva%DSD%coreGivesNoEmail%0,           Spoorthy%MS%coreGivesNoEmail%1,           Suellen%Vienscoski Skupien%coreGivesNoEmail%1,           Trettene%AS%coreGivesNoEmail%1,           Vieira%NF%coreGivesNoEmail%1,           Wang%SM%coreGivesNoEmail%1,           Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,            Elisa%Pedroli%NULL%1,            Guido E.%D'Aniello%NULL%1,            Chiara%Stramba Badiale%NULL%1,            Giada%Pietrabissa%NULL%1,            Chiara%Manna%NULL%1,            Marco%Stramba Badiale%NULL%1,            Giuseppe%Riva%NULL%1,            Gianluca%Castelnuovo%NULL%1,            Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,            Piotr%Krajewski%NULL%2,            Piotr%Krajewski%NULL%0,            Rafał%Biłynicki‐Birula%NULL%2,            Rafał%Biłynicki‐Birula%NULL%0,            Paweł%Poznański%NULL%2,            Paweł%Poznański%NULL%0,            Magdalena%Krajewska%NULL%2,            Magdalena%Krajewska%NULL%0,            Joanna%Rymaszewska%NULL%2,            Joanna%Rymaszewska%NULL%0,            Łukasz%Matusiak%NULL%2,            Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,            Jing%Liu%NULL%0,            Asghar%Afshar Jahanshahi%NULL%1,            Khaled%Nawaser%NULL%1,            Ali%Yousefi%NULL%1,            Jizhen%Li%NULL%1,            Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,            Eman Zmaily%Dahmash%NULL%2,            Eman Zmaily%Dahmash%NULL%0,            Rabaa%Al‐Rousan%NULL%2,            Rabaa%Al‐Rousan%NULL%0,            Hassan%Alwafi%NULL%1,            Hamzeh Mohammad%Alrawashdeh%NULL%1,            Imene%Ghoul%NULL%1,            Anwer%Abidine%NULL%1,            Mohammed A.%Bokhary%NULL%1,            Hadeel T.%AL‐Hadithi%NULL%1,            Dalia%Ali%NULL%1,            Rasha%Abuthawabeh%NULL%1,            Ghada Mohammad%Abdelwahab%NULL%1,            Yosra J.%Alhartani%NULL%1,            Haneen%Al Muhaisen%NULL%1,            Ayah%Dagash%NULL%1,            Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,            Aseem%Mehra%NULL%2,            Aseem%Mehra%NULL%0,            Abhash%Niraula%NULL%2,            Abhash%Niraula%NULL%0,            Khagendra%Kafle%NULL%2,            Khagendra%Kafle%NULL%0,            Saroj Prasad%Deo%NULL%2,            Saroj Prasad%Deo%NULL%0,            Babita%Singh%NULL%2,            Babita%Singh%NULL%0,            Swapnajeet%Sahoo%NULL%2,            Swapnajeet%Sahoo%NULL%0,            Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,            Charles W.%Goss%NULL%2,            Charles W.%Goss%NULL%0,            Bradley A.%Evanoff%NULL%1,            Jaime R.%Strickland%NULL%1,            Rebecca P.%McAlister%NULL%1,            Jennifer%Duncan%NULL%1,            Michio%Murakami%NULL%2,            Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,            Grace K.H.%Lee%NULL%0,            Benjamin Y.Q.%Tan%NULL%1,            Mingxue%Jing%NULL%0,            Yihui%Goh%NULL%0,            Nicholas J.H.%Ngiam%NULL%1,            Leonard L.L.%Yeo%NULL%0,            Aftab%Ahmad%NULL%0,            Faheem%Ahmed Khan%NULL%1,            Ganesh%Napolean Shanmugam%NULL%1,            Arvind K.%Sharma%NULL%1,            R.N.%Komalkumar%NULL%1,            P.V.%Meenakshi%NULL%1,            Kenam%Shah%NULL%1,            Bhargesh%Patel%NULL%1,            Bernard P.L.%Chan%NULL%0,            Sibi%Sunny%NULL%0,            Bharatendu%Chandra%NULL%0,            Jonathan J.Y.%Ong%NULL%0,            Prakash R.%Paliwal%NULL%0,            Lily Y.H.%Wong%NULL%0,            Renarebecca%Sagayanathan%NULL%0,            Jin Tao%Chen%NULL%0,            Alison Ying%Ying Ng%NULL%0,            Hock Luen%Teoh%NULL%0,            Georgios%Tsivgoulis%NULL%1,            Cyrus S.%Ho%NULL%0,            Roger C.%Ho%NULL%0,            Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,             Simeng%Ma%NULL%2,             Ying%Wang%NULL%3,             Zhongxiang%Cai%NULL%2,             Jianbo%Hu%NULL%1,             Ning%Wei%NULL%1,             Jiang%Wu%NULL%1,             Hui%Du%NULL%0,             Tingting%Chen%NULL%1,             Ruiting%Li%NULL%3,             Huawei%Tan%NULL%1,             Lijun%Kang%NULL%2,             Lihua%Yao%NULL%1,             Manli%Huang%NULL%1,             Huafen%Wang%NULL%1,             Gaohua%Wang%NULL%1,             Zhongchun%Liu%NULL%2,             Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,             Lu%Dong%NULL%1,             Tao%Wang%NULL%0,             Chenxin%Yuan%NULL%1,             Rao%Fu%NULL%1,             Lei%Zhang%NULL%2,             Bo%Liu%NULL%2,             Mingmin%Zhang%NULL%1,             Yuanyuan%Yin%NULL%1,             Jiawen%Qin%NULL%1,             Jennifer%Bouey%NULL%1,             Min%Zhao%NULL%0,             Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,      Jinfeng%Miao%xref no email%0,      Hui%Wang%xref no email%0,      Shabei%Xu%xref no email%0,      Wenzhe%Sun%xref no email%0,      Yebin%Fan%xref no email%0,      Chenyan%Zhang%xref no email%0,      Suiqiang%Zhu%xref no email%0,      Zhou%Zhu%xref no email%0,      Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,             Yun-zhi%Yang%NULL%1,             Xiao-Ming%Zhang%NULL%1,             Xinying%Xu%NULL%2,             Xinying%Xu%NULL%0,             Qing-Li%Dou%NULL%1,             Wen-Wu%Zhang%NULL%1,             Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,             Hang%Wang%NULL%1,             Yuxing%Lin%NULL%1,             Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,             Jing%Xu%NULL%0,             Bo-Zhi%Li%NULL%1,             Jin-Sha%Huang%NULL%1,             Yuan%Yang%NULL%2,             Zhen-Tao%Zhang%NULL%1,             Dong-Ai%Yao%NULL%1,             Qun-Hui%Liu%NULL%1,             Min%Jia%NULL%1,             Dao-Kai%Gong%NULL%1,             Xiao-Hong%Ni%NULL%1,             Qi-Mei%Zhang%NULL%1,             Fu-Rong%Shang%NULL%1,             Nian%Xiong%NULL%0,             Chun-Li%Zhu%NULL%1,             Tao%Wang%wangtaowh@hust.edu.cn%0,             Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,             Wenning%Fu%NULL%1,             Xiaoran%Liu%NULL%1,             Zhiqian%Luo%NULL%1,             Rixing%Wang%NULL%1,             Ning%Zhou%NULL%0,             Shijiao%Yan%NULL%1,             Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,             L%Xie%NULL%1,             Y%Xu%NULL%1,             S%Yu%NULL%1,             B%Yao%professoryao@aliyun.com%1,             D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,             Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,             Kun%Wang%NULL%1,             Lu%Yin%NULL%1,             Wen-feng%Zhao%NULL%1,             Qing%Xue%NULL%1,             Mao%Peng%NULL%1,             Bao-quan%Min%NULL%1,             Qing%Tian%NULL%1,             Hai-xia%Leng%NULL%1,             Jia-lin%Du%NULL%1,             Hong%Chang%NULL%1,             Yuan%Yang%NULL%0,             Wei%Li%NULL%4,             Fang-fang%Shangguan%NULL%1,             Tian-yi%Yan%NULL%1,             Hui-qing%Dong%NULL%1,             Ying%Han%NULL%1,             Yu-ping%Wang%NULL%1,             Fiammetta%Cosci%NULL%1,             Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,             Lulu%Yang%NULL%1,             Shuai%Liu%NULL%1,             Simeng%Ma%NULL%0,             Ying%Wang%NULL%0,             Zhongxiang%Cai%NULL%0,             Hui%Du%NULL%0,             Ruiting%Li%NULL%0,             Lijun%Kang%NULL%0,             Meilei%Su%NULL%1,             Jihui%Zhang%NULL%1,             Zhongchun%Liu%NULL%0,             Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,             Xiaobin%Zhu%NULL%1,             Shuai%Fu%NULL%1,             Yugang%Hu%NULL%1,             Xiaoning%Li%NULL%0,             Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,             Hao%Zhou%haoye320@163.com%1,             Yan%Zhou%NULL%1,             Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,             Jing-wen%He%NULL%2,             Jing-wen%He%NULL%0,             Na%Zhou%NULL%1,             Oliver%Schildgen.%NULL%3,             Oliver%Schildgen.%NULL%0,             Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,             Lin%Sun%NULL%1,             Lan%Zhang%NULL%1,             Huan%Wang%NULL%1,             Ajiao%Fan%NULL%1,             Bin%Yang%NULL%1,             Wei%Li%NULL%0,             Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,             Ranjan%Bhattacharyya%NULL%1,             Sumita%Bhattacharyya%NULL%1,             Sukanya%Gupta%NULL%1,             Soumitra%Das%NULL%1,             Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,             Kinshuk%Kohli%NULL%1,             P%Padmakumari%NULL%1,             Prashant Kumar%Dixit%NULL%1,             Ajay Shankar%Prasad%NULL%1,             Bharath Seshadri%Chakravarthy%NULL%1,             Rajat%Shukla%NULL%1,             Parthasarathi%Ghana%NULL%1,             Debasish%Mahapatra%NULL%1,             G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,             Jeffrey Pradeep%Raj%NULL%1,             Seema%Rao%NULL%1,             Murtuza%Ghiya%NULL%1,             Nisanth Menon%Nedungalaparambil%NULL%1,             Harshit%Mundra%NULL%1,             Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,             John R%Adler%NULL%0,             Ram%Sandesh%NULL%2,             Ram%Sandesh%NULL%0,             Wajeeha%Shahid%NULL%1,             Kapeel%Dev%NULL%1,             Nikeeta%Mandhan%NULL%1,             Prem%Shankar%NULL%1,             Anam%Shaikh%NULL%1,             Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,             Ayşe%Kurtulmuş%NULL%1,             Selim%Arpacıoğlu%NULL%1,             Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,             Nicholas W.S.%Chew%NULL%1,             Grace K.H.%Lee%NULL%2,             Mingxue%Jing%NULL%2,             Yihui%Goh%NULL%2,             Leonard L.L.%Yeo%NULL%2,             Ka%Zhang%NULL%1,             Howe-Keat%Chin%NULL%1,             Aftab%Ahmad%NULL%2,             Faheem Ahmed%Khan%NULL%1,             Ganesh Napolean%Shanmugam%NULL%1,             Bernard P.L.%Chan%NULL%2,             Sibi%Sunny%NULL%2,             Bharatendu%Chandra%NULL%2,             Jonathan J.Y.%Ong%NULL%2,             Prakash R.%Paliwal%NULL%2,             Lily Y.H.%Wong%NULL%2,             Renarebecca%Sagayanathan%NULL%2,             Jin Tao%Chen%NULL%2,             Alison Ying%Ying Ng%NULL%2,             Hock Luen%Teoh%NULL%2,             Cyrus S.%Ho%NULL%2,             Roger C.%Ho%NULL%2,             Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,            Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,            Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,            Botega%NJ%coreGivesNoEmail%1,            Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,            Freitas%FMB%coreGivesNoEmail%1,            Guilherme%Arcaro%coreGivesNoEmail%1,            Kang%L%coreGivesNoEmail%1,            Lai%J%coreGivesNoEmail%1,            Lana%RM%coreGivesNoEmail%1,            Lara%Simone Messias Floriano%coreGivesNoEmail%1,            Leonelli%LB%coreGivesNoEmail%1,            Le\u00e3o%AM%coreGivesNoEmail%1,            Liu%Y%coreGivesNoEmail%1,            Martins%C%coreGivesNoEmail%1,            Moura%A%coreGivesNoEmail%1,            Oliveira%FP%coreGivesNoEmail%1,            Pappa%S%coreGivesNoEmail%1,            Rodriguez%EOL%coreGivesNoEmail%1,            Ruback%SP%coreGivesNoEmail%1,            Sena%AFJ%coreGivesNoEmail%1,            Silva%DSD%coreGivesNoEmail%2,            Silva%DSD%coreGivesNoEmail%0,            Spoorthy%MS%coreGivesNoEmail%1,            Suellen%Vienscoski Skupien%coreGivesNoEmail%1,            Trettene%AS%coreGivesNoEmail%1,            Vieira%NF%coreGivesNoEmail%1,            Wang%SM%coreGivesNoEmail%1,            Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,             Elisa%Pedroli%NULL%1,             Guido E.%D'Aniello%NULL%1,             Chiara%Stramba Badiale%NULL%1,             Giada%Pietrabissa%NULL%1,             Chiara%Manna%NULL%1,             Marco%Stramba Badiale%NULL%1,             Giuseppe%Riva%NULL%1,             Gianluca%Castelnuovo%NULL%1,             Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,             Piotr%Krajewski%NULL%2,             Piotr%Krajewski%NULL%0,             Rafał%Biłynicki‐Birula%NULL%2,             Rafał%Biłynicki‐Birula%NULL%0,             Paweł%Poznański%NULL%2,             Paweł%Poznański%NULL%0,             Magdalena%Krajewska%NULL%2,             Magdalena%Krajewska%NULL%0,             Joanna%Rymaszewska%NULL%2,             Joanna%Rymaszewska%NULL%0,             Łukasz%Matusiak%NULL%2,             Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,             Jing%Liu%NULL%0,             Asghar%Afshar Jahanshahi%NULL%1,             Khaled%Nawaser%NULL%1,             Ali%Yousefi%NULL%1,             Jizhen%Li%NULL%1,             Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,             Eman Zmaily%Dahmash%NULL%2,             Eman Zmaily%Dahmash%NULL%0,             Rabaa%Al‐Rousan%NULL%2,             Rabaa%Al‐Rousan%NULL%0,             Hassan%Alwafi%NULL%1,             Hamzeh Mohammad%Alrawashdeh%NULL%1,             Imene%Ghoul%NULL%1,             Anwer%Abidine%NULL%1,             Mohammed A.%Bokhary%NULL%1,             Hadeel T.%AL‐Hadithi%NULL%1,             Dalia%Ali%NULL%1,             Rasha%Abuthawabeh%NULL%1,             Ghada Mohammad%Abdelwahab%NULL%1,             Yosra J.%Alhartani%NULL%1,             Haneen%Al Muhaisen%NULL%1,             Ayah%Dagash%NULL%1,             Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,             Aseem%Mehra%NULL%2,             Aseem%Mehra%NULL%0,             Abhash%Niraula%NULL%2,             Abhash%Niraula%NULL%0,             Khagendra%Kafle%NULL%2,             Khagendra%Kafle%NULL%0,             Saroj Prasad%Deo%NULL%2,             Saroj Prasad%Deo%NULL%0,             Babita%Singh%NULL%2,             Babita%Singh%NULL%0,             Swapnajeet%Sahoo%NULL%2,             Swapnajeet%Sahoo%NULL%0,             Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,             Charles W.%Goss%NULL%2,             Charles W.%Goss%NULL%0,             Bradley A.%Evanoff%NULL%1,             Jaime R.%Strickland%NULL%1,             Rebecca P.%McAlister%NULL%1,             Jennifer%Duncan%NULL%1,             Michio%Murakami%NULL%2,             Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,             Grace K.H.%Lee%NULL%0,             Benjamin Y.Q.%Tan%NULL%1,             Mingxue%Jing%NULL%0,             Yihui%Goh%NULL%0,             Nicholas J.H.%Ngiam%NULL%1,             Leonard L.L.%Yeo%NULL%0,             Aftab%Ahmad%NULL%0,             Faheem%Ahmed Khan%NULL%1,             Ganesh%Napolean Shanmugam%NULL%1,             Arvind K.%Sharma%NULL%1,             R.N.%Komalkumar%NULL%1,             P.V.%Meenakshi%NULL%1,             Kenam%Shah%NULL%1,             Bhargesh%Patel%NULL%1,             Bernard P.L.%Chan%NULL%0,             Sibi%Sunny%NULL%0,             Bharatendu%Chandra%NULL%0,             Jonathan J.Y.%Ong%NULL%0,             Prakash R.%Paliwal%NULL%0,             Lily Y.H.%Wong%NULL%0,             Renarebecca%Sagayanathan%NULL%0,             Jin Tao%Chen%NULL%0,             Alison Ying%Ying Ng%NULL%0,             Hock Luen%Teoh%NULL%0,             Georgios%Tsivgoulis%NULL%1,             Cyrus S.%Ho%NULL%0,             Roger C.%Ho%NULL%0,             Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2132,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1987,7 +2161,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2016,7 +2190,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2045,7 +2219,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2074,7 +2248,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2103,7 +2277,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2161,7 +2335,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2190,7 +2364,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2219,7 +2393,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2277,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2306,7 +2480,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2335,7 +2509,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2364,7 +2538,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2393,7 +2567,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2422,7 +2596,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2451,7 +2625,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2480,7 +2654,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2509,7 +2683,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2538,7 +2712,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2596,7 +2770,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -2625,7 +2799,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -2654,7 +2828,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2683,7 +2857,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -2712,7 +2886,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -2741,7 +2915,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2770,7 +2944,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -2799,7 +2973,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -2828,7 +3002,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -2857,7 +3031,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="552">
   <si>
     <t>Doi</t>
   </si>
@@ -1794,6 +1794,93 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,             Grace K.H.%Lee%NULL%0,             Benjamin Y.Q.%Tan%NULL%1,             Mingxue%Jing%NULL%0,             Yihui%Goh%NULL%0,             Nicholas J.H.%Ngiam%NULL%1,             Leonard L.L.%Yeo%NULL%0,             Aftab%Ahmad%NULL%0,             Faheem%Ahmed Khan%NULL%1,             Ganesh%Napolean Shanmugam%NULL%1,             Arvind K.%Sharma%NULL%1,             R.N.%Komalkumar%NULL%1,             P.V.%Meenakshi%NULL%1,             Kenam%Shah%NULL%1,             Bhargesh%Patel%NULL%1,             Bernard P.L.%Chan%NULL%0,             Sibi%Sunny%NULL%0,             Bharatendu%Chandra%NULL%0,             Jonathan J.Y.%Ong%NULL%0,             Prakash R.%Paliwal%NULL%0,             Lily Y.H.%Wong%NULL%0,             Renarebecca%Sagayanathan%NULL%0,             Jin Tao%Chen%NULL%0,             Alison Ying%Ying Ng%NULL%0,             Hock Luen%Teoh%NULL%0,             Georgios%Tsivgoulis%NULL%1,             Cyrus S.%Ho%NULL%0,             Roger C.%Ho%NULL%0,             Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,              Simeng%Ma%NULL%2,              Ying%Wang%NULL%3,              Zhongxiang%Cai%NULL%2,              Jianbo%Hu%NULL%1,              Ning%Wei%NULL%1,              Jiang%Wu%NULL%1,              Hui%Du%NULL%0,              Tingting%Chen%NULL%1,              Ruiting%Li%NULL%3,              Huawei%Tan%NULL%1,              Lijun%Kang%NULL%2,              Lihua%Yao%NULL%1,              Manli%Huang%NULL%1,              Huafen%Wang%NULL%1,              Gaohua%Wang%NULL%1,              Zhongchun%Liu%NULL%2,              Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,              Lu%Dong%NULL%1,              Tao%Wang%NULL%0,              Chenxin%Yuan%NULL%1,              Rao%Fu%NULL%1,              Lei%Zhang%NULL%2,              Bo%Liu%NULL%2,              Mingmin%Zhang%NULL%1,              Yuanyuan%Yin%NULL%1,              Jiawen%Qin%NULL%1,              Jennifer%Bouey%NULL%1,              Min%Zhao%NULL%0,              Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,       Jinfeng%Miao%xref no email%0,       Hui%Wang%xref no email%0,       Shabei%Xu%xref no email%0,       Wenzhe%Sun%xref no email%0,       Yebin%Fan%xref no email%0,       Chenyan%Zhang%xref no email%0,       Suiqiang%Zhu%xref no email%0,       Zhou%Zhu%xref no email%0,       Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,              Yun-zhi%Yang%NULL%1,              Xiao-Ming%Zhang%NULL%1,              Xinying%Xu%NULL%2,              Xinying%Xu%NULL%0,              Qing-Li%Dou%NULL%1,              Wen-Wu%Zhang%NULL%1,              Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,              Hang%Wang%NULL%1,              Yuxing%Lin%NULL%1,              Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,              Jing%Xu%NULL%0,              Bo-Zhi%Li%NULL%1,              Jin-Sha%Huang%NULL%1,              Yuan%Yang%NULL%2,              Zhen-Tao%Zhang%NULL%1,              Dong-Ai%Yao%NULL%1,              Qun-Hui%Liu%NULL%1,              Min%Jia%NULL%1,              Dao-Kai%Gong%NULL%1,              Xiao-Hong%Ni%NULL%1,              Qi-Mei%Zhang%NULL%1,              Fu-Rong%Shang%NULL%1,              Nian%Xiong%NULL%0,              Chun-Li%Zhu%NULL%1,              Tao%Wang%wangtaowh@hust.edu.cn%0,              Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,              Wenning%Fu%NULL%1,              Xiaoran%Liu%NULL%1,              Zhiqian%Luo%NULL%1,              Rixing%Wang%NULL%1,              Ning%Zhou%NULL%0,              Shijiao%Yan%NULL%1,              Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,              L%Xie%NULL%1,              Y%Xu%NULL%1,              S%Yu%NULL%1,              B%Yao%professoryao@aliyun.com%1,              D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,              Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,              Kun%Wang%NULL%1,              Lu%Yin%NULL%1,              Wen-feng%Zhao%NULL%1,              Qing%Xue%NULL%1,              Mao%Peng%NULL%1,              Bao-quan%Min%NULL%1,              Qing%Tian%NULL%1,              Hai-xia%Leng%NULL%1,              Jia-lin%Du%NULL%1,              Hong%Chang%NULL%1,              Yuan%Yang%NULL%0,              Wei%Li%NULL%4,              Fang-fang%Shangguan%NULL%1,              Tian-yi%Yan%NULL%1,              Hui-qing%Dong%NULL%1,              Ying%Han%NULL%1,              Yu-ping%Wang%NULL%1,              Fiammetta%Cosci%NULL%1,              Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,              Lulu%Yang%NULL%1,              Shuai%Liu%NULL%1,              Simeng%Ma%NULL%0,              Ying%Wang%NULL%0,              Zhongxiang%Cai%NULL%0,              Hui%Du%NULL%0,              Ruiting%Li%NULL%0,              Lijun%Kang%NULL%0,              Meilei%Su%NULL%1,              Jihui%Zhang%NULL%1,              Zhongchun%Liu%NULL%0,              Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,              Xiaobin%Zhu%NULL%1,              Shuai%Fu%NULL%1,              Yugang%Hu%NULL%1,              Xiaoning%Li%NULL%0,              Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,              Hao%Zhou%haoye320@163.com%1,              Yan%Zhou%NULL%1,              Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,              Jing-wen%He%NULL%2,              Jing-wen%He%NULL%0,              Na%Zhou%NULL%1,              Oliver%Schildgen.%NULL%3,              Oliver%Schildgen.%NULL%0,              Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,              Lin%Sun%NULL%1,              Lan%Zhang%NULL%1,              Huan%Wang%NULL%1,              Ajiao%Fan%NULL%1,              Bin%Yang%NULL%1,              Wei%Li%NULL%0,              Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,              Ranjan%Bhattacharyya%NULL%1,              Sumita%Bhattacharyya%NULL%1,              Sukanya%Gupta%NULL%1,              Soumitra%Das%NULL%1,              Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,              Kinshuk%Kohli%NULL%1,              P%Padmakumari%NULL%1,              Prashant Kumar%Dixit%NULL%1,              Ajay Shankar%Prasad%NULL%1,              Bharath Seshadri%Chakravarthy%NULL%1,              Rajat%Shukla%NULL%1,              Parthasarathi%Ghana%NULL%1,              Debasish%Mahapatra%NULL%1,              G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,              Jeffrey Pradeep%Raj%NULL%1,              Seema%Rao%NULL%1,              Murtuza%Ghiya%NULL%1,              Nisanth Menon%Nedungalaparambil%NULL%1,              Harshit%Mundra%NULL%1,              Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,              John R%Adler%NULL%0,              Ram%Sandesh%NULL%2,              Ram%Sandesh%NULL%0,              Wajeeha%Shahid%NULL%1,              Kapeel%Dev%NULL%1,              Nikeeta%Mandhan%NULL%1,              Prem%Shankar%NULL%1,              Anam%Shaikh%NULL%1,              Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,              Ayşe%Kurtulmuş%NULL%1,              Selim%Arpacıoğlu%NULL%1,              Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,              Nicholas W.S.%Chew%NULL%1,              Grace K.H.%Lee%NULL%2,              Mingxue%Jing%NULL%2,              Yihui%Goh%NULL%2,              Leonard L.L.%Yeo%NULL%2,              Ka%Zhang%NULL%1,              Howe-Keat%Chin%NULL%1,              Aftab%Ahmad%NULL%2,              Faheem Ahmed%Khan%NULL%1,              Ganesh Napolean%Shanmugam%NULL%1,              Bernard P.L.%Chan%NULL%2,              Sibi%Sunny%NULL%2,              Bharatendu%Chandra%NULL%2,              Jonathan J.Y.%Ong%NULL%2,              Prakash R.%Paliwal%NULL%2,              Lily Y.H.%Wong%NULL%2,              Renarebecca%Sagayanathan%NULL%2,              Jin Tao%Chen%NULL%2,              Alison Ying%Ying Ng%NULL%2,              Hock Luen%Teoh%NULL%2,              Cyrus S.%Ho%NULL%2,              Roger C.%Ho%NULL%2,              Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,             Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,             Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,             Botega%NJ%coreGivesNoEmail%1,             Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,             Freitas%FMB%coreGivesNoEmail%1,             Guilherme%Arcaro%coreGivesNoEmail%1,             Kang%L%coreGivesNoEmail%1,             Lai%J%coreGivesNoEmail%1,             Lana%RM%coreGivesNoEmail%1,             Lara%Simone Messias Floriano%coreGivesNoEmail%1,             Leonelli%LB%coreGivesNoEmail%1,             Le\u00e3o%AM%coreGivesNoEmail%1,             Liu%Y%coreGivesNoEmail%1,             Martins%C%coreGivesNoEmail%1,             Moura%A%coreGivesNoEmail%1,             Oliveira%FP%coreGivesNoEmail%1,             Pappa%S%coreGivesNoEmail%1,             Rodriguez%EOL%coreGivesNoEmail%1,             Ruback%SP%coreGivesNoEmail%1,             Sena%AFJ%coreGivesNoEmail%1,             Silva%DSD%coreGivesNoEmail%2,             Silva%DSD%coreGivesNoEmail%0,             Spoorthy%MS%coreGivesNoEmail%1,             Suellen%Vienscoski Skupien%coreGivesNoEmail%1,             Trettene%AS%coreGivesNoEmail%1,             Vieira%NF%coreGivesNoEmail%1,             Wang%SM%coreGivesNoEmail%1,             Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,              Elisa%Pedroli%NULL%1,              Guido E.%D'Aniello%NULL%1,              Chiara%Stramba Badiale%NULL%1,              Giada%Pietrabissa%NULL%1,              Chiara%Manna%NULL%1,              Marco%Stramba Badiale%NULL%1,              Giuseppe%Riva%NULL%1,              Gianluca%Castelnuovo%NULL%1,              Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,              Piotr%Krajewski%NULL%2,              Piotr%Krajewski%NULL%0,              Rafał%Biłynicki‐Birula%NULL%2,              Rafał%Biłynicki‐Birula%NULL%0,              Paweł%Poznański%NULL%2,              Paweł%Poznański%NULL%0,              Magdalena%Krajewska%NULL%2,              Magdalena%Krajewska%NULL%0,              Joanna%Rymaszewska%NULL%2,              Joanna%Rymaszewska%NULL%0,              Łukasz%Matusiak%NULL%2,              Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,              Jing%Liu%NULL%0,              Asghar%Afshar Jahanshahi%NULL%1,              Khaled%Nawaser%NULL%1,              Ali%Yousefi%NULL%1,              Jizhen%Li%NULL%1,              Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,              Eman Zmaily%Dahmash%NULL%2,              Eman Zmaily%Dahmash%NULL%0,              Rabaa%Al‐Rousan%NULL%2,              Rabaa%Al‐Rousan%NULL%0,              Hassan%Alwafi%NULL%1,              Hamzeh Mohammad%Alrawashdeh%NULL%1,              Imene%Ghoul%NULL%1,              Anwer%Abidine%NULL%1,              Mohammed A.%Bokhary%NULL%1,              Hadeel T.%AL‐Hadithi%NULL%1,              Dalia%Ali%NULL%1,              Rasha%Abuthawabeh%NULL%1,              Ghada Mohammad%Abdelwahab%NULL%1,              Yosra J.%Alhartani%NULL%1,              Haneen%Al Muhaisen%NULL%1,              Ayah%Dagash%NULL%1,              Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,              Aseem%Mehra%NULL%2,              Aseem%Mehra%NULL%0,              Abhash%Niraula%NULL%2,              Abhash%Niraula%NULL%0,              Khagendra%Kafle%NULL%2,              Khagendra%Kafle%NULL%0,              Saroj Prasad%Deo%NULL%2,              Saroj Prasad%Deo%NULL%0,              Babita%Singh%NULL%2,              Babita%Singh%NULL%0,              Swapnajeet%Sahoo%NULL%2,              Swapnajeet%Sahoo%NULL%0,              Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,              Charles W.%Goss%NULL%2,              Charles W.%Goss%NULL%0,              Bradley A.%Evanoff%NULL%1,              Jaime R.%Strickland%NULL%1,              Rebecca P.%McAlister%NULL%1,              Jennifer%Duncan%NULL%1,              Michio%Murakami%NULL%2,              Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,              Grace K.H.%Lee%NULL%0,              Benjamin Y.Q.%Tan%NULL%1,              Mingxue%Jing%NULL%0,              Yihui%Goh%NULL%0,              Nicholas J.H.%Ngiam%NULL%1,              Leonard L.L.%Yeo%NULL%0,              Aftab%Ahmad%NULL%0,              Faheem%Ahmed Khan%NULL%1,              Ganesh%Napolean Shanmugam%NULL%1,              Arvind K.%Sharma%NULL%1,              R.N.%Komalkumar%NULL%1,              P.V.%Meenakshi%NULL%1,              Kenam%Shah%NULL%1,              Bhargesh%Patel%NULL%1,              Bernard P.L.%Chan%NULL%0,              Sibi%Sunny%NULL%0,              Bharatendu%Chandra%NULL%0,              Jonathan J.Y.%Ong%NULL%0,              Prakash R.%Paliwal%NULL%0,              Lily Y.H.%Wong%NULL%0,              Renarebecca%Sagayanathan%NULL%0,              Jin Tao%Chen%NULL%0,              Alison Ying%Ying Ng%NULL%0,              Hock Luen%Teoh%NULL%0,              Georgios%Tsivgoulis%NULL%1,              Cyrus S.%Ho%NULL%0,              Roger C.%Ho%NULL%0,              Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2219,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2161,7 +2248,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2190,7 +2277,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2219,7 +2306,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2248,7 +2335,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2277,7 +2364,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2335,7 +2422,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2364,7 +2451,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2393,7 +2480,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2451,7 +2538,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2480,7 +2567,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2509,7 +2596,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2538,7 +2625,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2567,7 +2654,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2596,7 +2683,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2625,7 +2712,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2654,7 +2741,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2683,7 +2770,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2712,7 +2799,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2770,7 +2857,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -2799,7 +2886,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -2828,7 +2915,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2857,7 +2944,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -2886,7 +2973,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -2915,7 +3002,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2944,7 +3031,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -2973,7 +3060,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3002,7 +3089,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3031,7 +3118,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="581">
   <si>
     <t>Doi</t>
   </si>
@@ -1881,6 +1881,93 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,              Grace K.H.%Lee%NULL%0,              Benjamin Y.Q.%Tan%NULL%1,              Mingxue%Jing%NULL%0,              Yihui%Goh%NULL%0,              Nicholas J.H.%Ngiam%NULL%1,              Leonard L.L.%Yeo%NULL%0,              Aftab%Ahmad%NULL%0,              Faheem%Ahmed Khan%NULL%1,              Ganesh%Napolean Shanmugam%NULL%1,              Arvind K.%Sharma%NULL%1,              R.N.%Komalkumar%NULL%1,              P.V.%Meenakshi%NULL%1,              Kenam%Shah%NULL%1,              Bhargesh%Patel%NULL%1,              Bernard P.L.%Chan%NULL%0,              Sibi%Sunny%NULL%0,              Bharatendu%Chandra%NULL%0,              Jonathan J.Y.%Ong%NULL%0,              Prakash R.%Paliwal%NULL%0,              Lily Y.H.%Wong%NULL%0,              Renarebecca%Sagayanathan%NULL%0,              Jin Tao%Chen%NULL%0,              Alison Ying%Ying Ng%NULL%0,              Hock Luen%Teoh%NULL%0,              Georgios%Tsivgoulis%NULL%1,              Cyrus S.%Ho%NULL%0,              Roger C.%Ho%NULL%0,              Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,               Simeng%Ma%NULL%2,               Ying%Wang%NULL%3,               Zhongxiang%Cai%NULL%2,               Jianbo%Hu%NULL%1,               Ning%Wei%NULL%1,               Jiang%Wu%NULL%1,               Hui%Du%NULL%0,               Tingting%Chen%NULL%1,               Ruiting%Li%NULL%3,               Huawei%Tan%NULL%1,               Lijun%Kang%NULL%2,               Lihua%Yao%NULL%1,               Manli%Huang%NULL%1,               Huafen%Wang%NULL%1,               Gaohua%Wang%NULL%1,               Zhongchun%Liu%NULL%2,               Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,               Lu%Dong%NULL%1,               Tao%Wang%NULL%0,               Chenxin%Yuan%NULL%1,               Rao%Fu%NULL%1,               Lei%Zhang%NULL%2,               Bo%Liu%NULL%2,               Mingmin%Zhang%NULL%1,               Yuanyuan%Yin%NULL%1,               Jiawen%Qin%NULL%1,               Jennifer%Bouey%NULL%1,               Min%Zhao%NULL%0,               Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,        Jinfeng%Miao%xref no email%0,        Hui%Wang%xref no email%0,        Shabei%Xu%xref no email%0,        Wenzhe%Sun%xref no email%0,        Yebin%Fan%xref no email%0,        Chenyan%Zhang%xref no email%0,        Suiqiang%Zhu%xref no email%0,        Zhou%Zhu%xref no email%0,        Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,               Yun-zhi%Yang%NULL%1,               Xiao-Ming%Zhang%NULL%1,               Xinying%Xu%NULL%2,               Xinying%Xu%NULL%0,               Qing-Li%Dou%NULL%1,               Wen-Wu%Zhang%NULL%1,               Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,               Hang%Wang%NULL%1,               Yuxing%Lin%NULL%1,               Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,               Jing%Xu%NULL%0,               Bo-Zhi%Li%NULL%1,               Jin-Sha%Huang%NULL%1,               Yuan%Yang%NULL%2,               Zhen-Tao%Zhang%NULL%1,               Dong-Ai%Yao%NULL%1,               Qun-Hui%Liu%NULL%1,               Min%Jia%NULL%1,               Dao-Kai%Gong%NULL%1,               Xiao-Hong%Ni%NULL%1,               Qi-Mei%Zhang%NULL%1,               Fu-Rong%Shang%NULL%1,               Nian%Xiong%NULL%0,               Chun-Li%Zhu%NULL%1,               Tao%Wang%wangtaowh@hust.edu.cn%0,               Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,               Wenning%Fu%NULL%1,               Xiaoran%Liu%NULL%1,               Zhiqian%Luo%NULL%1,               Rixing%Wang%NULL%1,               Ning%Zhou%NULL%0,               Shijiao%Yan%NULL%1,               Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,               L%Xie%NULL%1,               Y%Xu%NULL%1,               S%Yu%NULL%1,               B%Yao%professoryao@aliyun.com%1,               D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,               Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,               Kun%Wang%NULL%1,               Lu%Yin%NULL%1,               Wen-feng%Zhao%NULL%1,               Qing%Xue%NULL%1,               Mao%Peng%NULL%1,               Bao-quan%Min%NULL%1,               Qing%Tian%NULL%1,               Hai-xia%Leng%NULL%1,               Jia-lin%Du%NULL%1,               Hong%Chang%NULL%1,               Yuan%Yang%NULL%0,               Wei%Li%NULL%4,               Fang-fang%Shangguan%NULL%1,               Tian-yi%Yan%NULL%1,               Hui-qing%Dong%NULL%1,               Ying%Han%NULL%1,               Yu-ping%Wang%NULL%1,               Fiammetta%Cosci%NULL%1,               Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,               Lulu%Yang%NULL%1,               Shuai%Liu%NULL%1,               Simeng%Ma%NULL%0,               Ying%Wang%NULL%0,               Zhongxiang%Cai%NULL%0,               Hui%Du%NULL%0,               Ruiting%Li%NULL%0,               Lijun%Kang%NULL%0,               Meilei%Su%NULL%1,               Jihui%Zhang%NULL%1,               Zhongchun%Liu%NULL%0,               Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,               Xiaobin%Zhu%NULL%1,               Shuai%Fu%NULL%1,               Yugang%Hu%NULL%1,               Xiaoning%Li%NULL%0,               Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,               Hao%Zhou%haoye320@163.com%1,               Yan%Zhou%NULL%1,               Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,               Jing-wen%He%NULL%2,               Jing-wen%He%NULL%0,               Na%Zhou%NULL%1,               Oliver%Schildgen.%NULL%3,               Oliver%Schildgen.%NULL%0,               Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,               Lin%Sun%NULL%1,               Lan%Zhang%NULL%1,               Huan%Wang%NULL%1,               Ajiao%Fan%NULL%1,               Bin%Yang%NULL%1,               Wei%Li%NULL%0,               Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,               Ranjan%Bhattacharyya%NULL%1,               Sumita%Bhattacharyya%NULL%1,               Sukanya%Gupta%NULL%1,               Soumitra%Das%NULL%1,               Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,               Kinshuk%Kohli%NULL%1,               P%Padmakumari%NULL%1,               Prashant Kumar%Dixit%NULL%1,               Ajay Shankar%Prasad%NULL%1,               Bharath Seshadri%Chakravarthy%NULL%1,               Rajat%Shukla%NULL%1,               Parthasarathi%Ghana%NULL%1,               Debasish%Mahapatra%NULL%1,               G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,               Jeffrey Pradeep%Raj%NULL%1,               Seema%Rao%NULL%1,               Murtuza%Ghiya%NULL%1,               Nisanth Menon%Nedungalaparambil%NULL%1,               Harshit%Mundra%NULL%1,               Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,               John R%Adler%NULL%0,               Ram%Sandesh%NULL%2,               Ram%Sandesh%NULL%0,               Wajeeha%Shahid%NULL%1,               Kapeel%Dev%NULL%1,               Nikeeta%Mandhan%NULL%1,               Prem%Shankar%NULL%1,               Anam%Shaikh%NULL%1,               Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,               Ayşe%Kurtulmuş%NULL%1,               Selim%Arpacıoğlu%NULL%1,               Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,               Nicholas W.S.%Chew%NULL%1,               Grace K.H.%Lee%NULL%2,               Mingxue%Jing%NULL%2,               Yihui%Goh%NULL%2,               Leonard L.L.%Yeo%NULL%2,               Ka%Zhang%NULL%1,               Howe-Keat%Chin%NULL%1,               Aftab%Ahmad%NULL%2,               Faheem Ahmed%Khan%NULL%1,               Ganesh Napolean%Shanmugam%NULL%1,               Bernard P.L.%Chan%NULL%2,               Sibi%Sunny%NULL%2,               Bharatendu%Chandra%NULL%2,               Jonathan J.Y.%Ong%NULL%2,               Prakash R.%Paliwal%NULL%2,               Lily Y.H.%Wong%NULL%2,               Renarebecca%Sagayanathan%NULL%2,               Jin Tao%Chen%NULL%2,               Alison Ying%Ying Ng%NULL%2,               Hock Luen%Teoh%NULL%2,               Cyrus S.%Ho%NULL%2,               Roger C.%Ho%NULL%2,               Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,              Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,              Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,              Botega%NJ%coreGivesNoEmail%1,              Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,              Freitas%FMB%coreGivesNoEmail%1,              Guilherme%Arcaro%coreGivesNoEmail%1,              Kang%L%coreGivesNoEmail%1,              Lai%J%coreGivesNoEmail%1,              Lana%RM%coreGivesNoEmail%1,              Lara%Simone Messias Floriano%coreGivesNoEmail%1,              Leonelli%LB%coreGivesNoEmail%1,              Le\u00e3o%AM%coreGivesNoEmail%1,              Liu%Y%coreGivesNoEmail%1,              Martins%C%coreGivesNoEmail%1,              Moura%A%coreGivesNoEmail%1,              Oliveira%FP%coreGivesNoEmail%1,              Pappa%S%coreGivesNoEmail%1,              Rodriguez%EOL%coreGivesNoEmail%1,              Ruback%SP%coreGivesNoEmail%1,              Sena%AFJ%coreGivesNoEmail%1,              Silva%DSD%coreGivesNoEmail%2,              Silva%DSD%coreGivesNoEmail%0,              Spoorthy%MS%coreGivesNoEmail%1,              Suellen%Vienscoski Skupien%coreGivesNoEmail%1,              Trettene%AS%coreGivesNoEmail%1,              Vieira%NF%coreGivesNoEmail%1,              Wang%SM%coreGivesNoEmail%1,              Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,               Elisa%Pedroli%NULL%1,               Guido E.%D'Aniello%NULL%1,               Chiara%Stramba Badiale%NULL%1,               Giada%Pietrabissa%NULL%1,               Chiara%Manna%NULL%1,               Marco%Stramba Badiale%NULL%1,               Giuseppe%Riva%NULL%1,               Gianluca%Castelnuovo%NULL%1,               Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,               Piotr%Krajewski%NULL%2,               Piotr%Krajewski%NULL%0,               Rafał%Biłynicki‐Birula%NULL%2,               Rafał%Biłynicki‐Birula%NULL%0,               Paweł%Poznański%NULL%2,               Paweł%Poznański%NULL%0,               Magdalena%Krajewska%NULL%2,               Magdalena%Krajewska%NULL%0,               Joanna%Rymaszewska%NULL%2,               Joanna%Rymaszewska%NULL%0,               Łukasz%Matusiak%NULL%2,               Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,               Jing%Liu%NULL%0,               Asghar%Afshar Jahanshahi%NULL%1,               Khaled%Nawaser%NULL%1,               Ali%Yousefi%NULL%1,               Jizhen%Li%NULL%1,               Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,               Eman Zmaily%Dahmash%NULL%2,               Eman Zmaily%Dahmash%NULL%0,               Rabaa%Al‐Rousan%NULL%2,               Rabaa%Al‐Rousan%NULL%0,               Hassan%Alwafi%NULL%1,               Hamzeh Mohammad%Alrawashdeh%NULL%1,               Imene%Ghoul%NULL%1,               Anwer%Abidine%NULL%1,               Mohammed A.%Bokhary%NULL%1,               Hadeel T.%AL‐Hadithi%NULL%1,               Dalia%Ali%NULL%1,               Rasha%Abuthawabeh%NULL%1,               Ghada Mohammad%Abdelwahab%NULL%1,               Yosra J.%Alhartani%NULL%1,               Haneen%Al Muhaisen%NULL%1,               Ayah%Dagash%NULL%1,               Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,               Aseem%Mehra%NULL%2,               Aseem%Mehra%NULL%0,               Abhash%Niraula%NULL%2,               Abhash%Niraula%NULL%0,               Khagendra%Kafle%NULL%2,               Khagendra%Kafle%NULL%0,               Saroj Prasad%Deo%NULL%2,               Saroj Prasad%Deo%NULL%0,               Babita%Singh%NULL%2,               Babita%Singh%NULL%0,               Swapnajeet%Sahoo%NULL%2,               Swapnajeet%Sahoo%NULL%0,               Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,               Charles W.%Goss%NULL%2,               Charles W.%Goss%NULL%0,               Bradley A.%Evanoff%NULL%1,               Jaime R.%Strickland%NULL%1,               Rebecca P.%McAlister%NULL%1,               Jennifer%Duncan%NULL%1,               Michio%Murakami%NULL%2,               Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,               Grace K.H.%Lee%NULL%0,               Benjamin Y.Q.%Tan%NULL%1,               Mingxue%Jing%NULL%0,               Yihui%Goh%NULL%0,               Nicholas J.H.%Ngiam%NULL%1,               Leonard L.L.%Yeo%NULL%0,               Aftab%Ahmad%NULL%0,               Faheem%Ahmed Khan%NULL%1,               Ganesh%Napolean Shanmugam%NULL%1,               Arvind K.%Sharma%NULL%1,               R.N.%Komalkumar%NULL%1,               P.V.%Meenakshi%NULL%1,               Kenam%Shah%NULL%1,               Bhargesh%Patel%NULL%1,               Bernard P.L.%Chan%NULL%0,               Sibi%Sunny%NULL%0,               Bharatendu%Chandra%NULL%0,               Jonathan J.Y.%Ong%NULL%0,               Prakash R.%Paliwal%NULL%0,               Lily Y.H.%Wong%NULL%0,               Renarebecca%Sagayanathan%NULL%0,               Jin Tao%Chen%NULL%0,               Alison Ying%Ying Ng%NULL%0,               Hock Luen%Teoh%NULL%0,               Georgios%Tsivgoulis%NULL%1,               Cyrus S.%Ho%NULL%0,               Roger C.%Ho%NULL%0,               Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2306,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2248,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2277,7 +2364,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2306,7 +2393,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2335,7 +2422,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2364,7 +2451,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2422,7 +2509,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2451,7 +2538,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2480,7 +2567,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2538,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2567,7 +2654,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2596,7 +2683,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2625,7 +2712,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2654,7 +2741,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2683,7 +2770,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2712,7 +2799,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2741,7 +2828,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2770,7 +2857,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2799,7 +2886,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2857,7 +2944,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -2886,7 +2973,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -2915,7 +3002,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2944,7 +3031,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -2973,7 +3060,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -3002,7 +3089,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3031,7 +3118,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -3060,7 +3147,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3089,7 +3176,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3118,7 +3205,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="639">
   <si>
     <t>Doi</t>
   </si>
@@ -1968,6 +1968,180 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,               Grace K.H.%Lee%NULL%0,               Benjamin Y.Q.%Tan%NULL%1,               Mingxue%Jing%NULL%0,               Yihui%Goh%NULL%0,               Nicholas J.H.%Ngiam%NULL%1,               Leonard L.L.%Yeo%NULL%0,               Aftab%Ahmad%NULL%0,               Faheem%Ahmed Khan%NULL%1,               Ganesh%Napolean Shanmugam%NULL%1,               Arvind K.%Sharma%NULL%1,               R.N.%Komalkumar%NULL%1,               P.V.%Meenakshi%NULL%1,               Kenam%Shah%NULL%1,               Bhargesh%Patel%NULL%1,               Bernard P.L.%Chan%NULL%0,               Sibi%Sunny%NULL%0,               Bharatendu%Chandra%NULL%0,               Jonathan J.Y.%Ong%NULL%0,               Prakash R.%Paliwal%NULL%0,               Lily Y.H.%Wong%NULL%0,               Renarebecca%Sagayanathan%NULL%0,               Jin Tao%Chen%NULL%0,               Alison Ying%Ying Ng%NULL%0,               Hock Luen%Teoh%NULL%0,               Georgios%Tsivgoulis%NULL%1,               Cyrus S.%Ho%NULL%0,               Roger C.%Ho%NULL%0,               Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                Simeng%Ma%NULL%2,                Ying%Wang%NULL%3,                Zhongxiang%Cai%NULL%2,                Jianbo%Hu%NULL%1,                Ning%Wei%NULL%1,                Jiang%Wu%NULL%1,                Hui%Du%NULL%0,                Tingting%Chen%NULL%1,                Ruiting%Li%NULL%3,                Huawei%Tan%NULL%1,                Lijun%Kang%NULL%2,                Lihua%Yao%NULL%1,                Manli%Huang%NULL%1,                Huafen%Wang%NULL%1,                Gaohua%Wang%NULL%1,                Zhongchun%Liu%NULL%2,                Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%3,                Lu%Dong%NULL%1,                Tao%Wang%NULL%0,                Chenxin%Yuan%NULL%1,                Rao%Fu%NULL%1,                Lei%Zhang%NULL%2,                Bo%Liu%NULL%2,                Mingmin%Zhang%NULL%1,                Yuanyuan%Yin%NULL%1,                Jiawen%Qin%NULL%1,                Jennifer%Bouey%NULL%1,                Min%Zhao%NULL%0,                Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,         Jinfeng%Miao%xref no email%0,         Hui%Wang%xref no email%0,         Shabei%Xu%xref no email%0,         Wenzhe%Sun%xref no email%0,         Yebin%Fan%xref no email%0,         Chenyan%Zhang%xref no email%0,         Suiqiang%Zhu%xref no email%0,         Zhou%Zhu%xref no email%0,         Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                Yun-zhi%Yang%NULL%1,                Xiao-Ming%Zhang%NULL%1,                Xinying%Xu%NULL%2,                Xinying%Xu%NULL%0,                Qing-Li%Dou%NULL%1,                Wen-Wu%Zhang%NULL%1,                Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                Hang%Wang%NULL%1,                Yuxing%Lin%NULL%1,                Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                Jing%Xu%NULL%0,                Bo-Zhi%Li%NULL%1,                Jin-Sha%Huang%NULL%1,                Yuan%Yang%NULL%2,                Zhen-Tao%Zhang%NULL%1,                Dong-Ai%Yao%NULL%1,                Qun-Hui%Liu%NULL%1,                Min%Jia%NULL%1,                Dao-Kai%Gong%NULL%1,                Xiao-Hong%Ni%NULL%1,                Qi-Mei%Zhang%NULL%1,                Fu-Rong%Shang%NULL%1,                Nian%Xiong%NULL%0,                Chun-Li%Zhu%NULL%1,                Tao%Wang%wangtaowh@hust.edu.cn%0,                Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                Wenning%Fu%NULL%1,                Xiaoran%Liu%NULL%1,                Zhiqian%Luo%NULL%1,                Rixing%Wang%NULL%1,                Ning%Zhou%NULL%0,                Shijiao%Yan%NULL%1,                Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                L%Xie%NULL%1,                Y%Xu%NULL%1,                S%Yu%NULL%1,                B%Yao%professoryao@aliyun.com%1,                D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                Kun%Wang%NULL%1,                Lu%Yin%NULL%1,                Wen-feng%Zhao%NULL%1,                Qing%Xue%NULL%1,                Mao%Peng%NULL%1,                Bao-quan%Min%NULL%1,                Qing%Tian%NULL%1,                Hai-xia%Leng%NULL%1,                Jia-lin%Du%NULL%1,                Hong%Chang%NULL%1,                Yuan%Yang%NULL%0,                Wei%Li%NULL%4,                Fang-fang%Shangguan%NULL%1,                Tian-yi%Yan%NULL%1,                Hui-qing%Dong%NULL%1,                Ying%Han%NULL%1,                Yu-ping%Wang%NULL%1,                Fiammetta%Cosci%NULL%1,                Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                Lulu%Yang%NULL%1,                Shuai%Liu%NULL%1,                Simeng%Ma%NULL%0,                Ying%Wang%NULL%0,                Zhongxiang%Cai%NULL%0,                Hui%Du%NULL%0,                Ruiting%Li%NULL%0,                Lijun%Kang%NULL%0,                Meilei%Su%NULL%1,                Jihui%Zhang%NULL%1,                Zhongchun%Liu%NULL%0,                Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                Xiaobin%Zhu%NULL%1,                Shuai%Fu%NULL%1,                Yugang%Hu%NULL%1,                Xiaoning%Li%NULL%0,                Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                Hao%Zhou%haoye320@163.com%1,                Yan%Zhou%NULL%1,                Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                Jing-wen%He%NULL%2,                Jing-wen%He%NULL%0,                Na%Zhou%NULL%1,                Oliver%Schildgen.%NULL%3,                Oliver%Schildgen.%NULL%0,                Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                Lin%Sun%NULL%1,                Lan%Zhang%NULL%1,                Huan%Wang%NULL%1,                Ajiao%Fan%NULL%1,                Bin%Yang%NULL%1,                Wei%Li%NULL%0,                Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                Ranjan%Bhattacharyya%NULL%1,                Sumita%Bhattacharyya%NULL%1,                Sukanya%Gupta%NULL%1,                Soumitra%Das%NULL%1,                Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                Kinshuk%Kohli%NULL%1,                P%Padmakumari%NULL%1,                Prashant Kumar%Dixit%NULL%1,                Ajay Shankar%Prasad%NULL%1,                Bharath Seshadri%Chakravarthy%NULL%1,                Rajat%Shukla%NULL%1,                Parthasarathi%Ghana%NULL%1,                Debasish%Mahapatra%NULL%1,                G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                Jeffrey Pradeep%Raj%NULL%1,                Seema%Rao%NULL%1,                Murtuza%Ghiya%NULL%1,                Nisanth Menon%Nedungalaparambil%NULL%1,                Harshit%Mundra%NULL%1,                Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                John R%Adler%NULL%0,                Ram%Sandesh%NULL%2,                Ram%Sandesh%NULL%0,                Wajeeha%Shahid%NULL%1,                Kapeel%Dev%NULL%1,                Nikeeta%Mandhan%NULL%1,                Prem%Shankar%NULL%1,                Anam%Shaikh%NULL%1,                Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                Ayşe%Kurtulmuş%NULL%1,                Selim%Arpacıoğlu%NULL%1,                Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                Nicholas W.S.%Chew%NULL%1,                Grace K.H.%Lee%NULL%2,                Mingxue%Jing%NULL%2,                Yihui%Goh%NULL%2,                Leonard L.L.%Yeo%NULL%2,                Ka%Zhang%NULL%1,                Howe-Keat%Chin%NULL%1,                Aftab%Ahmad%NULL%2,                Faheem Ahmed%Khan%NULL%1,                Ganesh Napolean%Shanmugam%NULL%1,                Bernard P.L.%Chan%NULL%2,                Sibi%Sunny%NULL%2,                Bharatendu%Chandra%NULL%2,                Jonathan J.Y.%Ong%NULL%2,                Prakash R.%Paliwal%NULL%2,                Lily Y.H.%Wong%NULL%2,                Renarebecca%Sagayanathan%NULL%2,                Jin Tao%Chen%NULL%2,                Alison Ying%Ying Ng%NULL%2,                Hock Luen%Teoh%NULL%2,                Cyrus S.%Ho%NULL%2,                Roger C.%Ho%NULL%2,                Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,               Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,               Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,               Botega%NJ%coreGivesNoEmail%1,               Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,               Freitas%FMB%coreGivesNoEmail%1,               Guilherme%Arcaro%coreGivesNoEmail%1,               Kang%L%coreGivesNoEmail%1,               Lai%J%coreGivesNoEmail%1,               Lana%RM%coreGivesNoEmail%1,               Lara%Simone Messias Floriano%coreGivesNoEmail%1,               Leonelli%LB%coreGivesNoEmail%1,               Le\u00e3o%AM%coreGivesNoEmail%1,               Liu%Y%coreGivesNoEmail%1,               Martins%C%coreGivesNoEmail%1,               Moura%A%coreGivesNoEmail%1,               Oliveira%FP%coreGivesNoEmail%1,               Pappa%S%coreGivesNoEmail%1,               Rodriguez%EOL%coreGivesNoEmail%1,               Ruback%SP%coreGivesNoEmail%1,               Sena%AFJ%coreGivesNoEmail%1,               Silva%DSD%coreGivesNoEmail%2,               Silva%DSD%coreGivesNoEmail%0,               Spoorthy%MS%coreGivesNoEmail%1,               Suellen%Vienscoski Skupien%coreGivesNoEmail%1,               Trettene%AS%coreGivesNoEmail%1,               Vieira%NF%coreGivesNoEmail%1,               Wang%SM%coreGivesNoEmail%1,               Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                Elisa%Pedroli%NULL%1,                Guido E.%D'Aniello%NULL%1,                Chiara%Stramba Badiale%NULL%1,                Giada%Pietrabissa%NULL%1,                Chiara%Manna%NULL%1,                Marco%Stramba Badiale%NULL%1,                Giuseppe%Riva%NULL%1,                Gianluca%Castelnuovo%NULL%1,                Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                Piotr%Krajewski%NULL%2,                Piotr%Krajewski%NULL%0,                Rafał%Biłynicki‐Birula%NULL%2,                Rafał%Biłynicki‐Birula%NULL%0,                Paweł%Poznański%NULL%2,                Paweł%Poznański%NULL%0,                Magdalena%Krajewska%NULL%2,                Magdalena%Krajewska%NULL%0,                Joanna%Rymaszewska%NULL%2,                Joanna%Rymaszewska%NULL%0,                Łukasz%Matusiak%NULL%2,                Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                Jing%Liu%NULL%0,                Asghar%Afshar Jahanshahi%NULL%1,                Khaled%Nawaser%NULL%1,                Ali%Yousefi%NULL%1,                Jizhen%Li%NULL%1,                Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                Eman Zmaily%Dahmash%NULL%2,                Eman Zmaily%Dahmash%NULL%0,                Rabaa%Al‐Rousan%NULL%2,                Rabaa%Al‐Rousan%NULL%0,                Hassan%Alwafi%NULL%1,                Hamzeh Mohammad%Alrawashdeh%NULL%1,                Imene%Ghoul%NULL%1,                Anwer%Abidine%NULL%1,                Mohammed A.%Bokhary%NULL%1,                Hadeel T.%AL‐Hadithi%NULL%1,                Dalia%Ali%NULL%1,                Rasha%Abuthawabeh%NULL%1,                Ghada Mohammad%Abdelwahab%NULL%1,                Yosra J.%Alhartani%NULL%1,                Haneen%Al Muhaisen%NULL%1,                Ayah%Dagash%NULL%1,                Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                Aseem%Mehra%NULL%2,                Aseem%Mehra%NULL%0,                Abhash%Niraula%NULL%2,                Abhash%Niraula%NULL%0,                Khagendra%Kafle%NULL%2,                Khagendra%Kafle%NULL%0,                Saroj Prasad%Deo%NULL%2,                Saroj Prasad%Deo%NULL%0,                Babita%Singh%NULL%2,                Babita%Singh%NULL%0,                Swapnajeet%Sahoo%NULL%2,                Swapnajeet%Sahoo%NULL%0,                Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                Charles W.%Goss%NULL%2,                Charles W.%Goss%NULL%0,                Bradley A.%Evanoff%NULL%1,                Jaime R.%Strickland%NULL%1,                Rebecca P.%McAlister%NULL%1,                Jennifer%Duncan%NULL%1,                Michio%Murakami%NULL%2,                Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                Grace K.H.%Lee%NULL%0,                Benjamin Y.Q.%Tan%NULL%1,                Mingxue%Jing%NULL%0,                Yihui%Goh%NULL%0,                Nicholas J.H.%Ngiam%NULL%1,                Leonard L.L.%Yeo%NULL%0,                Aftab%Ahmad%NULL%0,                Faheem%Ahmed Khan%NULL%1,                Ganesh%Napolean Shanmugam%NULL%1,                Arvind K.%Sharma%NULL%1,                R.N.%Komalkumar%NULL%1,                P.V.%Meenakshi%NULL%1,                Kenam%Shah%NULL%1,                Bhargesh%Patel%NULL%1,                Bernard P.L.%Chan%NULL%0,                Sibi%Sunny%NULL%0,                Bharatendu%Chandra%NULL%0,                Jonathan J.Y.%Ong%NULL%0,                Prakash R.%Paliwal%NULL%0,                Lily Y.H.%Wong%NULL%0,                Renarebecca%Sagayanathan%NULL%0,                Jin Tao%Chen%NULL%0,                Alison Ying%Ying Ng%NULL%0,                Hock Luen%Teoh%NULL%0,                Georgios%Tsivgoulis%NULL%1,                Cyrus S.%Ho%NULL%0,                Roger C.%Ho%NULL%0,                Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                 Simeng%Ma%NULL%2,                 Ying%Wang%NULL%3,                 Zhongxiang%Cai%NULL%2,                 Jianbo%Hu%NULL%1,                 Ning%Wei%NULL%1,                 Jiang%Wu%NULL%1,                 Hui%Du%NULL%0,                 Tingting%Chen%NULL%1,                 Ruiting%Li%NULL%3,                 Huawei%Tan%NULL%1,                 Lijun%Kang%NULL%2,                 Lihua%Yao%NULL%1,                 Manli%Huang%NULL%1,                 Huafen%Wang%NULL%1,                 Gaohua%Wang%NULL%1,                 Zhongchun%Liu%NULL%2,                 Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                 Lu%Dong%NULL%1,                 Tao%Wang%NULL%0,                 Chenxin%Yuan%NULL%1,                 Rao%Fu%NULL%1,                 Lei%Zhang%NULL%2,                 Bo%Liu%NULL%2,                 Mingmin%Zhang%NULL%1,                 Yuanyuan%Yin%NULL%1,                 Jiawen%Qin%NULL%1,                 Jennifer%Bouey%NULL%1,                 Min%Zhao%NULL%0,                 Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,          Jinfeng%Miao%xref no email%0,          Hui%Wang%xref no email%0,          Shabei%Xu%xref no email%0,          Wenzhe%Sun%xref no email%0,          Yebin%Fan%xref no email%0,          Chenyan%Zhang%xref no email%0,          Suiqiang%Zhu%xref no email%0,          Zhou%Zhu%xref no email%0,          Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                 Yun-zhi%Yang%NULL%1,                 Xiao-Ming%Zhang%NULL%1,                 Xinying%Xu%NULL%2,                 Xinying%Xu%NULL%0,                 Qing-Li%Dou%NULL%1,                 Wen-Wu%Zhang%NULL%1,                 Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                 Hang%Wang%NULL%1,                 Yuxing%Lin%NULL%1,                 Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                 Jing%Xu%NULL%0,                 Bo-Zhi%Li%NULL%1,                 Jin-Sha%Huang%NULL%1,                 Yuan%Yang%NULL%2,                 Zhen-Tao%Zhang%NULL%1,                 Dong-Ai%Yao%NULL%1,                 Qun-Hui%Liu%NULL%1,                 Min%Jia%NULL%1,                 Dao-Kai%Gong%NULL%1,                 Xiao-Hong%Ni%NULL%1,                 Qi-Mei%Zhang%NULL%1,                 Fu-Rong%Shang%NULL%1,                 Nian%Xiong%NULL%0,                 Chun-Li%Zhu%NULL%1,                 Tao%Wang%wangtaowh@hust.edu.cn%0,                 Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                 Wenning%Fu%NULL%1,                 Xiaoran%Liu%NULL%1,                 Zhiqian%Luo%NULL%1,                 Rixing%Wang%NULL%1,                 Ning%Zhou%NULL%0,                 Shijiao%Yan%NULL%1,                 Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                 L%Xie%NULL%1,                 Y%Xu%NULL%1,                 S%Yu%NULL%1,                 B%Yao%professoryao@aliyun.com%1,                 D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                 Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                 Kun%Wang%NULL%1,                 Lu%Yin%NULL%1,                 Wen-feng%Zhao%NULL%1,                 Qing%Xue%NULL%1,                 Mao%Peng%NULL%1,                 Bao-quan%Min%NULL%1,                 Qing%Tian%NULL%1,                 Hai-xia%Leng%NULL%1,                 Jia-lin%Du%NULL%1,                 Hong%Chang%NULL%1,                 Yuan%Yang%NULL%0,                 Wei%Li%NULL%4,                 Fang-fang%Shangguan%NULL%1,                 Tian-yi%Yan%NULL%1,                 Hui-qing%Dong%NULL%1,                 Ying%Han%NULL%1,                 Yu-ping%Wang%NULL%1,                 Fiammetta%Cosci%NULL%1,                 Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                 Lulu%Yang%NULL%1,                 Shuai%Liu%NULL%1,                 Simeng%Ma%NULL%0,                 Ying%Wang%NULL%0,                 Zhongxiang%Cai%NULL%0,                 Hui%Du%NULL%0,                 Ruiting%Li%NULL%0,                 Lijun%Kang%NULL%0,                 Meilei%Su%NULL%1,                 Jihui%Zhang%NULL%1,                 Zhongchun%Liu%NULL%0,                 Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                 Xiaobin%Zhu%NULL%1,                 Shuai%Fu%NULL%1,                 Yugang%Hu%NULL%1,                 Xiaoning%Li%NULL%0,                 Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                 Hao%Zhou%haoye320@163.com%1,                 Yan%Zhou%NULL%1,                 Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                 Jing-wen%He%NULL%2,                 Jing-wen%He%NULL%0,                 Na%Zhou%NULL%1,                 Oliver%Schildgen.%NULL%3,                 Oliver%Schildgen.%NULL%0,                 Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                 Lin%Sun%NULL%1,                 Lan%Zhang%NULL%1,                 Huan%Wang%NULL%1,                 Ajiao%Fan%NULL%1,                 Bin%Yang%NULL%1,                 Wei%Li%NULL%0,                 Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                 Ranjan%Bhattacharyya%NULL%1,                 Sumita%Bhattacharyya%NULL%1,                 Sukanya%Gupta%NULL%1,                 Soumitra%Das%NULL%1,                 Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                 Kinshuk%Kohli%NULL%1,                 P%Padmakumari%NULL%1,                 Prashant Kumar%Dixit%NULL%1,                 Ajay Shankar%Prasad%NULL%1,                 Bharath Seshadri%Chakravarthy%NULL%1,                 Rajat%Shukla%NULL%1,                 Parthasarathi%Ghana%NULL%1,                 Debasish%Mahapatra%NULL%1,                 G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                 Jeffrey Pradeep%Raj%NULL%1,                 Seema%Rao%NULL%1,                 Murtuza%Ghiya%NULL%1,                 Nisanth Menon%Nedungalaparambil%NULL%1,                 Harshit%Mundra%NULL%1,                 Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                 John R%Adler%NULL%0,                 Ram%Sandesh%NULL%2,                 Ram%Sandesh%NULL%0,                 Wajeeha%Shahid%NULL%1,                 Kapeel%Dev%NULL%1,                 Nikeeta%Mandhan%NULL%1,                 Prem%Shankar%NULL%1,                 Anam%Shaikh%NULL%1,                 Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                 Ayşe%Kurtulmuş%NULL%1,                 Selim%Arpacıoğlu%NULL%1,                 Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                 Nicholas W.S.%Chew%NULL%1,                 Grace K.H.%Lee%NULL%2,                 Mingxue%Jing%NULL%2,                 Yihui%Goh%NULL%2,                 Leonard L.L.%Yeo%NULL%2,                 Ka%Zhang%NULL%1,                 Howe-Keat%Chin%NULL%1,                 Aftab%Ahmad%NULL%2,                 Faheem Ahmed%Khan%NULL%1,                 Ganesh Napolean%Shanmugam%NULL%1,                 Bernard P.L.%Chan%NULL%2,                 Sibi%Sunny%NULL%2,                 Bharatendu%Chandra%NULL%2,                 Jonathan J.Y.%Ong%NULL%2,                 Prakash R.%Paliwal%NULL%2,                 Lily Y.H.%Wong%NULL%2,                 Renarebecca%Sagayanathan%NULL%2,                 Jin Tao%Chen%NULL%2,                 Alison Ying%Ying Ng%NULL%2,                 Hock Luen%Teoh%NULL%2,                 Cyrus S.%Ho%NULL%2,                 Roger C.%Ho%NULL%2,                 Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                Botega%NJ%coreGivesNoEmail%1,                Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                Freitas%FMB%coreGivesNoEmail%1,                Guilherme%Arcaro%coreGivesNoEmail%1,                Kang%L%coreGivesNoEmail%1,                Lai%J%coreGivesNoEmail%1,                Lana%RM%coreGivesNoEmail%1,                Lara%Simone Messias Floriano%coreGivesNoEmail%1,                Leonelli%LB%coreGivesNoEmail%1,                Le\u00e3o%AM%coreGivesNoEmail%1,                Liu%Y%coreGivesNoEmail%1,                Martins%C%coreGivesNoEmail%1,                Moura%A%coreGivesNoEmail%1,                Oliveira%FP%coreGivesNoEmail%1,                Pappa%S%coreGivesNoEmail%1,                Rodriguez%EOL%coreGivesNoEmail%1,                Ruback%SP%coreGivesNoEmail%1,                Sena%AFJ%coreGivesNoEmail%1,                Silva%DSD%coreGivesNoEmail%2,                Silva%DSD%coreGivesNoEmail%0,                Spoorthy%MS%coreGivesNoEmail%1,                Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                Trettene%AS%coreGivesNoEmail%1,                Vieira%NF%coreGivesNoEmail%1,                Wang%SM%coreGivesNoEmail%1,                Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                 Elisa%Pedroli%NULL%1,                 Guido E.%D'Aniello%NULL%1,                 Chiara%Stramba Badiale%NULL%1,                 Giada%Pietrabissa%NULL%1,                 Chiara%Manna%NULL%1,                 Marco%Stramba Badiale%NULL%1,                 Giuseppe%Riva%NULL%1,                 Gianluca%Castelnuovo%NULL%1,                 Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                 Piotr%Krajewski%NULL%2,                 Piotr%Krajewski%NULL%0,                 Rafał%Biłynicki‐Birula%NULL%2,                 Rafał%Biłynicki‐Birula%NULL%0,                 Paweł%Poznański%NULL%2,                 Paweł%Poznański%NULL%0,                 Magdalena%Krajewska%NULL%2,                 Magdalena%Krajewska%NULL%0,                 Joanna%Rymaszewska%NULL%2,                 Joanna%Rymaszewska%NULL%0,                 Łukasz%Matusiak%NULL%2,                 Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                 Jing%Liu%NULL%0,                 Asghar%Afshar Jahanshahi%NULL%1,                 Khaled%Nawaser%NULL%1,                 Ali%Yousefi%NULL%1,                 Jizhen%Li%NULL%1,                 Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                 Eman Zmaily%Dahmash%NULL%2,                 Eman Zmaily%Dahmash%NULL%0,                 Rabaa%Al‐Rousan%NULL%2,                 Rabaa%Al‐Rousan%NULL%0,                 Hassan%Alwafi%NULL%1,                 Hamzeh Mohammad%Alrawashdeh%NULL%1,                 Imene%Ghoul%NULL%1,                 Anwer%Abidine%NULL%1,                 Mohammed A.%Bokhary%NULL%1,                 Hadeel T.%AL‐Hadithi%NULL%1,                 Dalia%Ali%NULL%1,                 Rasha%Abuthawabeh%NULL%1,                 Ghada Mohammad%Abdelwahab%NULL%1,                 Yosra J.%Alhartani%NULL%1,                 Haneen%Al Muhaisen%NULL%1,                 Ayah%Dagash%NULL%1,                 Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                 Aseem%Mehra%NULL%2,                 Aseem%Mehra%NULL%0,                 Abhash%Niraula%NULL%2,                 Abhash%Niraula%NULL%0,                 Khagendra%Kafle%NULL%2,                 Khagendra%Kafle%NULL%0,                 Saroj Prasad%Deo%NULL%2,                 Saroj Prasad%Deo%NULL%0,                 Babita%Singh%NULL%2,                 Babita%Singh%NULL%0,                 Swapnajeet%Sahoo%NULL%2,                 Swapnajeet%Sahoo%NULL%0,                 Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                 Charles W.%Goss%NULL%2,                 Charles W.%Goss%NULL%0,                 Bradley A.%Evanoff%NULL%1,                 Jaime R.%Strickland%NULL%1,                 Rebecca P.%McAlister%NULL%1,                 Jennifer%Duncan%NULL%1,                 Michio%Murakami%NULL%2,                 Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                 Grace K.H.%Lee%NULL%0,                 Benjamin Y.Q.%Tan%NULL%1,                 Mingxue%Jing%NULL%0,                 Yihui%Goh%NULL%0,                 Nicholas J.H.%Ngiam%NULL%1,                 Leonard L.L.%Yeo%NULL%0,                 Aftab%Ahmad%NULL%0,                 Faheem%Ahmed Khan%NULL%1,                 Ganesh%Napolean Shanmugam%NULL%1,                 Arvind K.%Sharma%NULL%1,                 R.N.%Komalkumar%NULL%1,                 P.V.%Meenakshi%NULL%1,                 Kenam%Shah%NULL%1,                 Bhargesh%Patel%NULL%1,                 Bernard P.L.%Chan%NULL%0,                 Sibi%Sunny%NULL%0,                 Bharatendu%Chandra%NULL%0,                 Jonathan J.Y.%Ong%NULL%0,                 Prakash R.%Paliwal%NULL%0,                 Lily Y.H.%Wong%NULL%0,                 Renarebecca%Sagayanathan%NULL%0,                 Jin Tao%Chen%NULL%0,                 Alison Ying%Ying Ng%NULL%0,                 Hock Luen%Teoh%NULL%0,                 Georgios%Tsivgoulis%NULL%1,                 Cyrus S.%Ho%NULL%0,                 Roger C.%Ho%NULL%0,                 Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2480,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2335,7 +2509,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2364,7 +2538,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2393,7 +2567,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2422,7 +2596,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2451,7 +2625,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2509,7 +2683,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2538,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2567,7 +2741,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2625,7 +2799,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2654,7 +2828,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2683,7 +2857,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2712,7 +2886,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2741,7 +2915,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2770,7 +2944,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2799,7 +2973,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2828,7 +3002,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2857,7 +3031,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -2886,7 +3060,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2944,7 +3118,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -2973,7 +3147,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -3002,7 +3176,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3031,7 +3205,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -3060,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -3089,7 +3263,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3118,7 +3292,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -3147,7 +3321,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3176,7 +3350,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3205,7 +3379,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="668">
   <si>
     <t>Doi</t>
   </si>
@@ -2142,6 +2142,93 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,                 Grace K.H.%Lee%NULL%0,                 Benjamin Y.Q.%Tan%NULL%1,                 Mingxue%Jing%NULL%0,                 Yihui%Goh%NULL%0,                 Nicholas J.H.%Ngiam%NULL%1,                 Leonard L.L.%Yeo%NULL%0,                 Aftab%Ahmad%NULL%0,                 Faheem%Ahmed Khan%NULL%1,                 Ganesh%Napolean Shanmugam%NULL%1,                 Arvind K.%Sharma%NULL%1,                 R.N.%Komalkumar%NULL%1,                 P.V.%Meenakshi%NULL%1,                 Kenam%Shah%NULL%1,                 Bhargesh%Patel%NULL%1,                 Bernard P.L.%Chan%NULL%0,                 Sibi%Sunny%NULL%0,                 Bharatendu%Chandra%NULL%0,                 Jonathan J.Y.%Ong%NULL%0,                 Prakash R.%Paliwal%NULL%0,                 Lily Y.H.%Wong%NULL%0,                 Renarebecca%Sagayanathan%NULL%0,                 Jin Tao%Chen%NULL%0,                 Alison Ying%Ying Ng%NULL%0,                 Hock Luen%Teoh%NULL%0,                 Georgios%Tsivgoulis%NULL%1,                 Cyrus S.%Ho%NULL%0,                 Roger C.%Ho%NULL%0,                 Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                  Simeng%Ma%NULL%2,                  Ying%Wang%NULL%3,                  Zhongxiang%Cai%NULL%2,                  Jianbo%Hu%NULL%1,                  Ning%Wei%NULL%1,                  Jiang%Wu%NULL%1,                  Hui%Du%NULL%0,                  Tingting%Chen%NULL%1,                  Ruiting%Li%NULL%3,                  Huawei%Tan%NULL%1,                  Lijun%Kang%NULL%2,                  Lihua%Yao%NULL%1,                  Manli%Huang%NULL%1,                  Huafen%Wang%NULL%1,                  Gaohua%Wang%NULL%1,                  Zhongchun%Liu%NULL%2,                  Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                  Lu%Dong%NULL%1,                  Tao%Wang%NULL%0,                  Chenxin%Yuan%NULL%1,                  Rao%Fu%NULL%1,                  Lei%Zhang%NULL%2,                  Bo%Liu%NULL%2,                  Mingmin%Zhang%NULL%1,                  Yuanyuan%Yin%NULL%1,                  Jiawen%Qin%NULL%1,                  Jennifer%Bouey%NULL%1,                  Min%Zhao%NULL%0,                  Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,           Jinfeng%Miao%xref no email%0,           Hui%Wang%xref no email%0,           Shabei%Xu%xref no email%0,           Wenzhe%Sun%xref no email%0,           Yebin%Fan%xref no email%0,           Chenyan%Zhang%xref no email%0,           Suiqiang%Zhu%xref no email%0,           Zhou%Zhu%xref no email%0,           Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                  Yun-zhi%Yang%NULL%1,                  Xiao-Ming%Zhang%NULL%1,                  Xinying%Xu%NULL%2,                  Xinying%Xu%NULL%0,                  Qing-Li%Dou%NULL%1,                  Wen-Wu%Zhang%NULL%1,                  Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                  Hang%Wang%NULL%1,                  Yuxing%Lin%NULL%1,                  Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                  Jing%Xu%NULL%0,                  Bo-Zhi%Li%NULL%1,                  Jin-Sha%Huang%NULL%1,                  Yuan%Yang%NULL%2,                  Zhen-Tao%Zhang%NULL%1,                  Dong-Ai%Yao%NULL%1,                  Qun-Hui%Liu%NULL%1,                  Min%Jia%NULL%1,                  Dao-Kai%Gong%NULL%1,                  Xiao-Hong%Ni%NULL%1,                  Qi-Mei%Zhang%NULL%1,                  Fu-Rong%Shang%NULL%1,                  Nian%Xiong%NULL%0,                  Chun-Li%Zhu%NULL%1,                  Tao%Wang%wangtaowh@hust.edu.cn%0,                  Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                  Wenning%Fu%NULL%1,                  Xiaoran%Liu%NULL%1,                  Zhiqian%Luo%NULL%1,                  Rixing%Wang%NULL%1,                  Ning%Zhou%NULL%0,                  Shijiao%Yan%NULL%1,                  Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                  L%Xie%NULL%1,                  Y%Xu%NULL%1,                  S%Yu%NULL%1,                  B%Yao%professoryao@aliyun.com%1,                  D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                  Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                  Kun%Wang%NULL%1,                  Lu%Yin%NULL%1,                  Wen-feng%Zhao%NULL%1,                  Qing%Xue%NULL%1,                  Mao%Peng%NULL%1,                  Bao-quan%Min%NULL%1,                  Qing%Tian%NULL%1,                  Hai-xia%Leng%NULL%1,                  Jia-lin%Du%NULL%1,                  Hong%Chang%NULL%1,                  Yuan%Yang%NULL%0,                  Wei%Li%NULL%4,                  Fang-fang%Shangguan%NULL%1,                  Tian-yi%Yan%NULL%1,                  Hui-qing%Dong%NULL%1,                  Ying%Han%NULL%1,                  Yu-ping%Wang%NULL%1,                  Fiammetta%Cosci%NULL%1,                  Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                  Lulu%Yang%NULL%1,                  Shuai%Liu%NULL%1,                  Simeng%Ma%NULL%0,                  Ying%Wang%NULL%0,                  Zhongxiang%Cai%NULL%0,                  Hui%Du%NULL%0,                  Ruiting%Li%NULL%0,                  Lijun%Kang%NULL%0,                  Meilei%Su%NULL%1,                  Jihui%Zhang%NULL%1,                  Zhongchun%Liu%NULL%0,                  Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                  Xiaobin%Zhu%NULL%1,                  Shuai%Fu%NULL%1,                  Yugang%Hu%NULL%1,                  Xiaoning%Li%NULL%0,                  Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                  Hao%Zhou%haoye320@163.com%1,                  Yan%Zhou%NULL%1,                  Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                  Jing-wen%He%NULL%2,                  Jing-wen%He%NULL%0,                  Na%Zhou%NULL%1,                  Oliver%Schildgen.%NULL%3,                  Oliver%Schildgen.%NULL%0,                  Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                  Lin%Sun%NULL%1,                  Lan%Zhang%NULL%1,                  Huan%Wang%NULL%1,                  Ajiao%Fan%NULL%1,                  Bin%Yang%NULL%1,                  Wei%Li%NULL%0,                  Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                  Ranjan%Bhattacharyya%NULL%1,                  Sumita%Bhattacharyya%NULL%1,                  Sukanya%Gupta%NULL%1,                  Soumitra%Das%NULL%1,                  Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                  Kinshuk%Kohli%NULL%1,                  P%Padmakumari%NULL%1,                  Prashant Kumar%Dixit%NULL%1,                  Ajay Shankar%Prasad%NULL%1,                  Bharath Seshadri%Chakravarthy%NULL%1,                  Rajat%Shukla%NULL%1,                  Parthasarathi%Ghana%NULL%1,                  Debasish%Mahapatra%NULL%1,                  G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                  Jeffrey Pradeep%Raj%NULL%1,                  Seema%Rao%NULL%1,                  Murtuza%Ghiya%NULL%1,                  Nisanth Menon%Nedungalaparambil%NULL%1,                  Harshit%Mundra%NULL%1,                  Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                  John R%Adler%NULL%0,                  Ram%Sandesh%NULL%2,                  Ram%Sandesh%NULL%0,                  Wajeeha%Shahid%NULL%1,                  Kapeel%Dev%NULL%1,                  Nikeeta%Mandhan%NULL%1,                  Prem%Shankar%NULL%1,                  Anam%Shaikh%NULL%1,                  Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                  Ayşe%Kurtulmuş%NULL%1,                  Selim%Arpacıoğlu%NULL%1,                  Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                  Nicholas W.S.%Chew%NULL%1,                  Grace K.H.%Lee%NULL%2,                  Mingxue%Jing%NULL%2,                  Yihui%Goh%NULL%2,                  Leonard L.L.%Yeo%NULL%2,                  Ka%Zhang%NULL%1,                  Howe-Keat%Chin%NULL%1,                  Aftab%Ahmad%NULL%2,                  Faheem Ahmed%Khan%NULL%1,                  Ganesh Napolean%Shanmugam%NULL%1,                  Bernard P.L.%Chan%NULL%2,                  Sibi%Sunny%NULL%2,                  Bharatendu%Chandra%NULL%2,                  Jonathan J.Y.%Ong%NULL%2,                  Prakash R.%Paliwal%NULL%2,                  Lily Y.H.%Wong%NULL%2,                  Renarebecca%Sagayanathan%NULL%2,                  Jin Tao%Chen%NULL%2,                  Alison Ying%Ying Ng%NULL%2,                  Hock Luen%Teoh%NULL%2,                  Cyrus S.%Ho%NULL%2,                  Roger C.%Ho%NULL%2,                  Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                 Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                 Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                 Botega%NJ%coreGivesNoEmail%1,                 Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                 Freitas%FMB%coreGivesNoEmail%1,                 Guilherme%Arcaro%coreGivesNoEmail%1,                 Kang%L%coreGivesNoEmail%1,                 Lai%J%coreGivesNoEmail%1,                 Lana%RM%coreGivesNoEmail%1,                 Lara%Simone Messias Floriano%coreGivesNoEmail%1,                 Leonelli%LB%coreGivesNoEmail%1,                 Le\u00e3o%AM%coreGivesNoEmail%1,                 Liu%Y%coreGivesNoEmail%1,                 Martins%C%coreGivesNoEmail%1,                 Moura%A%coreGivesNoEmail%1,                 Oliveira%FP%coreGivesNoEmail%1,                 Pappa%S%coreGivesNoEmail%1,                 Rodriguez%EOL%coreGivesNoEmail%1,                 Ruback%SP%coreGivesNoEmail%1,                 Sena%AFJ%coreGivesNoEmail%1,                 Silva%DSD%coreGivesNoEmail%2,                 Silva%DSD%coreGivesNoEmail%0,                 Spoorthy%MS%coreGivesNoEmail%1,                 Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                 Trettene%AS%coreGivesNoEmail%1,                 Vieira%NF%coreGivesNoEmail%1,                 Wang%SM%coreGivesNoEmail%1,                 Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                  Elisa%Pedroli%NULL%1,                  Guido E.%D'Aniello%NULL%1,                  Chiara%Stramba Badiale%NULL%1,                  Giada%Pietrabissa%NULL%1,                  Chiara%Manna%NULL%1,                  Marco%Stramba Badiale%NULL%1,                  Giuseppe%Riva%NULL%1,                  Gianluca%Castelnuovo%NULL%1,                  Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                  Piotr%Krajewski%NULL%2,                  Piotr%Krajewski%NULL%0,                  Rafał%Biłynicki‐Birula%NULL%2,                  Rafał%Biłynicki‐Birula%NULL%0,                  Paweł%Poznański%NULL%2,                  Paweł%Poznański%NULL%0,                  Magdalena%Krajewska%NULL%2,                  Magdalena%Krajewska%NULL%0,                  Joanna%Rymaszewska%NULL%2,                  Joanna%Rymaszewska%NULL%0,                  Łukasz%Matusiak%NULL%2,                  Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                  Jing%Liu%NULL%0,                  Asghar%Afshar Jahanshahi%NULL%1,                  Khaled%Nawaser%NULL%1,                  Ali%Yousefi%NULL%1,                  Jizhen%Li%NULL%1,                  Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                  Eman Zmaily%Dahmash%NULL%2,                  Eman Zmaily%Dahmash%NULL%0,                  Rabaa%Al‐Rousan%NULL%2,                  Rabaa%Al‐Rousan%NULL%0,                  Hassan%Alwafi%NULL%1,                  Hamzeh Mohammad%Alrawashdeh%NULL%1,                  Imene%Ghoul%NULL%1,                  Anwer%Abidine%NULL%1,                  Mohammed A.%Bokhary%NULL%1,                  Hadeel T.%AL‐Hadithi%NULL%1,                  Dalia%Ali%NULL%1,                  Rasha%Abuthawabeh%NULL%1,                  Ghada Mohammad%Abdelwahab%NULL%1,                  Yosra J.%Alhartani%NULL%1,                  Haneen%Al Muhaisen%NULL%1,                  Ayah%Dagash%NULL%1,                  Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                  Aseem%Mehra%NULL%2,                  Aseem%Mehra%NULL%0,                  Abhash%Niraula%NULL%2,                  Abhash%Niraula%NULL%0,                  Khagendra%Kafle%NULL%2,                  Khagendra%Kafle%NULL%0,                  Saroj Prasad%Deo%NULL%2,                  Saroj Prasad%Deo%NULL%0,                  Babita%Singh%NULL%2,                  Babita%Singh%NULL%0,                  Swapnajeet%Sahoo%NULL%2,                  Swapnajeet%Sahoo%NULL%0,                  Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                  Charles W.%Goss%NULL%2,                  Charles W.%Goss%NULL%0,                  Bradley A.%Evanoff%NULL%1,                  Jaime R.%Strickland%NULL%1,                  Rebecca P.%McAlister%NULL%1,                  Jennifer%Duncan%NULL%1,                  Michio%Murakami%NULL%2,                  Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                  Grace K.H.%Lee%NULL%0,                  Benjamin Y.Q.%Tan%NULL%1,                  Mingxue%Jing%NULL%0,                  Yihui%Goh%NULL%0,                  Nicholas J.H.%Ngiam%NULL%1,                  Leonard L.L.%Yeo%NULL%0,                  Aftab%Ahmad%NULL%0,                  Faheem%Ahmed Khan%NULL%1,                  Ganesh%Napolean Shanmugam%NULL%1,                  Arvind K.%Sharma%NULL%1,                  R.N.%Komalkumar%NULL%1,                  P.V.%Meenakshi%NULL%1,                  Kenam%Shah%NULL%1,                  Bhargesh%Patel%NULL%1,                  Bernard P.L.%Chan%NULL%0,                  Sibi%Sunny%NULL%0,                  Bharatendu%Chandra%NULL%0,                  Jonathan J.Y.%Ong%NULL%0,                  Prakash R.%Paliwal%NULL%0,                  Lily Y.H.%Wong%NULL%0,                  Renarebecca%Sagayanathan%NULL%0,                  Jin Tao%Chen%NULL%0,                  Alison Ying%Ying Ng%NULL%0,                  Hock Luen%Teoh%NULL%0,                  Georgios%Tsivgoulis%NULL%1,                  Cyrus S.%Ho%NULL%0,                  Roger C.%Ho%NULL%0,                  Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2567,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2509,7 +2596,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2538,7 +2625,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2567,7 +2654,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2596,7 +2683,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2625,7 +2712,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2683,7 +2770,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2712,7 +2799,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2741,7 +2828,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2799,7 +2886,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2828,7 +2915,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2857,7 +2944,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2886,7 +2973,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2915,7 +3002,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2944,7 +3031,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2973,7 +3060,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3002,7 +3089,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3031,7 +3118,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3060,7 +3147,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3118,7 +3205,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -3147,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -3176,7 +3263,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3205,7 +3292,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -3234,7 +3321,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -3263,7 +3350,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3292,7 +3379,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -3321,7 +3408,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3350,7 +3437,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3379,7 +3466,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="700">
   <si>
     <t>Doi</t>
   </si>
@@ -2229,6 +2229,102 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,                  Grace K.H.%Lee%NULL%0,                  Benjamin Y.Q.%Tan%NULL%1,                  Mingxue%Jing%NULL%0,                  Yihui%Goh%NULL%0,                  Nicholas J.H.%Ngiam%NULL%1,                  Leonard L.L.%Yeo%NULL%0,                  Aftab%Ahmad%NULL%0,                  Faheem%Ahmed Khan%NULL%1,                  Ganesh%Napolean Shanmugam%NULL%1,                  Arvind K.%Sharma%NULL%1,                  R.N.%Komalkumar%NULL%1,                  P.V.%Meenakshi%NULL%1,                  Kenam%Shah%NULL%1,                  Bhargesh%Patel%NULL%1,                  Bernard P.L.%Chan%NULL%0,                  Sibi%Sunny%NULL%0,                  Bharatendu%Chandra%NULL%0,                  Jonathan J.Y.%Ong%NULL%0,                  Prakash R.%Paliwal%NULL%0,                  Lily Y.H.%Wong%NULL%0,                  Renarebecca%Sagayanathan%NULL%0,                  Jin Tao%Chen%NULL%0,                  Alison Ying%Ying Ng%NULL%0,                  Hock Luen%Teoh%NULL%0,                  Georgios%Tsivgoulis%NULL%1,                  Cyrus S.%Ho%NULL%0,                  Roger C.%Ho%NULL%0,                  Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                   Simeng%Ma%NULL%2,                   Ying%Wang%NULL%3,                   Zhongxiang%Cai%NULL%2,                   Jianbo%Hu%NULL%1,                   Ning%Wei%NULL%1,                   Jiang%Wu%NULL%1,                   Hui%Du%NULL%0,                   Tingting%Chen%NULL%1,                   Ruiting%Li%NULL%3,                   Huawei%Tan%NULL%1,                   Lijun%Kang%NULL%2,                   Lihua%Yao%NULL%1,                   Manli%Huang%NULL%1,                   Huafen%Wang%NULL%1,                   Gaohua%Wang%NULL%1,                   Zhongchun%Liu%NULL%2,                   Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                   Lu%Dong%NULL%1,                   Tao%Wang%NULL%0,                   Chenxin%Yuan%NULL%1,                   Rao%Fu%NULL%1,                   Lei%Zhang%NULL%2,                   Bo%Liu%NULL%2,                   Mingmin%Zhang%NULL%1,                   Yuanyuan%Yin%NULL%1,                   Jiawen%Qin%NULL%1,                   Jennifer%Bouey%NULL%1,                   Min%Zhao%NULL%0,                   Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,            Jinfeng%Miao%xref no email%0,            Hui%Wang%xref no email%0,            Shabei%Xu%xref no email%0,            Wenzhe%Sun%xref no email%0,            Yebin%Fan%xref no email%0,            Chenyan%Zhang%xref no email%0,            Suiqiang%Zhu%xref no email%0,            Zhou%Zhu%xref no email%0,            Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                   Yun-zhi%Yang%NULL%1,                   Xiao-Ming%Zhang%NULL%1,                   Xinying%Xu%NULL%2,                   Xinying%Xu%NULL%0,                   Qing-Li%Dou%NULL%1,                   Wen-Wu%Zhang%NULL%1,                   Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                   Hang%Wang%NULL%1,                   Yuxing%Lin%NULL%1,                   Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                   Jing%Xu%NULL%0,                   Bo-Zhi%Li%NULL%1,                   Jin-Sha%Huang%NULL%1,                   Yuan%Yang%NULL%2,                   Zhen-Tao%Zhang%NULL%1,                   Dong-Ai%Yao%NULL%1,                   Qun-Hui%Liu%NULL%1,                   Min%Jia%NULL%1,                   Dao-Kai%Gong%NULL%1,                   Xiao-Hong%Ni%NULL%1,                   Qi-Mei%Zhang%NULL%1,                   Fu-Rong%Shang%NULL%1,                   Nian%Xiong%NULL%0,                   Chun-Li%Zhu%NULL%1,                   Tao%Wang%wangtaowh@hust.edu.cn%0,                   Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                   Wenning%Fu%NULL%1,                   Xiaoran%Liu%NULL%1,                   Zhiqian%Luo%NULL%1,                   Rixing%Wang%NULL%1,                   Ning%Zhou%NULL%0,                   Shijiao%Yan%NULL%1,                   Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                   L%Xie%NULL%1,                   Y%Xu%NULL%1,                   S%Yu%NULL%1,                   B%Yao%professoryao@aliyun.com%1,                   D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                   Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                   Kun%Wang%NULL%1,                   Lu%Yin%NULL%1,                   Wen-feng%Zhao%NULL%1,                   Qing%Xue%NULL%1,                   Mao%Peng%NULL%1,                   Bao-quan%Min%NULL%1,                   Qing%Tian%NULL%1,                   Hai-xia%Leng%NULL%1,                   Jia-lin%Du%NULL%1,                   Hong%Chang%NULL%1,                   Yuan%Yang%NULL%0,                   Wei%Li%NULL%4,                   Fang-fang%Shangguan%NULL%1,                   Tian-yi%Yan%NULL%1,                   Hui-qing%Dong%NULL%1,                   Ying%Han%NULL%1,                   Yu-ping%Wang%NULL%1,                   Fiammetta%Cosci%NULL%1,                   Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                   Lulu%Yang%NULL%1,                   Shuai%Liu%NULL%1,                   Simeng%Ma%NULL%0,                   Ying%Wang%NULL%0,                   Zhongxiang%Cai%NULL%0,                   Hui%Du%NULL%0,                   Ruiting%Li%NULL%0,                   Lijun%Kang%NULL%0,                   Meilei%Su%NULL%1,                   Jihui%Zhang%NULL%1,                   Zhongchun%Liu%NULL%0,                   Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                   Xiaobin%Zhu%NULL%1,                   Shuai%Fu%NULL%1,                   Yugang%Hu%NULL%1,                   Xiaoning%Li%NULL%1,                   Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                   Hao%Zhou%haoye320@163.com%1,                   Yan%Zhou%NULL%1,                   Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                   Jing-wen%He%NULL%2,                   Jing-wen%He%NULL%0,                   Na%Zhou%NULL%1,                   Oliver%Schildgen.%NULL%3,                   Oliver%Schildgen.%NULL%0,                   Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                   Lin%Sun%NULL%1,                   Lan%Zhang%NULL%1,                   Huan%Wang%NULL%1,                   Ajiao%Fan%NULL%1,                   Bin%Yang%NULL%1,                   Wei%Li%NULL%0,                   Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                   Ranjan%Bhattacharyya%NULL%1,                   Sumita%Bhattacharyya%NULL%1,                   Sukanya%Gupta%NULL%1,                   Soumitra%Das%NULL%1,                   Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                   Kinshuk%Kohli%NULL%1,                   P%Padmakumari%NULL%1,                   Prashant Kumar%Dixit%NULL%1,                   Ajay Shankar%Prasad%NULL%1,                   Bharath Seshadri%Chakravarthy%NULL%1,                   Rajat%Shukla%NULL%1,                   Parthasarathi%Ghana%NULL%1,                   Debasish%Mahapatra%NULL%1,                   G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                   Jeffrey Pradeep%Raj%NULL%1,                   Seema%Rao%NULL%1,                   Murtuza%Ghiya%NULL%1,                   Nisanth Menon%Nedungalaparambil%NULL%1,                   Harshit%Mundra%NULL%1,                   Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                   John R%Adler%NULL%0,                   Ram%Sandesh%NULL%2,                   Ram%Sandesh%NULL%0,                   Wajeeha%Shahid%NULL%1,                   Kapeel%Dev%NULL%1,                   Nikeeta%Mandhan%NULL%1,                   Prem%Shankar%NULL%1,                   Anam%Shaikh%NULL%1,                   Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                   Ayşe%Kurtulmuş%NULL%1,                   Selim%Arpacıoğlu%NULL%1,                   Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                   Nicholas W.S.%Chew%NULL%1,                   Grace K.H.%Lee%NULL%2,                   Mingxue%Jing%NULL%2,                   Yihui%Goh%NULL%2,                   Leonard L.L.%Yeo%NULL%2,                   Ka%Zhang%NULL%1,                   Howe-Keat%Chin%NULL%1,                   Aftab%Ahmad%NULL%2,                   Faheem Ahmed%Khan%NULL%1,                   Ganesh Napolean%Shanmugam%NULL%1,                   Bernard P.L.%Chan%NULL%2,                   Sibi%Sunny%NULL%2,                   Bharatendu%Chandra%NULL%2,                   Jonathan J.Y.%Ong%NULL%2,                   Prakash R.%Paliwal%NULL%2,                   Lily Y.H.%Wong%NULL%2,                   Renarebecca%Sagayanathan%NULL%2,                   Jin Tao%Chen%NULL%2,                   Alison Ying%Ying Ng%NULL%2,                   Hock Luen%Teoh%NULL%2,                   Cyrus S.%Ho%NULL%2,                   Roger C.%Ho%NULL%2,                   Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                  Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                  Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                  Botega%NJ%coreGivesNoEmail%1,                  Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                  Freitas%FMB%coreGivesNoEmail%1,                  Guilherme%Arcaro%coreGivesNoEmail%1,                  Kang%L%coreGivesNoEmail%1,                  Lai%J%coreGivesNoEmail%1,                  Lana%RM%coreGivesNoEmail%1,                  Lara%Simone Messias Floriano%coreGivesNoEmail%1,                  Leonelli%LB%coreGivesNoEmail%1,                  Le\u00e3o%AM%coreGivesNoEmail%1,                  Liu%Y%coreGivesNoEmail%1,                  Martins%C%coreGivesNoEmail%1,                  Moura%A%coreGivesNoEmail%1,                  Oliveira%FP%coreGivesNoEmail%1,                  Pappa%S%coreGivesNoEmail%1,                  Rodriguez%EOL%coreGivesNoEmail%1,                  Ruback%SP%coreGivesNoEmail%1,                  Sena%AFJ%coreGivesNoEmail%1,                  Silva%DSD%coreGivesNoEmail%2,                  Silva%DSD%coreGivesNoEmail%0,                  Spoorthy%MS%coreGivesNoEmail%1,                  Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                  Trettene%AS%coreGivesNoEmail%1,                  Vieira%NF%coreGivesNoEmail%1,                  Wang%SM%coreGivesNoEmail%1,                  Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                   Elisa%Pedroli%NULL%1,                   Guido E.%D'Aniello%NULL%1,                   Chiara%Stramba Badiale%NULL%1,                   Giada%Pietrabissa%NULL%1,                   Chiara%Manna%NULL%1,                   Marco%Stramba Badiale%NULL%1,                   Giuseppe%Riva%NULL%1,                   Gianluca%Castelnuovo%NULL%1,                   Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                   Piotr%Krajewski%NULL%2,                   Piotr%Krajewski%NULL%0,                   Rafał%Biłynicki‐Birula%NULL%2,                   Rafał%Biłynicki‐Birula%NULL%0,                   Paweł%Poznański%NULL%2,                   Paweł%Poznański%NULL%0,                   Magdalena%Krajewska%NULL%2,                   Magdalena%Krajewska%NULL%0,                   Joanna%Rymaszewska%NULL%2,                   Joanna%Rymaszewska%NULL%0,                   Łukasz%Matusiak%NULL%2,                   Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                   Jing%Liu%NULL%0,                   Asghar%Afshar Jahanshahi%NULL%1,                   Khaled%Nawaser%NULL%1,                   Ali%Yousefi%NULL%1,                   Jizhen%Li%NULL%1,                   Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                   Eman Zmaily%Dahmash%NULL%2,                   Eman Zmaily%Dahmash%NULL%0,                   Rabaa%Al‐Rousan%NULL%2,                   Rabaa%Al‐Rousan%NULL%0,                   Hassan%Alwafi%NULL%1,                   Hamzeh Mohammad%Alrawashdeh%NULL%1,                   Imene%Ghoul%NULL%1,                   Anwer%Abidine%NULL%1,                   Mohammed A.%Bokhary%NULL%1,                   Hadeel T.%AL‐Hadithi%NULL%1,                   Dalia%Ali%NULL%1,                   Rasha%Abuthawabeh%NULL%1,                   Ghada Mohammad%Abdelwahab%NULL%1,                   Yosra J.%Alhartani%NULL%1,                   Haneen%Al Muhaisen%NULL%1,                   Ayah%Dagash%NULL%1,                   Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                   Aseem%Mehra%NULL%2,                   Aseem%Mehra%NULL%0,                   Abhash%Niraula%NULL%2,                   Abhash%Niraula%NULL%0,                   Khagendra%Kafle%NULL%2,                   Khagendra%Kafle%NULL%0,                   Saroj Prasad%Deo%NULL%2,                   Saroj Prasad%Deo%NULL%0,                   Babita%Singh%NULL%2,                   Babita%Singh%NULL%0,                   Swapnajeet%Sahoo%NULL%2,                   Swapnajeet%Sahoo%NULL%0,                   Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                   Charles W.%Goss%NULL%2,                   Charles W.%Goss%NULL%0,                   Bradley A.%Evanoff%NULL%1,                   Jaime R.%Strickland%NULL%1,                   Rebecca P.%McAlister%NULL%1,                   Jennifer%Duncan%NULL%1,                   Michio%Murakami%NULL%2,                   Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                   Grace K.H.%Lee%NULL%0,                   Benjamin Y.Q.%Tan%NULL%1,                   Mingxue%Jing%NULL%0,                   Yihui%Goh%NULL%0,                   Nicholas J.H.%Ngiam%NULL%1,                   Leonard L.L.%Yeo%NULL%0,                   Aftab%Ahmad%NULL%0,                   Faheem%Ahmed Khan%NULL%1,                   Ganesh%Napolean Shanmugam%NULL%1,                   Arvind K.%Sharma%NULL%1,                   R.N.%Komalkumar%NULL%1,                   P.V.%Meenakshi%NULL%1,                   Kenam%Shah%NULL%1,                   Bhargesh%Patel%NULL%1,                   Bernard P.L.%Chan%NULL%0,                   Sibi%Sunny%NULL%0,                   Bharatendu%Chandra%NULL%0,                   Jonathan J.Y.%Ong%NULL%0,                   Prakash R.%Paliwal%NULL%0,                   Lily Y.H.%Wong%NULL%0,                   Renarebecca%Sagayanathan%NULL%0,                   Jin Tao%Chen%NULL%0,                   Alison Ying%Ying Ng%NULL%0,                   Hock Luen%Teoh%NULL%0,                   Georgios%Tsivgoulis%NULL%1,                   Cyrus S.%Ho%NULL%0,                   Roger C.%Ho%NULL%0,                   Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2663,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2579,7 +2675,7 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3">
@@ -2596,7 +2692,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2608,7 +2704,7 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4">
@@ -2625,7 +2721,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2637,7 +2733,7 @@
         <v>351</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5">
@@ -2654,7 +2750,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2666,7 +2762,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6">
@@ -2683,7 +2779,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2695,7 +2791,7 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7">
@@ -2712,7 +2808,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2724,7 +2820,7 @@
         <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8">
@@ -2770,7 +2866,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2782,7 +2878,7 @@
         <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10">
@@ -2799,7 +2895,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2811,7 +2907,7 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11">
@@ -2828,7 +2924,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2840,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12">
@@ -2886,7 +2982,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -2898,7 +2994,7 @@
         <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14">
@@ -2915,7 +3011,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2927,7 +3023,7 @@
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15">
@@ -2944,7 +3040,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -2956,7 +3052,7 @@
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16">
@@ -2973,7 +3069,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -2985,7 +3081,7 @@
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17">
@@ -3002,7 +3098,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -3014,7 +3110,7 @@
         <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18">
@@ -3031,7 +3127,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -3043,7 +3139,7 @@
         <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19">
@@ -3060,7 +3156,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3072,7 +3168,7 @@
         <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20">
@@ -3089,7 +3185,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3101,7 +3197,7 @@
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21">
@@ -3118,7 +3214,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3130,7 +3226,7 @@
         <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22">
@@ -3147,7 +3243,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3159,7 +3255,7 @@
         <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23">
@@ -3205,7 +3301,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -3217,7 +3313,7 @@
         <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25">
@@ -3234,7 +3330,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -3246,7 +3342,7 @@
         <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26">
@@ -3263,7 +3359,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3275,7 +3371,7 @@
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27">
@@ -3292,7 +3388,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -3304,7 +3400,7 @@
         <v>146</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28">
@@ -3321,7 +3417,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -3333,7 +3429,7 @@
         <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29">
@@ -3350,7 +3446,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3362,7 +3458,7 @@
         <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30">
@@ -3379,7 +3475,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -3391,7 +3487,7 @@
         <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31">
@@ -3408,7 +3504,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3420,7 +3516,7 @@
         <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32">
@@ -3437,7 +3533,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3449,7 +3545,7 @@
         <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33">
@@ -3466,7 +3562,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -3478,7 +3574,7 @@
         <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="729">
   <si>
     <t>Doi</t>
   </si>
@@ -2325,6 +2325,93 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,                   Grace K.H.%Lee%NULL%0,                   Benjamin Y.Q.%Tan%NULL%1,                   Mingxue%Jing%NULL%0,                   Yihui%Goh%NULL%0,                   Nicholas J.H.%Ngiam%NULL%1,                   Leonard L.L.%Yeo%NULL%0,                   Aftab%Ahmad%NULL%0,                   Faheem%Ahmed Khan%NULL%1,                   Ganesh%Napolean Shanmugam%NULL%1,                   Arvind K.%Sharma%NULL%1,                   R.N.%Komalkumar%NULL%1,                   P.V.%Meenakshi%NULL%1,                   Kenam%Shah%NULL%1,                   Bhargesh%Patel%NULL%1,                   Bernard P.L.%Chan%NULL%0,                   Sibi%Sunny%NULL%0,                   Bharatendu%Chandra%NULL%0,                   Jonathan J.Y.%Ong%NULL%0,                   Prakash R.%Paliwal%NULL%0,                   Lily Y.H.%Wong%NULL%0,                   Renarebecca%Sagayanathan%NULL%0,                   Jin Tao%Chen%NULL%0,                   Alison Ying%Ying Ng%NULL%0,                   Hock Luen%Teoh%NULL%0,                   Georgios%Tsivgoulis%NULL%1,                   Cyrus S.%Ho%NULL%0,                   Roger C.%Ho%NULL%0,                   Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                    Simeng%Ma%NULL%2,                    Ying%Wang%NULL%3,                    Zhongxiang%Cai%NULL%2,                    Jianbo%Hu%NULL%1,                    Ning%Wei%NULL%1,                    Jiang%Wu%NULL%1,                    Hui%Du%NULL%0,                    Tingting%Chen%NULL%1,                    Ruiting%Li%NULL%3,                    Huawei%Tan%NULL%1,                    Lijun%Kang%NULL%2,                    Lihua%Yao%NULL%1,                    Manli%Huang%NULL%1,                    Huafen%Wang%NULL%1,                    Gaohua%Wang%NULL%1,                    Zhongchun%Liu%NULL%2,                    Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                    Lu%Dong%NULL%1,                    Tao%Wang%NULL%0,                    Chenxin%Yuan%NULL%1,                    Rao%Fu%NULL%1,                    Lei%Zhang%NULL%2,                    Bo%Liu%NULL%2,                    Mingmin%Zhang%NULL%1,                    Yuanyuan%Yin%NULL%1,                    Jiawen%Qin%NULL%1,                    Jennifer%Bouey%NULL%1,                    Min%Zhao%NULL%0,                    Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0,             Jinfeng%Miao%xref no email%0,             Hui%Wang%xref no email%0,             Shabei%Xu%xref no email%0,             Wenzhe%Sun%xref no email%0,             Yebin%Fan%xref no email%0,             Chenyan%Zhang%xref no email%0,             Suiqiang%Zhu%xref no email%0,             Zhou%Zhu%xref no email%0,             Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                    Yun-zhi%Yang%NULL%1,                    Xiao-Ming%Zhang%NULL%1,                    Xinying%Xu%NULL%2,                    Xinying%Xu%NULL%0,                    Qing-Li%Dou%NULL%1,                    Wen-Wu%Zhang%NULL%1,                    Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                    Hang%Wang%NULL%1,                    Yuxing%Lin%NULL%1,                    Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                    Jing%Xu%NULL%0,                    Bo-Zhi%Li%NULL%1,                    Jin-Sha%Huang%NULL%1,                    Yuan%Yang%NULL%2,                    Zhen-Tao%Zhang%NULL%1,                    Dong-Ai%Yao%NULL%1,                    Qun-Hui%Liu%NULL%1,                    Min%Jia%NULL%1,                    Dao-Kai%Gong%NULL%1,                    Xiao-Hong%Ni%NULL%1,                    Qi-Mei%Zhang%NULL%1,                    Fu-Rong%Shang%NULL%1,                    Nian%Xiong%NULL%0,                    Chun-Li%Zhu%NULL%1,                    Tao%Wang%wangtaowh@hust.edu.cn%0,                    Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                    Wenning%Fu%NULL%1,                    Xiaoran%Liu%NULL%1,                    Zhiqian%Luo%NULL%1,                    Rixing%Wang%NULL%1,                    Ning%Zhou%NULL%0,                    Shijiao%Yan%NULL%1,                    Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                    L%Xie%NULL%1,                    Y%Xu%NULL%1,                    S%Yu%NULL%1,                    B%Yao%professoryao@aliyun.com%1,                    D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                    Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                    Kun%Wang%NULL%1,                    Lu%Yin%NULL%1,                    Wen-feng%Zhao%NULL%1,                    Qing%Xue%NULL%1,                    Mao%Peng%NULL%1,                    Bao-quan%Min%NULL%1,                    Qing%Tian%NULL%1,                    Hai-xia%Leng%NULL%1,                    Jia-lin%Du%NULL%1,                    Hong%Chang%NULL%1,                    Yuan%Yang%NULL%0,                    Wei%Li%NULL%4,                    Fang-fang%Shangguan%NULL%1,                    Tian-yi%Yan%NULL%1,                    Hui-qing%Dong%NULL%1,                    Ying%Han%NULL%1,                    Yu-ping%Wang%NULL%1,                    Fiammetta%Cosci%NULL%1,                    Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                    Lulu%Yang%NULL%1,                    Shuai%Liu%NULL%1,                    Simeng%Ma%NULL%0,                    Ying%Wang%NULL%0,                    Zhongxiang%Cai%NULL%0,                    Hui%Du%NULL%0,                    Ruiting%Li%NULL%0,                    Lijun%Kang%NULL%0,                    Meilei%Su%NULL%1,                    Jihui%Zhang%NULL%1,                    Zhongchun%Liu%NULL%0,                    Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                    Xiaobin%Zhu%NULL%1,                    Shuai%Fu%NULL%1,                    Yugang%Hu%NULL%1,                    Xiaoning%Li%NULL%1,                    Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                    Hao%Zhou%haoye320@163.com%1,                    Yan%Zhou%NULL%1,                    Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                    Jing-wen%He%NULL%2,                    Jing-wen%He%NULL%0,                    Na%Zhou%NULL%1,                    Oliver%Schildgen.%NULL%3,                    Oliver%Schildgen.%NULL%0,                    Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                    Lin%Sun%NULL%1,                    Lan%Zhang%NULL%1,                    Huan%Wang%NULL%1,                    Ajiao%Fan%NULL%1,                    Bin%Yang%NULL%1,                    Wei%Li%NULL%0,                    Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                    Ranjan%Bhattacharyya%NULL%1,                    Sumita%Bhattacharyya%NULL%1,                    Sukanya%Gupta%NULL%1,                    Soumitra%Das%NULL%1,                    Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                    Kinshuk%Kohli%NULL%1,                    P%Padmakumari%NULL%1,                    Prashant Kumar%Dixit%NULL%1,                    Ajay Shankar%Prasad%NULL%1,                    Bharath Seshadri%Chakravarthy%NULL%1,                    Rajat%Shukla%NULL%1,                    Parthasarathi%Ghana%NULL%1,                    Debasish%Mahapatra%NULL%1,                    G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                    Jeffrey Pradeep%Raj%NULL%1,                    Seema%Rao%NULL%1,                    Murtuza%Ghiya%NULL%1,                    Nisanth Menon%Nedungalaparambil%NULL%1,                    Harshit%Mundra%NULL%1,                    Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                    John R%Adler%NULL%0,                    Ram%Sandesh%NULL%2,                    Ram%Sandesh%NULL%0,                    Wajeeha%Shahid%NULL%1,                    Kapeel%Dev%NULL%1,                    Nikeeta%Mandhan%NULL%1,                    Prem%Shankar%NULL%1,                    Anam%Shaikh%NULL%1,                    Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                    Ayşe%Kurtulmuş%NULL%1,                    Selim%Arpacıoğlu%NULL%1,                    Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                    Nicholas W.S.%Chew%NULL%1,                    Grace K.H.%Lee%NULL%2,                    Mingxue%Jing%NULL%2,                    Yihui%Goh%NULL%2,                    Leonard L.L.%Yeo%NULL%2,                    Ka%Zhang%NULL%1,                    Howe-Keat%Chin%NULL%1,                    Aftab%Ahmad%NULL%2,                    Faheem Ahmed%Khan%NULL%1,                    Ganesh Napolean%Shanmugam%NULL%1,                    Bernard P.L.%Chan%NULL%2,                    Sibi%Sunny%NULL%2,                    Bharatendu%Chandra%NULL%2,                    Jonathan J.Y.%Ong%NULL%2,                    Prakash R.%Paliwal%NULL%2,                    Lily Y.H.%Wong%NULL%2,                    Renarebecca%Sagayanathan%NULL%2,                    Jin Tao%Chen%NULL%2,                    Alison Ying%Ying Ng%NULL%2,                    Hock Luen%Teoh%NULL%2,                    Cyrus S.%Ho%NULL%2,                    Roger C.%Ho%NULL%2,                    Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                   Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                   Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                   Botega%NJ%coreGivesNoEmail%1,                   Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                   Freitas%FMB%coreGivesNoEmail%1,                   Guilherme%Arcaro%coreGivesNoEmail%1,                   Kang%L%coreGivesNoEmail%1,                   Lai%J%coreGivesNoEmail%1,                   Lana%RM%coreGivesNoEmail%1,                   Lara%Simone Messias Floriano%coreGivesNoEmail%1,                   Leonelli%LB%coreGivesNoEmail%1,                   Le\u00e3o%AM%coreGivesNoEmail%1,                   Liu%Y%coreGivesNoEmail%1,                   Martins%C%coreGivesNoEmail%1,                   Moura%A%coreGivesNoEmail%1,                   Oliveira%FP%coreGivesNoEmail%1,                   Pappa%S%coreGivesNoEmail%1,                   Rodriguez%EOL%coreGivesNoEmail%1,                   Ruback%SP%coreGivesNoEmail%1,                   Sena%AFJ%coreGivesNoEmail%1,                   Silva%DSD%coreGivesNoEmail%2,                   Silva%DSD%coreGivesNoEmail%0,                   Spoorthy%MS%coreGivesNoEmail%1,                   Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                   Trettene%AS%coreGivesNoEmail%1,                   Vieira%NF%coreGivesNoEmail%1,                   Wang%SM%coreGivesNoEmail%1,                   Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                    Elisa%Pedroli%NULL%1,                    Guido E.%D'Aniello%NULL%1,                    Chiara%Stramba Badiale%NULL%1,                    Giada%Pietrabissa%NULL%1,                    Chiara%Manna%NULL%1,                    Marco%Stramba Badiale%NULL%1,                    Giuseppe%Riva%NULL%1,                    Gianluca%Castelnuovo%NULL%1,                    Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                    Piotr%Krajewski%NULL%2,                    Piotr%Krajewski%NULL%0,                    Rafał%Biłynicki‐Birula%NULL%2,                    Rafał%Biłynicki‐Birula%NULL%0,                    Paweł%Poznański%NULL%2,                    Paweł%Poznański%NULL%0,                    Magdalena%Krajewska%NULL%2,                    Magdalena%Krajewska%NULL%0,                    Joanna%Rymaszewska%NULL%2,                    Joanna%Rymaszewska%NULL%0,                    Łukasz%Matusiak%NULL%2,                    Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                    Jing%Liu%NULL%0,                    Asghar%Afshar Jahanshahi%NULL%1,                    Khaled%Nawaser%NULL%1,                    Ali%Yousefi%NULL%1,                    Jizhen%Li%NULL%1,                    Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                    Eman Zmaily%Dahmash%NULL%2,                    Eman Zmaily%Dahmash%NULL%0,                    Rabaa%Al‐Rousan%NULL%2,                    Rabaa%Al‐Rousan%NULL%0,                    Hassan%Alwafi%NULL%1,                    Hamzeh Mohammad%Alrawashdeh%NULL%1,                    Imene%Ghoul%NULL%1,                    Anwer%Abidine%NULL%1,                    Mohammed A.%Bokhary%NULL%1,                    Hadeel T.%AL‐Hadithi%NULL%1,                    Dalia%Ali%NULL%1,                    Rasha%Abuthawabeh%NULL%1,                    Ghada Mohammad%Abdelwahab%NULL%1,                    Yosra J.%Alhartani%NULL%1,                    Haneen%Al Muhaisen%NULL%1,                    Ayah%Dagash%NULL%1,                    Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                    Aseem%Mehra%NULL%2,                    Aseem%Mehra%NULL%0,                    Abhash%Niraula%NULL%2,                    Abhash%Niraula%NULL%0,                    Khagendra%Kafle%NULL%2,                    Khagendra%Kafle%NULL%0,                    Saroj Prasad%Deo%NULL%2,                    Saroj Prasad%Deo%NULL%0,                    Babita%Singh%NULL%2,                    Babita%Singh%NULL%0,                    Swapnajeet%Sahoo%NULL%2,                    Swapnajeet%Sahoo%NULL%0,                    Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                    Charles W.%Goss%NULL%2,                    Charles W.%Goss%NULL%0,                    Bradley A.%Evanoff%NULL%1,                    Jaime R.%Strickland%NULL%1,                    Rebecca P.%McAlister%NULL%1,                    Jennifer%Duncan%NULL%1,                    Michio%Murakami%NULL%2,                    Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                    Grace K.H.%Lee%NULL%0,                    Benjamin Y.Q.%Tan%NULL%1,                    Mingxue%Jing%NULL%0,                    Yihui%Goh%NULL%0,                    Nicholas J.H.%Ngiam%NULL%1,                    Leonard L.L.%Yeo%NULL%0,                    Aftab%Ahmad%NULL%0,                    Faheem%Ahmed Khan%NULL%1,                    Ganesh%Napolean Shanmugam%NULL%1,                    Arvind K.%Sharma%NULL%1,                    R.N.%Komalkumar%NULL%1,                    P.V.%Meenakshi%NULL%1,                    Kenam%Shah%NULL%1,                    Bhargesh%Patel%NULL%1,                    Bernard P.L.%Chan%NULL%0,                    Sibi%Sunny%NULL%0,                    Bharatendu%Chandra%NULL%0,                    Jonathan J.Y.%Ong%NULL%0,                    Prakash R.%Paliwal%NULL%0,                    Lily Y.H.%Wong%NULL%0,                    Renarebecca%Sagayanathan%NULL%0,                    Jin Tao%Chen%NULL%0,                    Alison Ying%Ying Ng%NULL%0,                    Hock Luen%Teoh%NULL%0,                    Georgios%Tsivgoulis%NULL%1,                    Cyrus S.%Ho%NULL%0,                    Roger C.%Ho%NULL%0,                    Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2750,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2692,7 +2779,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2721,7 +2808,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2750,7 +2837,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2779,7 +2866,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2808,7 +2895,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2866,7 +2953,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2895,7 +2982,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2924,7 +3011,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -2982,7 +3069,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -3011,7 +3098,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -3040,7 +3127,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -3069,7 +3156,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -3098,7 +3185,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -3127,7 +3214,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -3156,7 +3243,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3185,7 +3272,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3214,7 +3301,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3243,7 +3330,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3301,7 +3388,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -3330,7 +3417,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -3359,7 +3446,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>692</v>
+        <v>721</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3388,7 +3475,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -3417,7 +3504,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -3446,7 +3533,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>695</v>
+        <v>724</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3475,7 +3562,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -3504,7 +3591,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3533,7 +3620,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3562,7 +3649,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="872">
   <si>
     <t>Doi</t>
   </si>
@@ -2412,6 +2412,435 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,                    Grace K.H.%Lee%NULL%0,                    Benjamin Y.Q.%Tan%NULL%1,                    Mingxue%Jing%NULL%0,                    Yihui%Goh%NULL%0,                    Nicholas J.H.%Ngiam%NULL%1,                    Leonard L.L.%Yeo%NULL%0,                    Aftab%Ahmad%NULL%0,                    Faheem%Ahmed Khan%NULL%1,                    Ganesh%Napolean Shanmugam%NULL%1,                    Arvind K.%Sharma%NULL%1,                    R.N.%Komalkumar%NULL%1,                    P.V.%Meenakshi%NULL%1,                    Kenam%Shah%NULL%1,                    Bhargesh%Patel%NULL%1,                    Bernard P.L.%Chan%NULL%0,                    Sibi%Sunny%NULL%0,                    Bharatendu%Chandra%NULL%0,                    Jonathan J.Y.%Ong%NULL%0,                    Prakash R.%Paliwal%NULL%0,                    Lily Y.H.%Wong%NULL%0,                    Renarebecca%Sagayanathan%NULL%0,                    Jin Tao%Chen%NULL%0,                    Alison Ying%Ying Ng%NULL%0,                    Hock Luen%Teoh%NULL%0,                    Georgios%Tsivgoulis%NULL%1,                    Cyrus S.%Ho%NULL%0,                    Roger C.%Ho%NULL%0,                    Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                     Simeng%Ma%NULL%2,                     Ying%Wang%NULL%3,                     Zhongxiang%Cai%NULL%2,                     Jianbo%Hu%NULL%1,                     Ning%Wei%NULL%1,                     Jiang%Wu%NULL%1,                     Hui%Du%NULL%0,                     Tingting%Chen%NULL%1,                     Ruiting%Li%NULL%3,                     Huawei%Tan%NULL%1,                     Lijun%Kang%NULL%2,                     Lihua%Yao%NULL%1,                     Manli%Huang%NULL%1,                     Huafen%Wang%NULL%1,                     Gaohua%Wang%NULL%1,                     Zhongchun%Liu%NULL%2,                     Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                     Lu%Dong%NULL%1,                     Tao%Wang%NULL%0,                     Chenxin%Yuan%NULL%1,                     Rao%Fu%NULL%1,                     Lei%Zhang%NULL%2,                     Bo%Liu%NULL%2,                     Mingmin%Zhang%NULL%1,                     Yuanyuan%Yin%NULL%1,                     Jiawen%Qin%NULL%1,                     Jennifer%Bouey%NULL%1,                     Min%Zhao%NULL%0,                     Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>PUBLISHER: BMJ</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                     Yun-zhi%Yang%NULL%1,                     Xiao-Ming%Zhang%NULL%1,                     Xinying%Xu%NULL%2,                     Xinying%Xu%NULL%0,                     Qing-Li%Dou%NULL%1,                     Wen-Wu%Zhang%NULL%1,                     Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                     Hang%Wang%NULL%1,                     Yuxing%Lin%NULL%1,                     Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                     Jing%Xu%NULL%0,                     Bo-Zhi%Li%NULL%1,                     Jin-Sha%Huang%NULL%1,                     Yuan%Yang%NULL%2,                     Zhen-Tao%Zhang%NULL%1,                     Dong-Ai%Yao%NULL%1,                     Qun-Hui%Liu%NULL%1,                     Min%Jia%NULL%1,                     Dao-Kai%Gong%NULL%1,                     Xiao-Hong%Ni%NULL%1,                     Qi-Mei%Zhang%NULL%1,                     Fu-Rong%Shang%NULL%1,                     Nian%Xiong%NULL%0,                     Chun-Li%Zhu%NULL%1,                     Tao%Wang%wangtaowh@hust.edu.cn%0,                     Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                     Wenning%Fu%NULL%1,                     Xiaoran%Liu%NULL%1,                     Zhiqian%Luo%NULL%1,                     Rixing%Wang%NULL%1,                     Ning%Zhou%NULL%0,                     Shijiao%Yan%NULL%1,                     Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                     L%Xie%NULL%1,                     Y%Xu%NULL%1,                     S%Yu%NULL%1,                     B%Yao%professoryao@aliyun.com%1,                     D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                     Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                     Kun%Wang%NULL%1,                     Lu%Yin%NULL%1,                     Wen-feng%Zhao%NULL%1,                     Qing%Xue%NULL%1,                     Mao%Peng%NULL%1,                     Bao-quan%Min%NULL%1,                     Qing%Tian%NULL%1,                     Hai-xia%Leng%NULL%1,                     Jia-lin%Du%NULL%1,                     Hong%Chang%NULL%1,                     Yuan%Yang%NULL%0,                     Wei%Li%NULL%4,                     Fang-fang%Shangguan%NULL%1,                     Tian-yi%Yan%NULL%1,                     Hui-qing%Dong%NULL%1,                     Ying%Han%NULL%1,                     Yu-ping%Wang%NULL%1,                     Fiammetta%Cosci%NULL%1,                     Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                     Lulu%Yang%NULL%1,                     Shuai%Liu%NULL%1,                     Simeng%Ma%NULL%0,                     Ying%Wang%NULL%0,                     Zhongxiang%Cai%NULL%0,                     Hui%Du%NULL%0,                     Ruiting%Li%NULL%0,                     Lijun%Kang%NULL%0,                     Meilei%Su%NULL%1,                     Jihui%Zhang%NULL%1,                     Zhongchun%Liu%NULL%0,                     Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                     Xiaobin%Zhu%NULL%1,                     Shuai%Fu%NULL%1,                     Yugang%Hu%NULL%1,                     Xiaoning%Li%NULL%1,                     Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                     Hao%Zhou%haoye320@163.com%1,                     Yan%Zhou%NULL%1,                     Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                     Jing-wen%He%NULL%2,                     Jing-wen%He%NULL%0,                     Na%Zhou%NULL%1,                     Oliver%Schildgen.%NULL%3,                     Oliver%Schildgen.%NULL%0,                     Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                     Lin%Sun%NULL%1,                     Lan%Zhang%NULL%1,                     Huan%Wang%NULL%1,                     Ajiao%Fan%NULL%1,                     Bin%Yang%NULL%1,                     Wei%Li%NULL%0,                     Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                     Ranjan%Bhattacharyya%NULL%1,                     Sumita%Bhattacharyya%NULL%1,                     Sukanya%Gupta%NULL%1,                     Soumitra%Das%NULL%1,                     Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                     Kinshuk%Kohli%NULL%1,                     P%Padmakumari%NULL%1,                     Prashant Kumar%Dixit%NULL%1,                     Ajay Shankar%Prasad%NULL%1,                     Bharath Seshadri%Chakravarthy%NULL%1,                     Rajat%Shukla%NULL%1,                     Parthasarathi%Ghana%NULL%1,                     Debasish%Mahapatra%NULL%1,                     G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                     Jeffrey Pradeep%Raj%NULL%1,                     Seema%Rao%NULL%1,                     Murtuza%Ghiya%NULL%1,                     Nisanth Menon%Nedungalaparambil%NULL%1,                     Harshit%Mundra%NULL%1,                     Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                     John R%Adler%NULL%0,                     Ram%Sandesh%NULL%2,                     Ram%Sandesh%NULL%0,                     Wajeeha%Shahid%NULL%1,                     Kapeel%Dev%NULL%1,                     Nikeeta%Mandhan%NULL%1,                     Prem%Shankar%NULL%1,                     Anam%Shaikh%NULL%1,                     Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                     Ayşe%Kurtulmuş%NULL%1,                     Selim%Arpacıoğlu%NULL%1,                     Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                     Nicholas W.S.%Chew%NULL%1,                     Grace K.H.%Lee%NULL%2,                     Mingxue%Jing%NULL%2,                     Yihui%Goh%NULL%2,                     Leonard L.L.%Yeo%NULL%2,                     Ka%Zhang%NULL%1,                     Howe-Keat%Chin%NULL%1,                     Aftab%Ahmad%NULL%2,                     Faheem Ahmed%Khan%NULL%1,                     Ganesh Napolean%Shanmugam%NULL%1,                     Bernard P.L.%Chan%NULL%2,                     Sibi%Sunny%NULL%2,                     Bharatendu%Chandra%NULL%2,                     Jonathan J.Y.%Ong%NULL%2,                     Prakash R.%Paliwal%NULL%2,                     Lily Y.H.%Wong%NULL%2,                     Renarebecca%Sagayanathan%NULL%2,                     Jin Tao%Chen%NULL%2,                     Alison Ying%Ying Ng%NULL%2,                     Hock Luen%Teoh%NULL%2,                     Cyrus S.%Ho%NULL%2,                     Roger C.%Ho%NULL%2,                     Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                    Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                    Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                    Botega%NJ%coreGivesNoEmail%1,                    Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                    Freitas%FMB%coreGivesNoEmail%1,                    Guilherme%Arcaro%coreGivesNoEmail%1,                    Kang%L%coreGivesNoEmail%1,                    Lai%J%coreGivesNoEmail%1,                    Lana%RM%coreGivesNoEmail%1,                    Lara%Simone Messias Floriano%coreGivesNoEmail%1,                    Leonelli%LB%coreGivesNoEmail%1,                    Le\u00e3o%AM%coreGivesNoEmail%1,                    Liu%Y%coreGivesNoEmail%1,                    Martins%C%coreGivesNoEmail%1,                    Moura%A%coreGivesNoEmail%1,                    Oliveira%FP%coreGivesNoEmail%1,                    Pappa%S%coreGivesNoEmail%1,                    Rodriguez%EOL%coreGivesNoEmail%1,                    Ruback%SP%coreGivesNoEmail%1,                    Sena%AFJ%coreGivesNoEmail%1,                    Silva%DSD%coreGivesNoEmail%2,                    Silva%DSD%coreGivesNoEmail%0,                    Spoorthy%MS%coreGivesNoEmail%1,                    Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                    Trettene%AS%coreGivesNoEmail%1,                    Vieira%NF%coreGivesNoEmail%1,                    Wang%SM%coreGivesNoEmail%1,                    Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                     Elisa%Pedroli%NULL%1,                     Guido E.%D'Aniello%NULL%1,                     Chiara%Stramba Badiale%NULL%1,                     Giada%Pietrabissa%NULL%1,                     Chiara%Manna%NULL%1,                     Marco%Stramba Badiale%NULL%1,                     Giuseppe%Riva%NULL%1,                     Gianluca%Castelnuovo%NULL%1,                     Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                     Piotr%Krajewski%NULL%2,                     Piotr%Krajewski%NULL%0,                     Rafał%Biłynicki‐Birula%NULL%2,                     Rafał%Biłynicki‐Birula%NULL%0,                     Paweł%Poznański%NULL%2,                     Paweł%Poznański%NULL%0,                     Magdalena%Krajewska%NULL%2,                     Magdalena%Krajewska%NULL%0,                     Joanna%Rymaszewska%NULL%2,                     Joanna%Rymaszewska%NULL%0,                     Łukasz%Matusiak%NULL%2,                     Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                     Jing%Liu%NULL%0,                     Asghar%Afshar Jahanshahi%NULL%1,                     Khaled%Nawaser%NULL%1,                     Ali%Yousefi%NULL%1,                     Jizhen%Li%NULL%1,                     Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                     Eman Zmaily%Dahmash%NULL%2,                     Eman Zmaily%Dahmash%NULL%0,                     Rabaa%Al‐Rousan%NULL%2,                     Rabaa%Al‐Rousan%NULL%0,                     Hassan%Alwafi%NULL%1,                     Hamzeh Mohammad%Alrawashdeh%NULL%1,                     Imene%Ghoul%NULL%1,                     Anwer%Abidine%NULL%1,                     Mohammed A.%Bokhary%NULL%1,                     Hadeel T.%AL‐Hadithi%NULL%1,                     Dalia%Ali%NULL%1,                     Rasha%Abuthawabeh%NULL%1,                     Ghada Mohammad%Abdelwahab%NULL%1,                     Yosra J.%Alhartani%NULL%1,                     Haneen%Al Muhaisen%NULL%1,                     Ayah%Dagash%NULL%1,                     Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                     Aseem%Mehra%NULL%2,                     Aseem%Mehra%NULL%0,                     Abhash%Niraula%NULL%2,                     Abhash%Niraula%NULL%0,                     Khagendra%Kafle%NULL%2,                     Khagendra%Kafle%NULL%0,                     Saroj Prasad%Deo%NULL%2,                     Saroj Prasad%Deo%NULL%0,                     Babita%Singh%NULL%2,                     Babita%Singh%NULL%0,                     Swapnajeet%Sahoo%NULL%2,                     Swapnajeet%Sahoo%NULL%0,                     Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                     Charles W.%Goss%NULL%2,                     Charles W.%Goss%NULL%0,                     Bradley A.%Evanoff%NULL%1,                     Jaime R.%Strickland%NULL%1,                     Rebecca P.%McAlister%NULL%1,                     Jennifer%Duncan%NULL%1,                     Michio%Murakami%NULL%2,                     Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                     Grace K.H.%Lee%NULL%0,                     Benjamin Y.Q.%Tan%NULL%1,                     Mingxue%Jing%NULL%0,                     Yihui%Goh%NULL%0,                     Nicholas J.H.%Ngiam%NULL%1,                     Leonard L.L.%Yeo%NULL%0,                     Aftab%Ahmad%NULL%0,                     Faheem%Ahmed Khan%NULL%1,                     Ganesh%Napolean Shanmugam%NULL%1,                     Arvind K.%Sharma%NULL%1,                     R.N.%Komalkumar%NULL%1,                     P.V.%Meenakshi%NULL%1,                     Kenam%Shah%NULL%1,                     Bhargesh%Patel%NULL%1,                     Bernard P.L.%Chan%NULL%0,                     Sibi%Sunny%NULL%0,                     Bharatendu%Chandra%NULL%0,                     Jonathan J.Y.%Ong%NULL%0,                     Prakash R.%Paliwal%NULL%0,                     Lily Y.H.%Wong%NULL%0,                     Renarebecca%Sagayanathan%NULL%0,                     Jin Tao%Chen%NULL%0,                     Alison Ying%Ying Ng%NULL%0,                     Hock Luen%Teoh%NULL%0,                     Georgios%Tsivgoulis%NULL%1,                     Cyrus S.%Ho%NULL%0,                     Roger C.%Ho%NULL%0,                     Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                      Simeng%Ma%NULL%2,                      Ying%Wang%NULL%3,                      Zhongxiang%Cai%NULL%2,                      Jianbo%Hu%NULL%1,                      Ning%Wei%NULL%1,                      Jiang%Wu%NULL%1,                      Hui%Du%NULL%0,                      Tingting%Chen%NULL%1,                      Ruiting%Li%NULL%3,                      Huawei%Tan%NULL%1,                      Lijun%Kang%NULL%2,                      Lihua%Yao%NULL%1,                      Manli%Huang%NULL%1,                      Huafen%Wang%NULL%1,                      Gaohua%Wang%NULL%1,                      Zhongchun%Liu%NULL%2,                      Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                      Lu%Dong%NULL%1,                      Tao%Wang%NULL%0,                      Chenxin%Yuan%NULL%1,                      Rao%Fu%NULL%1,                      Lei%Zhang%NULL%2,                      Bo%Liu%NULL%2,                      Mingmin%Zhang%NULL%1,                      Yuanyuan%Yin%NULL%1,                      Jiawen%Qin%NULL%1,                      Jennifer%Bouey%NULL%1,                      Min%Zhao%NULL%0,                      Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                      Yun-zhi%Yang%NULL%1,                      Xiao-Ming%Zhang%NULL%1,                      Xinying%Xu%NULL%2,                      Xinying%Xu%NULL%0,                      Qing-Li%Dou%NULL%1,                      Wen-Wu%Zhang%NULL%1,                      Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                      Hang%Wang%NULL%1,                      Yuxing%Lin%NULL%1,                      Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                      Jing%Xu%NULL%0,                      Bo-Zhi%Li%NULL%1,                      Jin-Sha%Huang%NULL%1,                      Yuan%Yang%NULL%2,                      Zhen-Tao%Zhang%NULL%1,                      Dong-Ai%Yao%NULL%1,                      Qun-Hui%Liu%NULL%1,                      Min%Jia%NULL%1,                      Dao-Kai%Gong%NULL%1,                      Xiao-Hong%Ni%NULL%1,                      Qi-Mei%Zhang%NULL%1,                      Fu-Rong%Shang%NULL%1,                      Nian%Xiong%NULL%0,                      Chun-Li%Zhu%NULL%1,                      Tao%Wang%wangtaowh@hust.edu.cn%0,                      Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                      Wenning%Fu%NULL%1,                      Xiaoran%Liu%NULL%1,                      Zhiqian%Luo%NULL%1,                      Rixing%Wang%NULL%1,                      Ning%Zhou%NULL%0,                      Shijiao%Yan%NULL%1,                      Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                      L%Xie%NULL%1,                      Y%Xu%NULL%1,                      S%Yu%NULL%1,                      B%Yao%professoryao@aliyun.com%1,                      D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                      Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                      Kun%Wang%NULL%1,                      Lu%Yin%NULL%1,                      Wen-feng%Zhao%NULL%1,                      Qing%Xue%NULL%1,                      Mao%Peng%NULL%1,                      Bao-quan%Min%NULL%1,                      Qing%Tian%NULL%1,                      Hai-xia%Leng%NULL%1,                      Jia-lin%Du%NULL%1,                      Hong%Chang%NULL%1,                      Yuan%Yang%NULL%0,                      Wei%Li%NULL%4,                      Fang-fang%Shangguan%NULL%1,                      Tian-yi%Yan%NULL%1,                      Hui-qing%Dong%NULL%1,                      Ying%Han%NULL%1,                      Yu-ping%Wang%NULL%1,                      Fiammetta%Cosci%NULL%1,                      Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                      Lulu%Yang%NULL%1,                      Shuai%Liu%NULL%1,                      Simeng%Ma%NULL%0,                      Ying%Wang%NULL%0,                      Zhongxiang%Cai%NULL%0,                      Hui%Du%NULL%0,                      Ruiting%Li%NULL%0,                      Lijun%Kang%NULL%0,                      Meilei%Su%NULL%1,                      Jihui%Zhang%NULL%1,                      Zhongchun%Liu%NULL%0,                      Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                      Xiaobin%Zhu%NULL%1,                      Shuai%Fu%NULL%1,                      Yugang%Hu%NULL%1,                      Xiaoning%Li%NULL%1,                      Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                      Hao%Zhou%haoye320@163.com%1,                      Yan%Zhou%NULL%1,                      Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                      Jing-wen%He%NULL%2,                      Jing-wen%He%NULL%0,                      Na%Zhou%NULL%1,                      Oliver%Schildgen.%NULL%3,                      Oliver%Schildgen.%NULL%0,                      Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                      Lin%Sun%NULL%1,                      Lan%Zhang%NULL%1,                      Huan%Wang%NULL%1,                      Ajiao%Fan%NULL%1,                      Bin%Yang%NULL%1,                      Wei%Li%NULL%0,                      Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                      Ranjan%Bhattacharyya%NULL%1,                      Sumita%Bhattacharyya%NULL%1,                      Sukanya%Gupta%NULL%1,                      Soumitra%Das%NULL%1,                      Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                      Kinshuk%Kohli%NULL%1,                      P%Padmakumari%NULL%1,                      Prashant Kumar%Dixit%NULL%1,                      Ajay Shankar%Prasad%NULL%1,                      Bharath Seshadri%Chakravarthy%NULL%1,                      Rajat%Shukla%NULL%1,                      Parthasarathi%Ghana%NULL%1,                      Debasish%Mahapatra%NULL%1,                      G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                      Jeffrey Pradeep%Raj%NULL%1,                      Seema%Rao%NULL%1,                      Murtuza%Ghiya%NULL%1,                      Nisanth Menon%Nedungalaparambil%NULL%1,                      Harshit%Mundra%NULL%1,                      Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                      John R%Adler%NULL%0,                      Ram%Sandesh%NULL%2,                      Ram%Sandesh%NULL%0,                      Wajeeha%Shahid%NULL%1,                      Kapeel%Dev%NULL%1,                      Nikeeta%Mandhan%NULL%1,                      Prem%Shankar%NULL%1,                      Anam%Shaikh%NULL%1,                      Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                      Ayşe%Kurtulmuş%NULL%1,                      Selim%Arpacıoğlu%NULL%1,                      Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                      Nicholas W.S.%Chew%NULL%1,                      Grace K.H.%Lee%NULL%2,                      Mingxue%Jing%NULL%2,                      Yihui%Goh%NULL%2,                      Leonard L.L.%Yeo%NULL%2,                      Ka%Zhang%NULL%1,                      Howe-Keat%Chin%NULL%1,                      Aftab%Ahmad%NULL%2,                      Faheem Ahmed%Khan%NULL%1,                      Ganesh Napolean%Shanmugam%NULL%1,                      Bernard P.L.%Chan%NULL%2,                      Sibi%Sunny%NULL%2,                      Bharatendu%Chandra%NULL%2,                      Jonathan J.Y.%Ong%NULL%2,                      Prakash R.%Paliwal%NULL%2,                      Lily Y.H.%Wong%NULL%2,                      Renarebecca%Sagayanathan%NULL%2,                      Jin Tao%Chen%NULL%2,                      Alison Ying%Ying Ng%NULL%2,                      Hock Luen%Teoh%NULL%2,                      Cyrus S.%Ho%NULL%2,                      Roger C.%Ho%NULL%2,                      Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                     Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                     Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                     Botega%NJ%coreGivesNoEmail%1,                     Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                     Freitas%FMB%coreGivesNoEmail%1,                     Guilherme%Arcaro%coreGivesNoEmail%1,                     Kang%L%coreGivesNoEmail%1,                     Lai%J%coreGivesNoEmail%1,                     Lana%RM%coreGivesNoEmail%1,                     Lara%Simone Messias Floriano%coreGivesNoEmail%1,                     Leonelli%LB%coreGivesNoEmail%1,                     Le\u00e3o%AM%coreGivesNoEmail%1,                     Liu%Y%coreGivesNoEmail%1,                     Martins%C%coreGivesNoEmail%1,                     Moura%A%coreGivesNoEmail%1,                     Oliveira%FP%coreGivesNoEmail%1,                     Pappa%S%coreGivesNoEmail%1,                     Rodriguez%EOL%coreGivesNoEmail%1,                     Ruback%SP%coreGivesNoEmail%1,                     Sena%AFJ%coreGivesNoEmail%1,                     Silva%DSD%coreGivesNoEmail%2,                     Silva%DSD%coreGivesNoEmail%0,                     Spoorthy%MS%coreGivesNoEmail%1,                     Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                     Trettene%AS%coreGivesNoEmail%1,                     Vieira%NF%coreGivesNoEmail%1,                     Wang%SM%coreGivesNoEmail%1,                     Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                      Elisa%Pedroli%NULL%1,                      Guido E.%D'Aniello%NULL%1,                      Chiara%Stramba Badiale%NULL%1,                      Giada%Pietrabissa%NULL%1,                      Chiara%Manna%NULL%1,                      Marco%Stramba Badiale%NULL%1,                      Giuseppe%Riva%NULL%1,                      Gianluca%Castelnuovo%NULL%1,                      Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                      Piotr%Krajewski%NULL%2,                      Piotr%Krajewski%NULL%0,                      Rafał%Biłynicki‐Birula%NULL%2,                      Rafał%Biłynicki‐Birula%NULL%0,                      Paweł%Poznański%NULL%2,                      Paweł%Poznański%NULL%0,                      Magdalena%Krajewska%NULL%2,                      Magdalena%Krajewska%NULL%0,                      Joanna%Rymaszewska%NULL%2,                      Joanna%Rymaszewska%NULL%0,                      Łukasz%Matusiak%NULL%2,                      Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                      Jing%Liu%NULL%0,                      Asghar%Afshar Jahanshahi%NULL%1,                      Khaled%Nawaser%NULL%1,                      Ali%Yousefi%NULL%1,                      Jizhen%Li%NULL%1,                      Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                      Eman Zmaily%Dahmash%NULL%2,                      Eman Zmaily%Dahmash%NULL%0,                      Rabaa%Al‐Rousan%NULL%2,                      Rabaa%Al‐Rousan%NULL%0,                      Hassan%Alwafi%NULL%1,                      Hamzeh Mohammad%Alrawashdeh%NULL%1,                      Imene%Ghoul%NULL%1,                      Anwer%Abidine%NULL%1,                      Mohammed A.%Bokhary%NULL%1,                      Hadeel T.%AL‐Hadithi%NULL%1,                      Dalia%Ali%NULL%1,                      Rasha%Abuthawabeh%NULL%1,                      Ghada Mohammad%Abdelwahab%NULL%1,                      Yosra J.%Alhartani%NULL%1,                      Haneen%Al Muhaisen%NULL%1,                      Ayah%Dagash%NULL%1,                      Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                      Aseem%Mehra%NULL%2,                      Aseem%Mehra%NULL%0,                      Abhash%Niraula%NULL%2,                      Abhash%Niraula%NULL%0,                      Khagendra%Kafle%NULL%2,                      Khagendra%Kafle%NULL%0,                      Saroj Prasad%Deo%NULL%2,                      Saroj Prasad%Deo%NULL%0,                      Babita%Singh%NULL%2,                      Babita%Singh%NULL%0,                      Swapnajeet%Sahoo%NULL%2,                      Swapnajeet%Sahoo%NULL%0,                      Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                      Charles W.%Goss%NULL%2,                      Charles W.%Goss%NULL%0,                      Bradley A.%Evanoff%NULL%1,                      Jaime R.%Strickland%NULL%1,                      Rebecca P.%McAlister%NULL%1,                      Jennifer%Duncan%NULL%1,                      Michio%Murakami%NULL%2,                      Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                      Grace K.H.%Lee%NULL%0,                      Benjamin Y.Q.%Tan%NULL%1,                      Mingxue%Jing%NULL%0,                      Yihui%Goh%NULL%0,                      Nicholas J.H.%Ngiam%NULL%1,                      Leonard L.L.%Yeo%NULL%0,                      Aftab%Ahmad%NULL%0,                      Faheem%Ahmed Khan%NULL%1,                      Ganesh%Napolean Shanmugam%NULL%1,                      Arvind K.%Sharma%NULL%1,                      R.N.%Komalkumar%NULL%1,                      P.V.%Meenakshi%NULL%1,                      Kenam%Shah%NULL%1,                      Bhargesh%Patel%NULL%1,                      Bernard P.L.%Chan%NULL%0,                      Sibi%Sunny%NULL%0,                      Bharatendu%Chandra%NULL%0,                      Jonathan J.Y.%Ong%NULL%0,                      Prakash R.%Paliwal%NULL%0,                      Lily Y.H.%Wong%NULL%0,                      Renarebecca%Sagayanathan%NULL%0,                      Jin Tao%Chen%NULL%0,                      Alison Ying%Ying Ng%NULL%0,                      Hock Luen%Teoh%NULL%0,                      Georgios%Tsivgoulis%NULL%1,                      Cyrus S.%Ho%NULL%0,                      Roger C.%Ho%NULL%0,                      Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                       Simeng%Ma%NULL%2,                       Ying%Wang%NULL%3,                       Zhongxiang%Cai%NULL%2,                       Jianbo%Hu%NULL%1,                       Ning%Wei%NULL%1,                       Jiang%Wu%NULL%1,                       Hui%Du%NULL%0,                       Tingting%Chen%NULL%1,                       Ruiting%Li%NULL%3,                       Huawei%Tan%NULL%1,                       Lijun%Kang%NULL%2,                       Lihua%Yao%NULL%1,                       Manli%Huang%NULL%1,                       Huafen%Wang%NULL%1,                       Gaohua%Wang%NULL%1,                       Zhongchun%Liu%NULL%2,                       Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                       Lu%Dong%NULL%1,                       Tao%Wang%NULL%0,                       Chenxin%Yuan%NULL%1,                       Rao%Fu%NULL%1,                       Lei%Zhang%NULL%2,                       Bo%Liu%NULL%2,                       Mingmin%Zhang%NULL%1,                       Yuanyuan%Yin%NULL%1,                       Jiawen%Qin%NULL%1,                       Jennifer%Bouey%NULL%1,                       Min%Zhao%NULL%0,                       Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                       Yun-zhi%Yang%NULL%1,                       Xiao-Ming%Zhang%NULL%1,                       Xinying%Xu%NULL%2,                       Xinying%Xu%NULL%0,                       Qing-Li%Dou%NULL%1,                       Wen-Wu%Zhang%NULL%1,                       Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                       Hang%Wang%NULL%1,                       Yuxing%Lin%NULL%1,                       Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                       Jing%Xu%NULL%0,                       Bo-Zhi%Li%NULL%1,                       Jin-Sha%Huang%NULL%1,                       Yuan%Yang%NULL%2,                       Zhen-Tao%Zhang%NULL%1,                       Dong-Ai%Yao%NULL%1,                       Qun-Hui%Liu%NULL%1,                       Min%Jia%NULL%1,                       Dao-Kai%Gong%NULL%1,                       Xiao-Hong%Ni%NULL%1,                       Qi-Mei%Zhang%NULL%1,                       Fu-Rong%Shang%NULL%1,                       Nian%Xiong%NULL%0,                       Chun-Li%Zhu%NULL%1,                       Tao%Wang%wangtaowh@hust.edu.cn%0,                       Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                       Wenning%Fu%NULL%1,                       Xiaoran%Liu%NULL%1,                       Zhiqian%Luo%NULL%1,                       Rixing%Wang%NULL%1,                       Ning%Zhou%NULL%0,                       Shijiao%Yan%NULL%1,                       Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                       L%Xie%NULL%1,                       Y%Xu%NULL%1,                       S%Yu%NULL%1,                       B%Yao%professoryao@aliyun.com%1,                       D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                       Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                       Kun%Wang%NULL%1,                       Lu%Yin%NULL%1,                       Wen-feng%Zhao%NULL%1,                       Qing%Xue%NULL%1,                       Mao%Peng%NULL%1,                       Bao-quan%Min%NULL%1,                       Qing%Tian%NULL%1,                       Hai-xia%Leng%NULL%1,                       Jia-lin%Du%NULL%1,                       Hong%Chang%NULL%1,                       Yuan%Yang%NULL%0,                       Wei%Li%NULL%4,                       Fang-fang%Shangguan%NULL%1,                       Tian-yi%Yan%NULL%1,                       Hui-qing%Dong%NULL%1,                       Ying%Han%NULL%1,                       Yu-ping%Wang%NULL%1,                       Fiammetta%Cosci%NULL%1,                       Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                       Lulu%Yang%NULL%1,                       Shuai%Liu%NULL%1,                       Simeng%Ma%NULL%0,                       Ying%Wang%NULL%0,                       Zhongxiang%Cai%NULL%0,                       Hui%Du%NULL%0,                       Ruiting%Li%NULL%0,                       Lijun%Kang%NULL%0,                       Meilei%Su%NULL%1,                       Jihui%Zhang%NULL%1,                       Zhongchun%Liu%NULL%0,                       Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                       Xiaobin%Zhu%NULL%1,                       Shuai%Fu%NULL%1,                       Yugang%Hu%NULL%1,                       Xiaoning%Li%NULL%1,                       Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                       Hao%Zhou%haoye320@163.com%1,                       Yan%Zhou%NULL%1,                       Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                       Jing-wen%He%NULL%2,                       Jing-wen%He%NULL%0,                       Na%Zhou%NULL%1,                       Oliver%Schildgen.%NULL%3,                       Oliver%Schildgen.%NULL%0,                       Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                       Lin%Sun%NULL%1,                       Lan%Zhang%NULL%1,                       Huan%Wang%NULL%1,                       Ajiao%Fan%NULL%1,                       Bin%Yang%NULL%1,                       Wei%Li%NULL%0,                       Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                       Ranjan%Bhattacharyya%NULL%1,                       Sumita%Bhattacharyya%NULL%1,                       Sukanya%Gupta%NULL%1,                       Soumitra%Das%NULL%1,                       Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                       Kinshuk%Kohli%NULL%1,                       P%Padmakumari%NULL%1,                       Prashant Kumar%Dixit%NULL%1,                       Ajay Shankar%Prasad%NULL%1,                       Bharath Seshadri%Chakravarthy%NULL%1,                       Rajat%Shukla%NULL%1,                       Parthasarathi%Ghana%NULL%1,                       Debasish%Mahapatra%NULL%1,                       G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                       Jeffrey Pradeep%Raj%NULL%1,                       Seema%Rao%NULL%1,                       Murtuza%Ghiya%NULL%1,                       Nisanth Menon%Nedungalaparambil%NULL%1,                       Harshit%Mundra%NULL%1,                       Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                       John R%Adler%NULL%0,                       Ram%Sandesh%NULL%2,                       Ram%Sandesh%NULL%0,                       Wajeeha%Shahid%NULL%1,                       Kapeel%Dev%NULL%1,                       Nikeeta%Mandhan%NULL%1,                       Prem%Shankar%NULL%1,                       Anam%Shaikh%NULL%1,                       Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                       Ayşe%Kurtulmuş%NULL%1,                       Selim%Arpacıoğlu%NULL%1,                       Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                       Nicholas W.S.%Chew%NULL%1,                       Grace K.H.%Lee%NULL%2,                       Mingxue%Jing%NULL%2,                       Yihui%Goh%NULL%2,                       Leonard L.L.%Yeo%NULL%2,                       Ka%Zhang%NULL%1,                       Howe-Keat%Chin%NULL%1,                       Aftab%Ahmad%NULL%2,                       Faheem Ahmed%Khan%NULL%1,                       Ganesh Napolean%Shanmugam%NULL%1,                       Bernard P.L.%Chan%NULL%2,                       Sibi%Sunny%NULL%2,                       Bharatendu%Chandra%NULL%2,                       Jonathan J.Y.%Ong%NULL%2,                       Prakash R.%Paliwal%NULL%2,                       Lily Y.H.%Wong%NULL%2,                       Renarebecca%Sagayanathan%NULL%2,                       Jin Tao%Chen%NULL%2,                       Alison Ying%Ying Ng%NULL%2,                       Hock Luen%Teoh%NULL%2,                       Cyrus S.%Ho%NULL%2,                       Roger C.%Ho%NULL%2,                       Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                      Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                      Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                      Botega%NJ%coreGivesNoEmail%1,                      Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                      Freitas%FMB%coreGivesNoEmail%1,                      Guilherme%Arcaro%coreGivesNoEmail%1,                      Kang%L%coreGivesNoEmail%1,                      Lai%J%coreGivesNoEmail%1,                      Lana%RM%coreGivesNoEmail%1,                      Lara%Simone Messias Floriano%coreGivesNoEmail%1,                      Leonelli%LB%coreGivesNoEmail%1,                      Le\u00e3o%AM%coreGivesNoEmail%1,                      Liu%Y%coreGivesNoEmail%1,                      Martins%C%coreGivesNoEmail%1,                      Moura%A%coreGivesNoEmail%1,                      Oliveira%FP%coreGivesNoEmail%1,                      Pappa%S%coreGivesNoEmail%1,                      Rodriguez%EOL%coreGivesNoEmail%1,                      Ruback%SP%coreGivesNoEmail%1,                      Sena%AFJ%coreGivesNoEmail%1,                      Silva%DSD%coreGivesNoEmail%2,                      Silva%DSD%coreGivesNoEmail%0,                      Spoorthy%MS%coreGivesNoEmail%1,                      Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                      Trettene%AS%coreGivesNoEmail%1,                      Vieira%NF%coreGivesNoEmail%1,                      Wang%SM%coreGivesNoEmail%1,                      Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                       Elisa%Pedroli%NULL%1,                       Guido E.%D'Aniello%NULL%1,                       Chiara%Stramba Badiale%NULL%1,                       Giada%Pietrabissa%NULL%1,                       Chiara%Manna%NULL%1,                       Marco%Stramba Badiale%NULL%1,                       Giuseppe%Riva%NULL%1,                       Gianluca%Castelnuovo%NULL%1,                       Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                       Piotr%Krajewski%NULL%2,                       Piotr%Krajewski%NULL%0,                       Rafał%Biłynicki‐Birula%NULL%2,                       Rafał%Biłynicki‐Birula%NULL%0,                       Paweł%Poznański%NULL%2,                       Paweł%Poznański%NULL%0,                       Magdalena%Krajewska%NULL%2,                       Magdalena%Krajewska%NULL%0,                       Joanna%Rymaszewska%NULL%2,                       Joanna%Rymaszewska%NULL%0,                       Łukasz%Matusiak%NULL%2,                       Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                       Jing%Liu%NULL%0,                       Asghar%Afshar Jahanshahi%NULL%1,                       Khaled%Nawaser%NULL%1,                       Ali%Yousefi%NULL%1,                       Jizhen%Li%NULL%1,                       Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                       Eman Zmaily%Dahmash%NULL%2,                       Eman Zmaily%Dahmash%NULL%0,                       Rabaa%Al‐Rousan%NULL%2,                       Rabaa%Al‐Rousan%NULL%0,                       Hassan%Alwafi%NULL%1,                       Hamzeh Mohammad%Alrawashdeh%NULL%1,                       Imene%Ghoul%NULL%1,                       Anwer%Abidine%NULL%1,                       Mohammed A.%Bokhary%NULL%1,                       Hadeel T.%AL‐Hadithi%NULL%1,                       Dalia%Ali%NULL%1,                       Rasha%Abuthawabeh%NULL%1,                       Ghada Mohammad%Abdelwahab%NULL%1,                       Yosra J.%Alhartani%NULL%1,                       Haneen%Al Muhaisen%NULL%1,                       Ayah%Dagash%NULL%1,                       Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                       Aseem%Mehra%NULL%2,                       Aseem%Mehra%NULL%0,                       Abhash%Niraula%NULL%2,                       Abhash%Niraula%NULL%0,                       Khagendra%Kafle%NULL%2,                       Khagendra%Kafle%NULL%0,                       Saroj Prasad%Deo%NULL%2,                       Saroj Prasad%Deo%NULL%0,                       Babita%Singh%NULL%2,                       Babita%Singh%NULL%0,                       Swapnajeet%Sahoo%NULL%2,                       Swapnajeet%Sahoo%NULL%0,                       Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                       Charles W.%Goss%NULL%2,                       Charles W.%Goss%NULL%0,                       Bradley A.%Evanoff%NULL%1,                       Jaime R.%Strickland%NULL%1,                       Rebecca P.%McAlister%NULL%1,                       Jennifer%Duncan%NULL%1,                       Michio%Murakami%NULL%2,                       Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                       Grace K.H.%Lee%NULL%0,                       Benjamin Y.Q.%Tan%NULL%1,                       Mingxue%Jing%NULL%0,                       Yihui%Goh%NULL%0,                       Nicholas J.H.%Ngiam%NULL%1,                       Leonard L.L.%Yeo%NULL%0,                       Aftab%Ahmad%NULL%0,                       Faheem%Ahmed Khan%NULL%1,                       Ganesh%Napolean Shanmugam%NULL%1,                       Arvind K.%Sharma%NULL%1,                       R.N.%Komalkumar%NULL%1,                       P.V.%Meenakshi%NULL%1,                       Kenam%Shah%NULL%1,                       Bhargesh%Patel%NULL%1,                       Bernard P.L.%Chan%NULL%0,                       Sibi%Sunny%NULL%0,                       Bharatendu%Chandra%NULL%0,                       Jonathan J.Y.%Ong%NULL%0,                       Prakash R.%Paliwal%NULL%0,                       Lily Y.H.%Wong%NULL%0,                       Renarebecca%Sagayanathan%NULL%0,                       Jin Tao%Chen%NULL%0,                       Alison Ying%Ying Ng%NULL%0,                       Hock Luen%Teoh%NULL%0,                       Georgios%Tsivgoulis%NULL%1,                       Cyrus S.%Ho%NULL%0,                       Roger C.%Ho%NULL%0,                       Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                        Simeng%Ma%NULL%2,                        Ying%Wang%NULL%3,                        Zhongxiang%Cai%NULL%2,                        Jianbo%Hu%NULL%1,                        Ning%Wei%NULL%1,                        Jiang%Wu%NULL%1,                        Hui%Du%NULL%0,                        Tingting%Chen%NULL%1,                        Ruiting%Li%NULL%3,                        Huawei%Tan%NULL%1,                        Lijun%Kang%NULL%2,                        Lihua%Yao%NULL%1,                        Manli%Huang%NULL%1,                        Huafen%Wang%NULL%1,                        Gaohua%Wang%NULL%1,                        Zhongchun%Liu%NULL%2,                        Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                        Lu%Dong%NULL%1,                        Tao%Wang%NULL%0,                        Chenxin%Yuan%NULL%1,                        Rao%Fu%NULL%1,                        Lei%Zhang%NULL%2,                        Bo%Liu%NULL%2,                        Mingmin%Zhang%NULL%1,                        Yuanyuan%Yin%NULL%1,                        Jiawen%Qin%NULL%1,                        Jennifer%Bouey%NULL%1,                        Min%Zhao%NULL%0,                        Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                        Yun-zhi%Yang%NULL%1,                        Xiao-Ming%Zhang%NULL%1,                        Xinying%Xu%NULL%2,                        Xinying%Xu%NULL%0,                        Qing-Li%Dou%NULL%1,                        Wen-Wu%Zhang%NULL%1,                        Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                        Hang%Wang%NULL%1,                        Yuxing%Lin%NULL%1,                        Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                        Jing%Xu%NULL%0,                        Bo-Zhi%Li%NULL%1,                        Jin-Sha%Huang%NULL%1,                        Yuan%Yang%NULL%2,                        Zhen-Tao%Zhang%NULL%1,                        Dong-Ai%Yao%NULL%1,                        Qun-Hui%Liu%NULL%1,                        Min%Jia%NULL%1,                        Dao-Kai%Gong%NULL%1,                        Xiao-Hong%Ni%NULL%1,                        Qi-Mei%Zhang%NULL%1,                        Fu-Rong%Shang%NULL%1,                        Nian%Xiong%NULL%0,                        Chun-Li%Zhu%NULL%1,                        Tao%Wang%wangtaowh@hust.edu.cn%0,                        Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                        Wenning%Fu%NULL%1,                        Xiaoran%Liu%NULL%1,                        Zhiqian%Luo%NULL%1,                        Rixing%Wang%NULL%1,                        Ning%Zhou%NULL%0,                        Shijiao%Yan%NULL%1,                        Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                        L%Xie%NULL%1,                        Y%Xu%NULL%1,                        S%Yu%NULL%1,                        B%Yao%professoryao@aliyun.com%1,                        D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                        Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                        Kun%Wang%NULL%1,                        Lu%Yin%NULL%1,                        Wen-feng%Zhao%NULL%1,                        Qing%Xue%NULL%1,                        Mao%Peng%NULL%1,                        Bao-quan%Min%NULL%1,                        Qing%Tian%NULL%1,                        Hai-xia%Leng%NULL%1,                        Jia-lin%Du%NULL%1,                        Hong%Chang%NULL%1,                        Yuan%Yang%NULL%0,                        Wei%Li%NULL%4,                        Fang-fang%Shangguan%NULL%1,                        Tian-yi%Yan%NULL%1,                        Hui-qing%Dong%NULL%1,                        Ying%Han%NULL%1,                        Yu-ping%Wang%NULL%1,                        Fiammetta%Cosci%NULL%1,                        Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                        Lulu%Yang%NULL%1,                        Shuai%Liu%NULL%1,                        Simeng%Ma%NULL%0,                        Ying%Wang%NULL%0,                        Zhongxiang%Cai%NULL%0,                        Hui%Du%NULL%0,                        Ruiting%Li%NULL%0,                        Lijun%Kang%NULL%0,                        Meilei%Su%NULL%1,                        Jihui%Zhang%NULL%1,                        Zhongchun%Liu%NULL%0,                        Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                        Xiaobin%Zhu%NULL%1,                        Shuai%Fu%NULL%1,                        Yugang%Hu%NULL%1,                        Xiaoning%Li%NULL%1,                        Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                        Hao%Zhou%haoye320@163.com%1,                        Yan%Zhou%NULL%1,                        Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                        Jing-wen%He%NULL%2,                        Jing-wen%He%NULL%0,                        Na%Zhou%NULL%1,                        Oliver%Schildgen.%NULL%3,                        Oliver%Schildgen.%NULL%0,                        Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                        Lin%Sun%NULL%1,                        Lan%Zhang%NULL%1,                        Huan%Wang%NULL%1,                        Ajiao%Fan%NULL%1,                        Bin%Yang%NULL%1,                        Wei%Li%NULL%0,                        Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                        Ranjan%Bhattacharyya%NULL%1,                        Sumita%Bhattacharyya%NULL%1,                        Sukanya%Gupta%NULL%1,                        Soumitra%Das%NULL%1,                        Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                        Kinshuk%Kohli%NULL%1,                        P%Padmakumari%NULL%1,                        Prashant Kumar%Dixit%NULL%1,                        Ajay Shankar%Prasad%NULL%1,                        Bharath Seshadri%Chakravarthy%NULL%1,                        Rajat%Shukla%NULL%1,                        Parthasarathi%Ghana%NULL%1,                        Debasish%Mahapatra%NULL%1,                        G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                        Jeffrey Pradeep%Raj%NULL%1,                        Seema%Rao%NULL%1,                        Murtuza%Ghiya%NULL%1,                        Nisanth Menon%Nedungalaparambil%NULL%1,                        Harshit%Mundra%NULL%1,                        Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                        John R%Adler%NULL%0,                        Ram%Sandesh%NULL%2,                        Ram%Sandesh%NULL%0,                        Wajeeha%Shahid%NULL%1,                        Kapeel%Dev%NULL%1,                        Nikeeta%Mandhan%NULL%1,                        Prem%Shankar%NULL%1,                        Anam%Shaikh%NULL%1,                        Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                        Ayşe%Kurtulmuş%NULL%1,                        Selim%Arpacıoğlu%NULL%1,                        Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                        Nicholas W.S.%Chew%NULL%1,                        Grace K.H.%Lee%NULL%2,                        Mingxue%Jing%NULL%2,                        Yihui%Goh%NULL%2,                        Leonard L.L.%Yeo%NULL%2,                        Ka%Zhang%NULL%1,                        Howe-Keat%Chin%NULL%1,                        Aftab%Ahmad%NULL%2,                        Faheem Ahmed%Khan%NULL%1,                        Ganesh Napolean%Shanmugam%NULL%1,                        Bernard P.L.%Chan%NULL%2,                        Sibi%Sunny%NULL%2,                        Bharatendu%Chandra%NULL%2,                        Jonathan J.Y.%Ong%NULL%2,                        Prakash R.%Paliwal%NULL%2,                        Lily Y.H.%Wong%NULL%2,                        Renarebecca%Sagayanathan%NULL%2,                        Jin Tao%Chen%NULL%2,                        Alison Ying%Ying Ng%NULL%2,                        Hock Luen%Teoh%NULL%2,                        Cyrus S.%Ho%NULL%2,                        Roger C.%Ho%NULL%2,                        Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                       Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                       Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                       Botega%NJ%coreGivesNoEmail%1,                       Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                       Freitas%FMB%coreGivesNoEmail%1,                       Guilherme%Arcaro%coreGivesNoEmail%1,                       Kang%L%coreGivesNoEmail%1,                       Lai%J%coreGivesNoEmail%1,                       Lana%RM%coreGivesNoEmail%1,                       Lara%Simone Messias Floriano%coreGivesNoEmail%1,                       Leonelli%LB%coreGivesNoEmail%1,                       Le\u00e3o%AM%coreGivesNoEmail%1,                       Liu%Y%coreGivesNoEmail%1,                       Martins%C%coreGivesNoEmail%1,                       Moura%A%coreGivesNoEmail%1,                       Oliveira%FP%coreGivesNoEmail%1,                       Pappa%S%coreGivesNoEmail%1,                       Rodriguez%EOL%coreGivesNoEmail%1,                       Ruback%SP%coreGivesNoEmail%1,                       Sena%AFJ%coreGivesNoEmail%1,                       Silva%DSD%coreGivesNoEmail%2,                       Silva%DSD%coreGivesNoEmail%0,                       Spoorthy%MS%coreGivesNoEmail%1,                       Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                       Trettene%AS%coreGivesNoEmail%1,                       Vieira%NF%coreGivesNoEmail%1,                       Wang%SM%coreGivesNoEmail%1,                       Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                        Elisa%Pedroli%NULL%1,                        Guido E.%D'Aniello%NULL%1,                        Chiara%Stramba Badiale%NULL%1,                        Giada%Pietrabissa%NULL%1,                        Chiara%Manna%NULL%1,                        Marco%Stramba Badiale%NULL%1,                        Giuseppe%Riva%NULL%1,                        Gianluca%Castelnuovo%NULL%1,                        Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                        Piotr%Krajewski%NULL%2,                        Piotr%Krajewski%NULL%0,                        Rafał%Biłynicki‐Birula%NULL%2,                        Rafał%Biłynicki‐Birula%NULL%0,                        Paweł%Poznański%NULL%2,                        Paweł%Poznański%NULL%0,                        Magdalena%Krajewska%NULL%2,                        Magdalena%Krajewska%NULL%0,                        Joanna%Rymaszewska%NULL%2,                        Joanna%Rymaszewska%NULL%0,                        Łukasz%Matusiak%NULL%2,                        Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                        Jing%Liu%NULL%0,                        Asghar%Afshar Jahanshahi%NULL%1,                        Khaled%Nawaser%NULL%1,                        Ali%Yousefi%NULL%1,                        Jizhen%Li%NULL%1,                        Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                        Eman Zmaily%Dahmash%NULL%2,                        Eman Zmaily%Dahmash%NULL%0,                        Rabaa%Al‐Rousan%NULL%2,                        Rabaa%Al‐Rousan%NULL%0,                        Hassan%Alwafi%NULL%1,                        Hamzeh Mohammad%Alrawashdeh%NULL%1,                        Imene%Ghoul%NULL%1,                        Anwer%Abidine%NULL%1,                        Mohammed A.%Bokhary%NULL%1,                        Hadeel T.%AL‐Hadithi%NULL%1,                        Dalia%Ali%NULL%1,                        Rasha%Abuthawabeh%NULL%1,                        Ghada Mohammad%Abdelwahab%NULL%1,                        Yosra J.%Alhartani%NULL%1,                        Haneen%Al Muhaisen%NULL%1,                        Ayah%Dagash%NULL%1,                        Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                        Aseem%Mehra%NULL%2,                        Aseem%Mehra%NULL%0,                        Abhash%Niraula%NULL%2,                        Abhash%Niraula%NULL%0,                        Khagendra%Kafle%NULL%2,                        Khagendra%Kafle%NULL%0,                        Saroj Prasad%Deo%NULL%2,                        Saroj Prasad%Deo%NULL%0,                        Babita%Singh%NULL%2,                        Babita%Singh%NULL%0,                        Swapnajeet%Sahoo%NULL%2,                        Swapnajeet%Sahoo%NULL%0,                        Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                        Charles W.%Goss%NULL%2,                        Charles W.%Goss%NULL%0,                        Bradley A.%Evanoff%NULL%1,                        Jaime R.%Strickland%NULL%1,                        Rebecca P.%McAlister%NULL%1,                        Jennifer%Duncan%NULL%1,                        Michio%Murakami%NULL%2,                        Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                        Grace K.H.%Lee%NULL%0,                        Benjamin Y.Q.%Tan%NULL%1,                        Mingxue%Jing%NULL%0,                        Yihui%Goh%NULL%0,                        Nicholas J.H.%Ngiam%NULL%1,                        Leonard L.L.%Yeo%NULL%0,                        Aftab%Ahmad%NULL%0,                        Faheem%Ahmed Khan%NULL%1,                        Ganesh%Napolean Shanmugam%NULL%1,                        Arvind K.%Sharma%NULL%1,                        R.N.%Komalkumar%NULL%1,                        P.V.%Meenakshi%NULL%1,                        Kenam%Shah%NULL%1,                        Bhargesh%Patel%NULL%1,                        Bernard P.L.%Chan%NULL%0,                        Sibi%Sunny%NULL%0,                        Bharatendu%Chandra%NULL%0,                        Jonathan J.Y.%Ong%NULL%0,                        Prakash R.%Paliwal%NULL%0,                        Lily Y.H.%Wong%NULL%0,                        Renarebecca%Sagayanathan%NULL%0,                        Jin Tao%Chen%NULL%0,                        Alison Ying%Ying Ng%NULL%0,                        Hock Luen%Teoh%NULL%0,                        Georgios%Tsivgoulis%NULL%1,                        Cyrus S.%Ho%NULL%0,                        Roger C.%Ho%NULL%0,                        Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                         Simeng%Ma%NULL%2,                         Ying%Wang%NULL%3,                         Zhongxiang%Cai%NULL%2,                         Jianbo%Hu%NULL%1,                         Ning%Wei%NULL%1,                         Jiang%Wu%NULL%1,                         Hui%Du%NULL%0,                         Tingting%Chen%NULL%1,                         Ruiting%Li%NULL%3,                         Huawei%Tan%NULL%1,                         Lijun%Kang%NULL%2,                         Lihua%Yao%NULL%1,                         Manli%Huang%NULL%1,                         Huafen%Wang%NULL%1,                         Gaohua%Wang%NULL%1,                         Zhongchun%Liu%NULL%2,                         Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                         Lu%Dong%NULL%1,                         Tao%Wang%NULL%0,                         Chenxin%Yuan%NULL%1,                         Rao%Fu%NULL%1,                         Lei%Zhang%NULL%2,                         Bo%Liu%NULL%2,                         Mingmin%Zhang%NULL%1,                         Yuanyuan%Yin%NULL%1,                         Jiawen%Qin%NULL%1,                         Jennifer%Bouey%NULL%1,                         Min%Zhao%NULL%0,                         Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                         Yun-zhi%Yang%NULL%1,                         Xiao-Ming%Zhang%NULL%1,                         Xinying%Xu%NULL%2,                         Xinying%Xu%NULL%0,                         Qing-Li%Dou%NULL%1,                         Wen-Wu%Zhang%NULL%1,                         Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                         Hang%Wang%NULL%1,                         Yuxing%Lin%NULL%1,                         Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                         Jing%Xu%NULL%0,                         Bo-Zhi%Li%NULL%1,                         Jin-Sha%Huang%NULL%1,                         Yuan%Yang%NULL%2,                         Zhen-Tao%Zhang%NULL%1,                         Dong-Ai%Yao%NULL%1,                         Qun-Hui%Liu%NULL%1,                         Min%Jia%NULL%1,                         Dao-Kai%Gong%NULL%1,                         Xiao-Hong%Ni%NULL%1,                         Qi-Mei%Zhang%NULL%1,                         Fu-Rong%Shang%NULL%1,                         Nian%Xiong%NULL%0,                         Chun-Li%Zhu%NULL%1,                         Tao%Wang%wangtaowh@hust.edu.cn%0,                         Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                         Wenning%Fu%NULL%1,                         Xiaoran%Liu%NULL%1,                         Zhiqian%Luo%NULL%1,                         Rixing%Wang%NULL%1,                         Ning%Zhou%NULL%0,                         Shijiao%Yan%NULL%1,                         Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                         L%Xie%NULL%1,                         Y%Xu%NULL%1,                         S%Yu%NULL%1,                         B%Yao%professoryao@aliyun.com%1,                         D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                         Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                         Kun%Wang%NULL%1,                         Lu%Yin%NULL%1,                         Wen-feng%Zhao%NULL%1,                         Qing%Xue%NULL%1,                         Mao%Peng%NULL%1,                         Bao-quan%Min%NULL%1,                         Qing%Tian%NULL%1,                         Hai-xia%Leng%NULL%1,                         Jia-lin%Du%NULL%1,                         Hong%Chang%NULL%1,                         Yuan%Yang%NULL%0,                         Wei%Li%NULL%4,                         Fang-fang%Shangguan%NULL%1,                         Tian-yi%Yan%NULL%1,                         Hui-qing%Dong%NULL%1,                         Ying%Han%NULL%1,                         Yu-ping%Wang%NULL%1,                         Fiammetta%Cosci%NULL%1,                         Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                         Lulu%Yang%NULL%1,                         Shuai%Liu%NULL%1,                         Simeng%Ma%NULL%0,                         Ying%Wang%NULL%0,                         Zhongxiang%Cai%NULL%0,                         Hui%Du%NULL%0,                         Ruiting%Li%NULL%0,                         Lijun%Kang%NULL%0,                         Meilei%Su%NULL%1,                         Jihui%Zhang%NULL%1,                         Zhongchun%Liu%NULL%0,                         Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                         Xiaobin%Zhu%NULL%1,                         Shuai%Fu%NULL%1,                         Yugang%Hu%NULL%1,                         Xiaoning%Li%NULL%1,                         Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                         Hao%Zhou%haoye320@163.com%1,                         Yan%Zhou%NULL%1,                         Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                         Jing-wen%He%NULL%2,                         Jing-wen%He%NULL%0,                         Na%Zhou%NULL%1,                         Oliver%Schildgen.%NULL%3,                         Oliver%Schildgen.%NULL%0,                         Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                         Lin%Sun%NULL%1,                         Lan%Zhang%NULL%1,                         Huan%Wang%NULL%1,                         Ajiao%Fan%NULL%1,                         Bin%Yang%NULL%1,                         Wei%Li%NULL%0,                         Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                         Ranjan%Bhattacharyya%NULL%1,                         Sumita%Bhattacharyya%NULL%1,                         Sukanya%Gupta%NULL%1,                         Soumitra%Das%NULL%1,                         Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                         Kinshuk%Kohli%NULL%1,                         P%Padmakumari%NULL%1,                         Prashant Kumar%Dixit%NULL%1,                         Ajay Shankar%Prasad%NULL%1,                         Bharath Seshadri%Chakravarthy%NULL%1,                         Rajat%Shukla%NULL%1,                         Parthasarathi%Ghana%NULL%1,                         Debasish%Mahapatra%NULL%1,                         G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                         Jeffrey Pradeep%Raj%NULL%1,                         Seema%Rao%NULL%1,                         Murtuza%Ghiya%NULL%1,                         Nisanth Menon%Nedungalaparambil%NULL%1,                         Harshit%Mundra%NULL%1,                         Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                         John R%Adler%NULL%0,                         Ram%Sandesh%NULL%2,                         Ram%Sandesh%NULL%0,                         Wajeeha%Shahid%NULL%1,                         Kapeel%Dev%NULL%1,                         Nikeeta%Mandhan%NULL%1,                         Prem%Shankar%NULL%1,                         Anam%Shaikh%NULL%1,                         Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                         Ayşe%Kurtulmuş%NULL%1,                         Selim%Arpacıoğlu%NULL%1,                         Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                         Nicholas W.S.%Chew%NULL%1,                         Grace K.H.%Lee%NULL%2,                         Mingxue%Jing%NULL%2,                         Yihui%Goh%NULL%2,                         Leonard L.L.%Yeo%NULL%2,                         Ka%Zhang%NULL%1,                         Howe-Keat%Chin%NULL%1,                         Aftab%Ahmad%NULL%2,                         Faheem Ahmed%Khan%NULL%1,                         Ganesh Napolean%Shanmugam%NULL%1,                         Bernard P.L.%Chan%NULL%2,                         Sibi%Sunny%NULL%2,                         Bharatendu%Chandra%NULL%2,                         Jonathan J.Y.%Ong%NULL%2,                         Prakash R.%Paliwal%NULL%2,                         Lily Y.H.%Wong%NULL%2,                         Renarebecca%Sagayanathan%NULL%2,                         Jin Tao%Chen%NULL%2,                         Alison Ying%Ying Ng%NULL%2,                         Hock Luen%Teoh%NULL%2,                         Cyrus S.%Ho%NULL%2,                         Roger C.%Ho%NULL%2,                         Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                        Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                        Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                        Botega%NJ%coreGivesNoEmail%1,                        Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                        Freitas%FMB%coreGivesNoEmail%1,                        Guilherme%Arcaro%coreGivesNoEmail%1,                        Kang%L%coreGivesNoEmail%1,                        Lai%J%coreGivesNoEmail%1,                        Lana%RM%coreGivesNoEmail%1,                        Lara%Simone Messias Floriano%coreGivesNoEmail%1,                        Leonelli%LB%coreGivesNoEmail%1,                        Le\u00e3o%AM%coreGivesNoEmail%1,                        Liu%Y%coreGivesNoEmail%1,                        Martins%C%coreGivesNoEmail%1,                        Moura%A%coreGivesNoEmail%1,                        Oliveira%FP%coreGivesNoEmail%1,                        Pappa%S%coreGivesNoEmail%1,                        Rodriguez%EOL%coreGivesNoEmail%1,                        Ruback%SP%coreGivesNoEmail%1,                        Sena%AFJ%coreGivesNoEmail%1,                        Silva%DSD%coreGivesNoEmail%2,                        Silva%DSD%coreGivesNoEmail%0,                        Spoorthy%MS%coreGivesNoEmail%1,                        Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                        Trettene%AS%coreGivesNoEmail%1,                        Vieira%NF%coreGivesNoEmail%1,                        Wang%SM%coreGivesNoEmail%1,                        Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                         Elisa%Pedroli%NULL%1,                         Guido E.%D'Aniello%NULL%1,                         Chiara%Stramba Badiale%NULL%1,                         Giada%Pietrabissa%NULL%1,                         Chiara%Manna%NULL%1,                         Marco%Stramba Badiale%NULL%1,                         Giuseppe%Riva%NULL%1,                         Gianluca%Castelnuovo%NULL%1,                         Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                         Piotr%Krajewski%NULL%2,                         Piotr%Krajewski%NULL%0,                         Rafał%Biłynicki‐Birula%NULL%2,                         Rafał%Biłynicki‐Birula%NULL%0,                         Paweł%Poznański%NULL%2,                         Paweł%Poznański%NULL%0,                         Magdalena%Krajewska%NULL%2,                         Magdalena%Krajewska%NULL%0,                         Joanna%Rymaszewska%NULL%2,                         Joanna%Rymaszewska%NULL%0,                         Łukasz%Matusiak%NULL%2,                         Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                         Jing%Liu%NULL%0,                         Asghar%Afshar Jahanshahi%NULL%1,                         Khaled%Nawaser%NULL%1,                         Ali%Yousefi%NULL%1,                         Jizhen%Li%NULL%1,                         Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                         Eman Zmaily%Dahmash%NULL%2,                         Eman Zmaily%Dahmash%NULL%0,                         Rabaa%Al‐Rousan%NULL%2,                         Rabaa%Al‐Rousan%NULL%0,                         Hassan%Alwafi%NULL%1,                         Hamzeh Mohammad%Alrawashdeh%NULL%1,                         Imene%Ghoul%NULL%1,                         Anwer%Abidine%NULL%1,                         Mohammed A.%Bokhary%NULL%1,                         Hadeel T.%AL‐Hadithi%NULL%1,                         Dalia%Ali%NULL%1,                         Rasha%Abuthawabeh%NULL%1,                         Ghada Mohammad%Abdelwahab%NULL%1,                         Yosra J.%Alhartani%NULL%1,                         Haneen%Al Muhaisen%NULL%1,                         Ayah%Dagash%NULL%1,                         Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                         Aseem%Mehra%NULL%2,                         Aseem%Mehra%NULL%0,                         Abhash%Niraula%NULL%2,                         Abhash%Niraula%NULL%0,                         Khagendra%Kafle%NULL%2,                         Khagendra%Kafle%NULL%0,                         Saroj Prasad%Deo%NULL%2,                         Saroj Prasad%Deo%NULL%0,                         Babita%Singh%NULL%2,                         Babita%Singh%NULL%0,                         Swapnajeet%Sahoo%NULL%2,                         Swapnajeet%Sahoo%NULL%0,                         Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                         Charles W.%Goss%NULL%2,                         Charles W.%Goss%NULL%0,                         Bradley A.%Evanoff%NULL%1,                         Jaime R.%Strickland%NULL%1,                         Rebecca P.%McAlister%NULL%1,                         Jennifer%Duncan%NULL%1,                         Michio%Murakami%NULL%2,                         Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                         Grace K.H.%Lee%NULL%0,                         Benjamin Y.Q.%Tan%NULL%1,                         Mingxue%Jing%NULL%0,                         Yihui%Goh%NULL%0,                         Nicholas J.H.%Ngiam%NULL%1,                         Leonard L.L.%Yeo%NULL%0,                         Aftab%Ahmad%NULL%0,                         Faheem%Ahmed Khan%NULL%1,                         Ganesh%Napolean Shanmugam%NULL%1,                         Arvind K.%Sharma%NULL%1,                         R.N.%Komalkumar%NULL%1,                         P.V.%Meenakshi%NULL%1,                         Kenam%Shah%NULL%1,                         Bhargesh%Patel%NULL%1,                         Bernard P.L.%Chan%NULL%0,                         Sibi%Sunny%NULL%0,                         Bharatendu%Chandra%NULL%0,                         Jonathan J.Y.%Ong%NULL%0,                         Prakash R.%Paliwal%NULL%0,                         Lily Y.H.%Wong%NULL%0,                         Renarebecca%Sagayanathan%NULL%0,                         Jin Tao%Chen%NULL%0,                         Alison Ying%Ying Ng%NULL%0,                         Hock Luen%Teoh%NULL%0,                         Georgios%Tsivgoulis%NULL%1,                         Cyrus S.%Ho%NULL%0,                         Roger C.%Ho%NULL%0,                         Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2735,6 +3164,9 @@
       <c r="I1" t="s">
         <v>203</v>
       </c>
+      <c r="J1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2750,7 +3182,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>700</v>
+        <v>844</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2763,6 +3195,9 @@
       </c>
       <c r="I2" t="s">
         <v>669</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -2779,7 +3214,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>845</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2792,6 +3227,9 @@
       </c>
       <c r="I3" t="s">
         <v>671</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -2808,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>702</v>
+        <v>467</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2817,10 +3255,13 @@
         <v>350</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>732</v>
       </c>
       <c r="I4" t="s">
-        <v>673</v>
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="5">
@@ -2837,7 +3278,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>703</v>
+        <v>846</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2850,6 +3291,9 @@
       </c>
       <c r="I5" t="s">
         <v>669</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2866,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>704</v>
+        <v>847</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2879,6 +3323,9 @@
       </c>
       <c r="I6" t="s">
         <v>671</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -2895,7 +3342,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>705</v>
+        <v>848</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2908,6 +3355,9 @@
       </c>
       <c r="I7" t="s">
         <v>671</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -2938,6 +3388,9 @@
       <c r="I8" t="s">
         <v>54</v>
       </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2953,7 +3406,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>706</v>
+        <v>849</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2966,6 +3419,9 @@
       </c>
       <c r="I9" t="s">
         <v>671</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -2982,7 +3438,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>707</v>
+        <v>850</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -2995,6 +3451,9 @@
       </c>
       <c r="I10" t="s">
         <v>669</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -3011,7 +3470,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>708</v>
+        <v>851</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -3024,6 +3483,9 @@
       </c>
       <c r="I11" t="s">
         <v>671</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -3054,6 +3516,9 @@
       <c r="I12" t="s">
         <v>54</v>
       </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3069,7 +3534,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>709</v>
+        <v>852</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -3082,6 +3547,9 @@
       </c>
       <c r="I13" t="s">
         <v>669</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -3098,7 +3566,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>710</v>
+        <v>853</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -3111,6 +3579,9 @@
       </c>
       <c r="I14" t="s">
         <v>669</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -3127,7 +3598,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>711</v>
+        <v>854</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -3140,6 +3611,9 @@
       </c>
       <c r="I15" t="s">
         <v>671</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -3156,7 +3630,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>712</v>
+        <v>855</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -3169,6 +3643,9 @@
       </c>
       <c r="I16" t="s">
         <v>671</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -3185,7 +3662,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>713</v>
+        <v>856</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -3198,6 +3675,9 @@
       </c>
       <c r="I17" t="s">
         <v>669</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -3214,7 +3694,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -3227,6 +3707,9 @@
       </c>
       <c r="I18" t="s">
         <v>669</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -3243,7 +3726,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>715</v>
+        <v>858</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3256,6 +3739,9 @@
       </c>
       <c r="I19" t="s">
         <v>669</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -3272,7 +3758,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>716</v>
+        <v>859</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3285,6 +3771,9 @@
       </c>
       <c r="I20" t="s">
         <v>669</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -3301,7 +3790,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>717</v>
+        <v>860</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3314,6 +3803,9 @@
       </c>
       <c r="I21" t="s">
         <v>669</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -3330,7 +3822,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>718</v>
+        <v>861</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3343,6 +3835,9 @@
       </c>
       <c r="I22" t="s">
         <v>669</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -3373,6 +3868,9 @@
       <c r="I23" t="s">
         <v>54</v>
       </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -3388,7 +3886,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>719</v>
+        <v>862</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -3401,6 +3899,9 @@
       </c>
       <c r="I24" t="s">
         <v>671</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -3417,7 +3918,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>720</v>
+        <v>863</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -3430,6 +3931,9 @@
       </c>
       <c r="I25" t="s">
         <v>669</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -3446,7 +3950,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>721</v>
+        <v>864</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3459,6 +3963,9 @@
       </c>
       <c r="I26" t="s">
         <v>673</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -3475,7 +3982,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>722</v>
+        <v>865</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -3488,6 +3995,9 @@
       </c>
       <c r="I27" t="s">
         <v>669</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -3504,7 +4014,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>723</v>
+        <v>866</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -3517,6 +4027,9 @@
       </c>
       <c r="I28" t="s">
         <v>669</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29">
@@ -3533,7 +4046,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>724</v>
+        <v>867</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3546,6 +4059,9 @@
       </c>
       <c r="I29" t="s">
         <v>671</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30">
@@ -3562,7 +4078,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>725</v>
+        <v>868</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -3575,6 +4091,9 @@
       </c>
       <c r="I30" t="s">
         <v>669</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31">
@@ -3591,7 +4110,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>726</v>
+        <v>869</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -3604,6 +4123,9 @@
       </c>
       <c r="I31" t="s">
         <v>671</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32">
@@ -3620,7 +4142,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>727</v>
+        <v>870</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -3633,6 +4155,9 @@
       </c>
       <c r="I32" t="s">
         <v>669</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -3649,7 +4174,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>728</v>
+        <v>871</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -3662,6 +4187,9 @@
       </c>
       <c r="I33" t="s">
         <v>671</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/52.xlsx
+++ b/Covid_19_Dataset_and_References/References/52.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="940">
   <si>
     <t>Doi</t>
   </si>
@@ -2841,6 +2841,229 @@
   </si>
   <si>
     <t>[Nicholas W.S.%Chew%NULL%1,                         Grace K.H.%Lee%NULL%0,                         Benjamin Y.Q.%Tan%NULL%1,                         Mingxue%Jing%NULL%0,                         Yihui%Goh%NULL%0,                         Nicholas J.H.%Ngiam%NULL%1,                         Leonard L.L.%Yeo%NULL%0,                         Aftab%Ahmad%NULL%0,                         Faheem%Ahmed Khan%NULL%1,                         Ganesh%Napolean Shanmugam%NULL%1,                         Arvind K.%Sharma%NULL%1,                         R.N.%Komalkumar%NULL%1,                         P.V.%Meenakshi%NULL%1,                         Kenam%Shah%NULL%1,                         Bhargesh%Patel%NULL%1,                         Bernard P.L.%Chan%NULL%0,                         Sibi%Sunny%NULL%0,                         Bharatendu%Chandra%NULL%0,                         Jonathan J.Y.%Ong%NULL%0,                         Prakash R.%Paliwal%NULL%0,                         Lily Y.H.%Wong%NULL%0,                         Renarebecca%Sagayanathan%NULL%0,                         Jin Tao%Chen%NULL%0,                         Alison Ying%Ying Ng%NULL%0,                         Hock Luen%Teoh%NULL%0,                         Georgios%Tsivgoulis%NULL%1,                         Cyrus S.%Ho%NULL%0,                         Roger C.%Ho%NULL%0,                         Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                          Simeng%Ma%NULL%2,                          Ying%Wang%NULL%3,                          Zhongxiang%Cai%NULL%2,                          Jianbo%Hu%NULL%1,                          Ning%Wei%NULL%1,                          Jiang%Wu%NULL%1,                          Hui%Du%NULL%0,                          Tingting%Chen%NULL%1,                          Ruiting%Li%NULL%3,                          Huawei%Tan%NULL%1,                          Lijun%Kang%NULL%2,                          Lihua%Yao%NULL%1,                          Manli%Huang%NULL%1,                          Huafen%Wang%NULL%1,                          Gaohua%Wang%NULL%1,                          Zhongchun%Liu%NULL%2,                          Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                          Lu%Dong%NULL%1,                          Tao%Wang%NULL%0,                          Chenxin%Yuan%NULL%1,                          Rao%Fu%NULL%1,                          Lei%Zhang%NULL%2,                          Bo%Liu%NULL%2,                          Mingmin%Zhang%NULL%1,                          Yuanyuan%Yin%NULL%1,                          Jiawen%Qin%NULL%1,                          Jennifer%Bouey%NULL%1,                          Min%Zhao%NULL%0,                          Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                          Yun-zhi%Yang%NULL%1,                          Xiao-Ming%Zhang%NULL%1,                          Xinying%Xu%NULL%2,                          Xinying%Xu%NULL%0,                          Qing-Li%Dou%NULL%1,                          Wen-Wu%Zhang%NULL%1,                          Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                          Hang%Wang%NULL%1,                          Yuxing%Lin%NULL%1,                          Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                          Jing%Xu%NULL%0,                          Bo-Zhi%Li%NULL%1,                          Jin-Sha%Huang%NULL%1,                          Yuan%Yang%NULL%2,                          Zhen-Tao%Zhang%NULL%1,                          Dong-Ai%Yao%NULL%1,                          Qun-Hui%Liu%NULL%1,                          Min%Jia%NULL%1,                          Dao-Kai%Gong%NULL%1,                          Xiao-Hong%Ni%NULL%1,                          Qi-Mei%Zhang%NULL%1,                          Fu-Rong%Shang%NULL%1,                          Nian%Xiong%NULL%0,                          Chun-Li%Zhu%NULL%1,                          Tao%Wang%wangtaowh@hust.edu.cn%0,                          Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Psychological status and sleep quality of nursing interns during the outbreak of COVID-19].</t>
+  </si>
+  <si>
+    <t>OBJECTIVE To investigate the psychological status and sleep quality of nursing interns in collective isolation during the outbreak of coronavirus disease 2019 (COVID-19) and provide evidence for adequate interventions. METHODS We surveyed a total of 95 nursing interns who were isolated collectively in a general teaching hospital in Guangzhou using a self-designed questionnaire, which consisted of a basic information form, self-rating anxiety scale (SAS), self-rating depression scale (SDS) and Pittsburgh Sleep Quality Index (PSQI). Descriptive analysis, single factor analysis and correlation analysis were used to analyze the current status of the interns' psychology and sleep quality, the potential factors affecting their psychology and sleep quality, and the correlation between their psychological status and sleep quality. RESULTS The surveyed interns had SAS, SDS and PSQI score of 37.79±6.59, 43.98±9.74 and 5.20±3.14, respectively, which were significant higher than the national norms in China (P &lt; 0.05). Correlation analysis indicated that both anxiety and depression were positively correlated with the sleep quality score (r=0.508 and 0.546, respectively). Univariate analysis showed that the major factors affecting the psychological status and sleep quality of the interns during collective isolation included recent contact with persons from the affected area before isolation and the onset of fever during the isolation. CONCLUSIONS These interns showed relatively high levels of anxiety and depression during the collective isolation to affect their sleep quality, and interventions should be timely administered to improve their mental health and sleep quality.</t>
+  </si>
+  <si>
+    <t>[ Xiaoyan%Sheng%elasticNoEmail%2,  Fenyu% Liu%elasticNoEmail%2,  Jin% Zhou%elasticNoEmail%2,  Rongrong% Liao%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                          Wenning%Fu%NULL%1,                          Xiaoran%Liu%NULL%1,                          Zhiqian%Luo%NULL%1,                          Rixing%Wang%NULL%1,                          Ning%Zhou%NULL%0,                          Shijiao%Yan%NULL%1,                          Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                          L%Xie%NULL%1,                          Y%Xu%NULL%1,                          S%Yu%NULL%1,                          B%Yao%professoryao@aliyun.com%1,                          D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                          Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Mental health survey of 230 medical staff in a tertiary infectious disease hospital for COVID-19].</t>
+  </si>
+  <si>
+    <t>Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention. Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS). From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%. Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89). Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively. The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012]. The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001]. The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88). The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014]. Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff. Medical institutions should strengthen the training of psychological skills of medical staff. Special attention should be paid to the mental health of female nurses.</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%0,  M F% Han%elasticNoEmail%0,  T D% Luo%elasticNoEmail%0,  A K% Ren%elasticNoEmail%0,  X P% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                          Kun%Wang%NULL%1,                          Lu%Yin%NULL%1,                          Wen-feng%Zhao%NULL%1,                          Qing%Xue%NULL%1,                          Mao%Peng%NULL%1,                          Bao-quan%Min%NULL%1,                          Qing%Tian%NULL%1,                          Hai-xia%Leng%NULL%1,                          Jia-lin%Du%NULL%1,                          Hong%Chang%NULL%1,                          Yuan%Yang%NULL%0,                          Wei%Li%NULL%4,                          Fang-fang%Shangguan%NULL%1,                          Tian-yi%Yan%NULL%1,                          Hui-qing%Dong%NULL%1,                          Ying%Han%NULL%1,                          Yu-ping%Wang%NULL%1,                          Fiammetta%Cosci%NULL%1,                          Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                          Lulu%Yang%NULL%1,                          Shuai%Liu%NULL%1,                          Simeng%Ma%NULL%0,                          Ying%Wang%NULL%0,                          Zhongxiang%Cai%NULL%0,                          Hui%Du%NULL%0,                          Ruiting%Li%NULL%0,                          Lijun%Kang%NULL%0,                          Meilei%Su%NULL%1,                          Jihui%Zhang%NULL%1,                          Zhongchun%Liu%NULL%0,                          Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                          Xiaobin%Zhu%NULL%1,                          Shuai%Fu%NULL%1,                          Yugang%Hu%NULL%1,                          Xiaoning%Li%NULL%1,                          Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                          Hao%Zhou%haoye320@163.com%1,                          Yan%Zhou%NULL%1,                          Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                          Jing-wen%He%NULL%2,                          Jing-wen%He%NULL%0,                          Na%Zhou%NULL%1,                          Oliver%Schildgen.%NULL%3,                          Oliver%Schildgen.%NULL%0,                          Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                          Lin%Sun%NULL%1,                          Lan%Zhang%NULL%1,                          Huan%Wang%NULL%1,                          Ajiao%Fan%NULL%1,                          Bin%Yang%NULL%1,                          Wei%Li%NULL%0,                          Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                          Ranjan%Bhattacharyya%NULL%1,                          Sumita%Bhattacharyya%NULL%1,                          Sukanya%Gupta%NULL%1,                          Soumitra%Das%NULL%1,                          Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                          Kinshuk%Kohli%NULL%1,                          P%Padmakumari%NULL%1,                          Prashant Kumar%Dixit%NULL%1,                          Ajay Shankar%Prasad%NULL%1,                          Bharath Seshadri%Chakravarthy%NULL%1,                          Rajat%Shukla%NULL%1,                          Parthasarathi%Ghana%NULL%1,                          Debasish%Mahapatra%NULL%1,                          G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                          Jeffrey Pradeep%Raj%NULL%1,                          Seema%Rao%NULL%1,                          Murtuza%Ghiya%NULL%1,                          Nisanth Menon%Nedungalaparambil%NULL%1,                          Harshit%Mundra%NULL%1,                          Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                          John R%Adler%NULL%0,                          Ram%Sandesh%NULL%2,                          Ram%Sandesh%NULL%0,                          Wajeeha%Shahid%NULL%1,                          Kapeel%Dev%NULL%1,                          Nikeeta%Mandhan%NULL%1,                          Prem%Shankar%NULL%1,                          Anam%Shaikh%NULL%1,                          Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                          Ayşe%Kurtulmuş%NULL%1,                          Selim%Arpacıoğlu%NULL%1,                          Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                          Nicholas W.S.%Chew%NULL%1,                          Grace K.H.%Lee%NULL%2,                          Mingxue%Jing%NULL%2,                          Yihui%Goh%NULL%2,                          Leonard L.L.%Yeo%NULL%2,                          Ka%Zhang%NULL%1,                          Howe-Keat%Chin%NULL%1,                          Aftab%Ahmad%NULL%2,                          Faheem Ahmed%Khan%NULL%1,                          Ganesh Napolean%Shanmugam%NULL%1,                          Bernard P.L.%Chan%NULL%2,                          Sibi%Sunny%NULL%2,                          Bharatendu%Chandra%NULL%2,                          Jonathan J.Y.%Ong%NULL%2,                          Prakash R.%Paliwal%NULL%2,                          Lily Y.H.%Wong%NULL%2,                          Renarebecca%Sagayanathan%NULL%2,                          Jin Tao%Chen%NULL%2,                          Alison Ying%Ying Ng%NULL%2,                          Hock Luen%Teoh%NULL%2,                          Cyrus S.%Ho%NULL%2,                          Roger C.%Ho%NULL%2,                          Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                         Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                         Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                         Botega%NJ%coreGivesNoEmail%1,                         Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                         Freitas%FMB%coreGivesNoEmail%1,                         Guilherme%Arcaro%coreGivesNoEmail%1,                         Kang%L%coreGivesNoEmail%1,                         Lai%J%coreGivesNoEmail%1,                         Lana%RM%coreGivesNoEmail%1,                         Lara%Simone Messias Floriano%coreGivesNoEmail%1,                         Leonelli%LB%coreGivesNoEmail%1,                         Le\u00e3o%AM%coreGivesNoEmail%1,                         Liu%Y%coreGivesNoEmail%1,                         Martins%C%coreGivesNoEmail%1,                         Moura%A%coreGivesNoEmail%1,                         Oliveira%FP%coreGivesNoEmail%1,                         Pappa%S%coreGivesNoEmail%1,                         Rodriguez%EOL%coreGivesNoEmail%1,                         Ruback%SP%coreGivesNoEmail%1,                         Sena%AFJ%coreGivesNoEmail%1,                         Silva%DSD%coreGivesNoEmail%2,                         Silva%DSD%coreGivesNoEmail%0,                         Spoorthy%MS%coreGivesNoEmail%1,                         Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                         Trettene%AS%coreGivesNoEmail%1,                         Vieira%NF%coreGivesNoEmail%1,                         Wang%SM%coreGivesNoEmail%1,                         Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                          Elisa%Pedroli%NULL%1,                          Guido E.%D'Aniello%NULL%1,                          Chiara%Stramba Badiale%NULL%1,                          Giada%Pietrabissa%NULL%1,                          Chiara%Manna%NULL%1,                          Marco%Stramba Badiale%NULL%1,                          Giuseppe%Riva%NULL%1,                          Gianluca%Castelnuovo%NULL%1,                          Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                          Piotr%Krajewski%NULL%2,                          Piotr%Krajewski%NULL%0,                          Rafał%Biłynicki‐Birula%NULL%2,                          Rafał%Biłynicki‐Birula%NULL%0,                          Paweł%Poznański%NULL%2,                          Paweł%Poznański%NULL%0,                          Magdalena%Krajewska%NULL%2,                          Magdalena%Krajewska%NULL%0,                          Joanna%Rymaszewska%NULL%2,                          Joanna%Rymaszewska%NULL%0,                          Łukasz%Matusiak%NULL%2,                          Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                          Jing%Liu%NULL%0,                          Asghar%Afshar Jahanshahi%NULL%1,                          Khaled%Nawaser%NULL%1,                          Ali%Yousefi%NULL%1,                          Jizhen%Li%NULL%1,                          Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                          Eman Zmaily%Dahmash%NULL%2,                          Eman Zmaily%Dahmash%NULL%0,                          Rabaa%Al‐Rousan%NULL%2,                          Rabaa%Al‐Rousan%NULL%0,                          Hassan%Alwafi%NULL%1,                          Hamzeh Mohammad%Alrawashdeh%NULL%1,                          Imene%Ghoul%NULL%1,                          Anwer%Abidine%NULL%1,                          Mohammed A.%Bokhary%NULL%1,                          Hadeel T.%AL‐Hadithi%NULL%1,                          Dalia%Ali%NULL%1,                          Rasha%Abuthawabeh%NULL%1,                          Ghada Mohammad%Abdelwahab%NULL%1,                          Yosra J.%Alhartani%NULL%1,                          Haneen%Al Muhaisen%NULL%1,                          Ayah%Dagash%NULL%1,                          Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                          Aseem%Mehra%NULL%2,                          Aseem%Mehra%NULL%0,                          Abhash%Niraula%NULL%2,                          Abhash%Niraula%NULL%0,                          Khagendra%Kafle%NULL%2,                          Khagendra%Kafle%NULL%0,                          Saroj Prasad%Deo%NULL%2,                          Saroj Prasad%Deo%NULL%0,                          Babita%Singh%NULL%2,                          Babita%Singh%NULL%0,                          Swapnajeet%Sahoo%NULL%2,                          Swapnajeet%Sahoo%NULL%0,                          Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                          Charles W.%Goss%NULL%2,                          Charles W.%Goss%NULL%0,                          Bradley A.%Evanoff%NULL%1,                          Jaime R.%Strickland%NULL%1,                          Rebecca P.%McAlister%NULL%1,                          Jennifer%Duncan%NULL%1,                          Michio%Murakami%NULL%2,                          Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                          Grace K.H.%Lee%NULL%0,                          Benjamin Y.Q.%Tan%NULL%1,                          Mingxue%Jing%NULL%0,                          Yihui%Goh%NULL%0,                          Nicholas J.H.%Ngiam%NULL%1,                          Leonard L.L.%Yeo%NULL%0,                          Aftab%Ahmad%NULL%0,                          Faheem%Ahmed Khan%NULL%1,                          Ganesh%Napolean Shanmugam%NULL%1,                          Arvind K.%Sharma%NULL%1,                          R.N.%Komalkumar%NULL%1,                          P.V.%Meenakshi%NULL%1,                          Kenam%Shah%NULL%1,                          Bhargesh%Patel%NULL%1,                          Bernard P.L.%Chan%NULL%0,                          Sibi%Sunny%NULL%0,                          Bharatendu%Chandra%NULL%0,                          Jonathan J.Y.%Ong%NULL%0,                          Prakash R.%Paliwal%NULL%0,                          Lily Y.H.%Wong%NULL%0,                          Renarebecca%Sagayanathan%NULL%0,                          Jin Tao%Chen%NULL%0,                          Alison Ying%Ying Ng%NULL%0,                          Hock Luen%Teoh%NULL%0,                          Georgios%Tsivgoulis%NULL%1,                          Cyrus S.%Ho%NULL%0,                          Roger C.%Ho%NULL%0,                          Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                           Simeng%Ma%NULL%2,                           Ying%Wang%NULL%3,                           Zhongxiang%Cai%NULL%2,                           Jianbo%Hu%NULL%1,                           Ning%Wei%NULL%1,                           Jiang%Wu%NULL%1,                           Hui%Du%NULL%0,                           Tingting%Chen%NULL%1,                           Ruiting%Li%NULL%3,                           Huawei%Tan%NULL%1,                           Lijun%Kang%NULL%2,                           Lihua%Yao%NULL%1,                           Manli%Huang%NULL%1,                           Huafen%Wang%NULL%1,                           Gaohua%Wang%NULL%1,                           Zhongchun%Liu%NULL%2,                           Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%2,                           Lu%Dong%NULL%1,                           Tao%Wang%NULL%0,                           Chenxin%Yuan%NULL%1,                           Rao%Fu%NULL%1,                           Lei%Zhang%NULL%2,                           Bo%Liu%NULL%2,                           Mingmin%Zhang%NULL%1,                           Yuanyuan%Yin%NULL%1,                           Jiawen%Qin%NULL%1,                           Jennifer%Bouey%NULL%1,                           Min%Zhao%NULL%0,                           Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%2,                           Yun-zhi%Yang%NULL%1,                           Xiao-Ming%Zhang%NULL%1,                           Xinying%Xu%NULL%2,                           Xinying%Xu%NULL%0,                           Qing-Li%Dou%NULL%1,                           Wen-Wu%Zhang%NULL%1,                           Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                           Hang%Wang%NULL%1,                           Yuxing%Lin%NULL%1,                           Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Qi%NULL%1,                           Jing%Xu%NULL%0,                           Bo-Zhi%Li%NULL%1,                           Jin-Sha%Huang%NULL%1,                           Yuan%Yang%NULL%2,                           Zhen-Tao%Zhang%NULL%1,                           Dong-Ai%Yao%NULL%1,                           Qun-Hui%Liu%NULL%1,                           Min%Jia%NULL%1,                           Dao-Kai%Gong%NULL%1,                           Xiao-Hong%Ni%NULL%1,                           Qi-Mei%Zhang%NULL%1,                           Fu-Rong%Shang%NULL%1,                           Nian%Xiong%NULL%0,                           Chun-Li%Zhu%NULL%1,                           Tao%Wang%wangtaowh@hust.edu.cn%0,                           Xi%Zhang%SMRC301@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE To investigate the psychological status and sleep quality of nursing interns in collective isolation during the outbreak of coronavirus disease 2019 (COVID-19) and provide evidence for adequate interventions.
+ METHODS We surveyed a total of 95 nursing interns who were isolated collectively in a general teaching hospital in Guangzhou using a self-designed questionnaire, which consisted of a basic information form, self-rating anxiety scale (SAS), self-rating depression scale (SDS) and Pittsburgh Sleep Quality Index (PSQI).
+ Descriptive analysis, single factor analysis and correlation analysis were used to analyze the current status of the interns' psychology and sleep quality, the potential factors affecting their psychology and sleep quality, and the correlation between their psychological status and sleep quality.
+ RESULTS The surveyed interns had SAS, SDS and PSQI score of 37.79±6.59, 43.98±9.74 and 5.20±3.14, respectively, which were significant higher than the national norms in China (P &lt; 0.05).
+ Correlation analysis indicated that both anxiety and depression were positively correlated with the sleep quality score (r=0.508 and 0.546, respectively).
+ Univariate analysis showed that the major factors affecting the psychological status and sleep quality of the interns during collective isolation included recent contact with persons from the affected area before isolation and the onset of fever during the isolation.
+ CONCLUSIONS These interns showed relatively high levels of anxiety and depression during the collective isolation to affect their sleep quality, and interventions should be timely administered to improve their mental health and sleep quality.
+</t>
+  </si>
+  <si>
+    <t>[ Xiaoyan%Sheng%elasticNoEmail%2,   Fenyu% Liu%elasticNoEmail%2,   Jin% Zhou%elasticNoEmail%2,   Rongrong% Liao%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                           Wenning%Fu%NULL%1,                           Xiaoran%Liu%NULL%1,                           Zhiqian%Luo%NULL%1,                           Rixing%Wang%NULL%1,                           Ning%Zhou%NULL%0,                           Shijiao%Yan%NULL%1,                           Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[S%Wang%NULL%1,                           L%Xie%NULL%1,                           Y%Xu%NULL%1,                           S%Yu%NULL%1,                           B%Yao%professoryao@aliyun.com%1,                           D%Xiang%xiangdannuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%2,                           Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention.
+ Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS).
+ From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%.
+ Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89).
+ Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively.
+ The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012].
+ The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001].
+ The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88).
+ The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014].
+ Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff.
+ Medical institutions should strengthen the training of psychological skills of medical staff.
+ Special attention should be paid to the mental health of female nurses.
+</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%0,   M F% Han%elasticNoEmail%0,   T D% Luo%elasticNoEmail%0,   A K% Ren%elasticNoEmail%0,   X P% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                           Kun%Wang%NULL%1,                           Lu%Yin%NULL%1,                           Wen-feng%Zhao%NULL%1,                           Qing%Xue%NULL%1,                           Mao%Peng%NULL%1,                           Bao-quan%Min%NULL%1,                           Qing%Tian%NULL%1,                           Hai-xia%Leng%NULL%1,                           Jia-lin%Du%NULL%1,                           Hong%Chang%NULL%1,                           Yuan%Yang%NULL%0,                           Wei%Li%NULL%4,                           Fang-fang%Shangguan%NULL%1,                           Tian-yi%Yan%NULL%1,                           Hui-qing%Dong%NULL%1,                           Ying%Han%NULL%1,                           Yu-ping%Wang%NULL%1,                           Fiammetta%Cosci%NULL%1,                           Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chenxi%Zhang%NULL%1,                           Lulu%Yang%NULL%1,                           Shuai%Liu%NULL%1,                           Simeng%Ma%NULL%0,                           Ying%Wang%NULL%0,                           Zhongxiang%Cai%NULL%0,                           Hui%Du%NULL%0,                           Ruiting%Li%NULL%0,                           Lijun%Kang%NULL%0,                           Meilei%Su%NULL%1,                           Jihui%Zhang%NULL%1,                           Zhongchun%Liu%NULL%0,                           Bin%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%2,                           Xiaobin%Zhu%NULL%1,                           Shuai%Fu%NULL%1,                           Yugang%Hu%NULL%1,                           Xiaoning%Li%NULL%1,                           Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%2,                           Hao%Zhou%haoye320@163.com%1,                           Yan%Zhou%NULL%1,                           Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhi-hao%Tu%NULL%1,                           Jing-wen%He%NULL%2,                           Jing-wen%He%NULL%0,                           Na%Zhou%NULL%1,                           Oliver%Schildgen.%NULL%3,                           Oliver%Schildgen.%NULL%0,                           Oliver%Schildgen.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%2,                           Lin%Sun%NULL%1,                           Lan%Zhang%NULL%1,                           Huan%Wang%NULL%1,                           Ajiao%Fan%NULL%1,                           Bin%Yang%NULL%1,                           Wei%Li%NULL%0,                           Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%2,                           Ranjan%Bhattacharyya%NULL%1,                           Sumita%Bhattacharyya%NULL%1,                           Sukanya%Gupta%NULL%1,                           Soumitra%Das%NULL%1,                           Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simmi%Gupta%NULL%1,                           Kinshuk%Kohli%NULL%1,                           P%Padmakumari%NULL%1,                           Prashant Kumar%Dixit%NULL%1,                           Ajay Shankar%Prasad%NULL%1,                           Bharath Seshadri%Chakravarthy%NULL%1,                           Rajat%Shukla%NULL%1,                           Parthasarathi%Ghana%NULL%1,                           Debasish%Mahapatra%NULL%1,                           G%Varadaraj%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William%Wilson%NULL%1,                           Jeffrey Pradeep%Raj%NULL%1,                           Seema%Rao%NULL%1,                           Murtuza%Ghiya%NULL%1,                           Nisanth Menon%Nedungalaparambil%NULL%1,                           Harshit%Mundra%NULL%1,                           Roshan%Mathew%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                           John R%Adler%NULL%0,                           Ram%Sandesh%NULL%2,                           Ram%Sandesh%NULL%0,                           Wajeeha%Shahid%NULL%1,                           Kapeel%Dev%NULL%1,                           Nikeeta%Mandhan%NULL%1,                           Prem%Shankar%NULL%1,                           Anam%Shaikh%NULL%1,                           Amber%Rizwan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%2,                           Ayşe%Kurtulmuş%NULL%1,                           Selim%Arpacıoğlu%NULL%1,                           Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0,                           Nicholas W.S.%Chew%NULL%1,                           Grace K.H.%Lee%NULL%2,                           Mingxue%Jing%NULL%2,                           Yihui%Goh%NULL%2,                           Leonard L.L.%Yeo%NULL%2,                           Ka%Zhang%NULL%1,                           Howe-Keat%Chin%NULL%1,                           Aftab%Ahmad%NULL%2,                           Faheem Ahmed%Khan%NULL%1,                           Ganesh Napolean%Shanmugam%NULL%1,                           Bernard P.L.%Chan%NULL%2,                           Sibi%Sunny%NULL%2,                           Bharatendu%Chandra%NULL%2,                           Jonathan J.Y.%Ong%NULL%2,                           Prakash R.%Paliwal%NULL%2,                           Lily Y.H.%Wong%NULL%2,                           Renarebecca%Sagayanathan%NULL%2,                           Jin Tao%Chen%NULL%2,                           Alison Ying%Ying Ng%NULL%2,                           Hock Luen%Teoh%NULL%2,                           Cyrus S.%Ho%NULL%2,                           Roger C.%Ho%NULL%2,                           Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alessandra%Rodrigues Martins%coreGivesNoEmail%1,                          Aline%Cristina Correa Anselmo%coreGivesNoEmail%1,                          Assun\u00e7\u00e3o%AA%coreGivesNoEmail%1,                          Botega%NJ%coreGivesNoEmail%1,                          Eduardo%Bassani Dal\u2019Bosco%coreGivesNoEmail%1,                          Freitas%FMB%coreGivesNoEmail%1,                          Guilherme%Arcaro%coreGivesNoEmail%1,                          Kang%L%coreGivesNoEmail%1,                          Lai%J%coreGivesNoEmail%1,                          Lana%RM%coreGivesNoEmail%1,                          Lara%Simone Messias Floriano%coreGivesNoEmail%1,                          Leonelli%LB%coreGivesNoEmail%1,                          Le\u00e3o%AM%coreGivesNoEmail%1,                          Liu%Y%coreGivesNoEmail%1,                          Martins%C%coreGivesNoEmail%1,                          Moura%A%coreGivesNoEmail%1,                          Oliveira%FP%coreGivesNoEmail%1,                          Pappa%S%coreGivesNoEmail%1,                          Rodriguez%EOL%coreGivesNoEmail%1,                          Ruback%SP%coreGivesNoEmail%1,                          Sena%AFJ%coreGivesNoEmail%1,                          Silva%DSD%coreGivesNoEmail%2,                          Silva%DSD%coreGivesNoEmail%0,                          Spoorthy%MS%coreGivesNoEmail%1,                          Suellen%Vienscoski Skupien%coreGivesNoEmail%1,                          Trettene%AS%coreGivesNoEmail%1,                          Vieira%NF%coreGivesNoEmail%1,                          Wang%SM%coreGivesNoEmail%1,                          Zigmond%AS%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0,                           Elisa%Pedroli%NULL%1,                           Guido E.%D'Aniello%NULL%1,                           Chiara%Stramba Badiale%NULL%1,                           Giada%Pietrabissa%NULL%1,                           Chiara%Manna%NULL%1,                           Marco%Stramba Badiale%NULL%1,                           Giuseppe%Riva%NULL%1,                           Gianluca%Castelnuovo%NULL%1,                           Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jacek C.%Szepietowski%jacek.szepietowski@umed.wroc.pl%1,                           Piotr%Krajewski%NULL%2,                           Piotr%Krajewski%NULL%0,                           Rafał%Biłynicki‐Birula%NULL%2,                           Rafał%Biłynicki‐Birula%NULL%0,                           Paweł%Poznański%NULL%2,                           Paweł%Poznański%NULL%0,                           Magdalena%Krajewska%NULL%2,                           Magdalena%Krajewska%NULL%0,                           Joanna%Rymaszewska%NULL%2,                           Joanna%Rymaszewska%NULL%0,                           Łukasz%Matusiak%NULL%2,                           Łukasz%Matusiak%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%2,                           Jing%Liu%NULL%0,                           Asghar%Afshar Jahanshahi%NULL%1,                           Khaled%Nawaser%NULL%1,                           Ali%Yousefi%NULL%1,                           Jizhen%Li%NULL%1,                           Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%2,                           Eman Zmaily%Dahmash%NULL%2,                           Eman Zmaily%Dahmash%NULL%0,                           Rabaa%Al‐Rousan%NULL%2,                           Rabaa%Al‐Rousan%NULL%0,                           Hassan%Alwafi%NULL%1,                           Hamzeh Mohammad%Alrawashdeh%NULL%1,                           Imene%Ghoul%NULL%1,                           Anwer%Abidine%NULL%1,                           Mohammed A.%Bokhary%NULL%1,                           Hadeel T.%AL‐Hadithi%NULL%1,                           Dalia%Ali%NULL%1,                           Rasha%Abuthawabeh%NULL%1,                           Ghada Mohammad%Abdelwahab%NULL%1,                           Yosra J.%Alhartani%NULL%1,                           Haneen%Al Muhaisen%NULL%1,                           Ayah%Dagash%NULL%1,                           Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anoop Krishna%Gupta%NULL%1,                           Aseem%Mehra%NULL%2,                           Aseem%Mehra%NULL%0,                           Abhash%Niraula%NULL%2,                           Abhash%Niraula%NULL%0,                           Khagendra%Kafle%NULL%2,                           Khagendra%Kafle%NULL%0,                           Saroj Prasad%Deo%NULL%2,                           Saroj Prasad%Deo%NULL%0,                           Babita%Singh%NULL%2,                           Babita%Singh%NULL%0,                           Swapnajeet%Sahoo%NULL%2,                           Swapnajeet%Sahoo%NULL%0,                           Sandeep%Grover%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thomas G.%Kannampallil%NULL%1,                           Charles W.%Goss%NULL%2,                           Charles W.%Goss%NULL%0,                           Bradley A.%Evanoff%NULL%1,                           Jaime R.%Strickland%NULL%1,                           Rebecca P.%McAlister%NULL%1,                           Jennifer%Duncan%NULL%1,                           Michio%Murakami%NULL%2,                           Michio%Murakami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nicholas W.S.%Chew%NULL%1,                           Grace K.H.%Lee%NULL%0,                           Benjamin Y.Q.%Tan%NULL%1,                           Mingxue%Jing%NULL%0,                           Yihui%Goh%NULL%0,                           Nicholas J.H.%Ngiam%NULL%1,                           Leonard L.L.%Yeo%NULL%0,                           Aftab%Ahmad%NULL%0,                           Faheem%Ahmed Khan%NULL%1,                           Ganesh%Napolean Shanmugam%NULL%1,                           Arvind K.%Sharma%NULL%1,                           R.N.%Komalkumar%NULL%1,                           P.V.%Meenakshi%NULL%1,                           Kenam%Shah%NULL%1,                           Bhargesh%Patel%NULL%1,                           Bernard P.L.%Chan%NULL%0,                           Sibi%Sunny%NULL%0,                           Bharatendu%Chandra%NULL%0,                           Jonathan J.Y.%Ong%NULL%0,                           Prakash R.%Paliwal%NULL%0,                           Lily Y.H.%Wong%NULL%0,                           Renarebecca%Sagayanathan%NULL%0,                           Jin Tao%Chen%NULL%0,                           Alison Ying%Ying Ng%NULL%0,                           Hock Luen%Teoh%NULL%0,                           Georgios%Tsivgoulis%NULL%1,                           Cyrus S.%Ho%NULL%0,                           Roger C.%Ho%NULL%0,                           Vijay K.%Sharma%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3182,7 +3405,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3214,7 +3437,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>845</v>
+        <v>909</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3246,7 +3469,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3278,7 +3501,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>846</v>
+        <v>910</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -3310,7 +3533,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>847</v>
+        <v>911</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -3342,7 +3565,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>848</v>
+        <v>912</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3368,22 +3591,22 @@
         <v>43920.0</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>877</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>913</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>914</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>880</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -3406,7 +3629,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>849</v>
+        <v>915</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -3438,7 +3661,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>850</v>
+        <v>916</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
@@ -3470,7 +3693,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>851</v>
+        <v>917</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -3496,22 +3719,22 @@
         <v>43910.0</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>884</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>918</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>919</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>880</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>887</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
@@ -3534,7 +3757,7 @@
         <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>852</v>
+        <v>920</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -3566,7 +3789,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>853</v>
+        <v>921</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -3598,7 +3821,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>854</v>
+        <v>922</v>
       </c>
       <c r="F15" t="s">
         <v>101</v>
@@ -3630,7 +3853,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>855</v>
+        <v>923</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
@@ -3662,7 +3885,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>856</v>
+        <v>924</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -3694,7 +3917,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>857</v>
+        <v>925</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -3726,7 +3949,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>858</v>
+        <v>926</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3758,7 +3981,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>859</v>
+        <v>927</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -3790,7 +4013,7 @@
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>860</v>
+        <v>928</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -3822,7 +4045,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>861</v>
+        <v>929</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3886,7 +4109,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>862</v>
+        <v>930</v>
       </c>
       <c r="F24" t="s">
         <v>137</v>
@@ -3918,7 +4141,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>863</v>
+        <v>931</v>
       </c>
       <c r="F25" t="s">
         <v>141</v>
@@ -3950,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>864</v>
+        <v>932</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3982,7 +4205,7 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>865</v>
+        <v>933</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -4014,7 +4237,7 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>866</v>
+        <v>934</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
@@ -4046,7 +4269,7 @@
         <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>867</v>
+        <v>935</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -4078,7 +4301,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>868</v>
+        <v>936</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -4110,7 +4333,7 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>869</v>
+        <v>937</v>
       </c>
       <c r="F31" t="s">
         <v>162</v>
@@ -4142,7 +4365,7 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>870</v>
+        <v>938</v>
       </c>
       <c r="F32" t="s">
         <v>166</v>
@@ -4174,7 +4397,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>871</v>
+        <v>939</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
